--- a/test4lock.xlsx
+++ b/test4lock.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/speedy/Documents/GitProjects/AmpSheetRepository/AmpSheetMain/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63D5BA77-1703-534A-BFA2-754F507B0B17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1FCE175-3850-EC43-BFE0-5A15C7109929}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-37760" yWindow="820" windowWidth="36300" windowHeight="19800" xr2:uid="{329AA3C5-52D5-8A41-A20D-B75AE869BCAA}"/>
+    <workbookView xWindow="-37760" yWindow="500" windowWidth="36300" windowHeight="19680" xr2:uid="{329AA3C5-52D5-8A41-A20D-B75AE869BCAA}"/>
   </bookViews>
   <sheets>
     <sheet name="Racks" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1361" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1368" uniqueCount="201">
   <si>
     <t>ChanLow</t>
   </si>
@@ -638,6 +638,27 @@
   <si>
     <t>Total Rack Amps =</t>
   </si>
+  <si>
+    <t>LEX Rack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#'s indicate </t>
+  </si>
+  <si>
+    <t>Calc for 120v</t>
+  </si>
+  <si>
+    <t>1=Leg Amp</t>
+  </si>
+  <si>
+    <t>2=Neutral</t>
+  </si>
+  <si>
+    <t>Lex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Template </t>
+  </si>
 </sst>
 </file>
 
@@ -970,7 +991,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1127,13 +1148,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1152,21 +1201,12 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1174,14 +1214,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1207,21 +1239,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1240,6 +1257,30 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1276,11 +1317,11 @@
     <xf numFmtId="0" fontId="7" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="7" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -1622,7 +1663,7 @@
   <dimension ref="A1:DU103"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1641,10 +1682,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:125" s="14" customFormat="1" ht="22">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="97"/>
+      <c r="B1" s="58"/>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
       <c r="E1" s="13"/>
@@ -1685,9 +1726,9 @@
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="66"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
       <c r="F3" s="1" t="s">
         <v>8</v>
       </c>
@@ -1719,12 +1760,8 @@
       <c r="B4" s="1">
         <v>1</v>
       </c>
-      <c r="C4" s="1">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0</v>
-      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
       <c r="E4" s="6"/>
       <c r="F4" s="1">
         <v>303</v>
@@ -1859,12 +1896,8 @@
         <v>2</v>
       </c>
       <c r="C5" s="6"/>
-      <c r="D5" s="1">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0</v>
-      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1">
         <v>105</v>
@@ -1993,13 +2026,9 @@
       <c r="B6" s="1">
         <v>3</v>
       </c>
-      <c r="C6" s="1">
-        <v>0</v>
-      </c>
+      <c r="C6" s="1"/>
       <c r="D6" s="6"/>
-      <c r="E6" s="1">
-        <v>0</v>
-      </c>
+      <c r="E6" s="1"/>
       <c r="F6" s="1">
         <v>106</v>
       </c>
@@ -2130,12 +2159,8 @@
       <c r="B7" s="1">
         <v>4</v>
       </c>
-      <c r="C7" s="1">
-        <v>0</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0</v>
-      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
       <c r="E7" s="6"/>
       <c r="F7" s="1">
         <v>204</v>
@@ -2266,12 +2291,8 @@
         <v>5</v>
       </c>
       <c r="C8" s="6"/>
-      <c r="D8" s="1">
-        <v>0</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0</v>
-      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
       <c r="F8" s="1">
         <v>205</v>
       </c>
@@ -2402,13 +2423,9 @@
       <c r="B9" s="1">
         <v>6</v>
       </c>
-      <c r="C9" s="1">
-        <v>0</v>
-      </c>
+      <c r="C9" s="1"/>
       <c r="D9" s="6"/>
-      <c r="E9" s="1">
-        <v>0</v>
-      </c>
+      <c r="E9" s="1"/>
       <c r="F9" s="1">
         <v>206</v>
       </c>
@@ -2533,7 +2550,7 @@
       <c r="DU9" s="14"/>
     </row>
     <row r="10" spans="1:125" ht="22">
-      <c r="A10" s="70"/>
+      <c r="A10" s="69"/>
       <c r="B10" s="1" t="s">
         <v>16</v>
       </c>
@@ -2550,12 +2567,12 @@
         <v>0</v>
       </c>
       <c r="F10" s="1"/>
-      <c r="G10" s="72" t="s">
+      <c r="G10" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
+      <c r="H10" s="72"/>
+      <c r="I10" s="72"/>
+      <c r="J10" s="72"/>
       <c r="K10" s="17"/>
       <c r="L10" s="17"/>
       <c r="M10" s="17"/>
@@ -2568,24 +2585,24 @@
       <c r="T10" s="18"/>
     </row>
     <row r="11" spans="1:125" ht="24">
-      <c r="A11" s="71"/>
+      <c r="A11" s="70"/>
       <c r="B11" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="61">
+      <c r="C11" s="86">
         <f>SUM(C10:E10)</f>
         <v>0</v>
       </c>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="79">
+      <c r="D11" s="87"/>
+      <c r="E11" s="87"/>
+      <c r="F11" s="88"/>
+      <c r="G11" s="81">
         <f>ROUNDUP(SUM(C10:E10)/3,2)</f>
         <v>0</v>
       </c>
-      <c r="H11" s="80"/>
-      <c r="I11" s="80"/>
-      <c r="J11" s="80"/>
+      <c r="H11" s="82"/>
+      <c r="I11" s="82"/>
+      <c r="J11" s="82"/>
       <c r="K11" s="17"/>
       <c r="L11" s="17"/>
       <c r="M11" s="17"/>
@@ -2598,24 +2615,24 @@
       <c r="T11" s="18"/>
     </row>
     <row r="12" spans="1:125" ht="22" customHeight="1">
-      <c r="A12" s="81"/>
+      <c r="A12" s="75"/>
       <c r="B12" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="55">
+      <c r="C12" s="59">
         <f>C11</f>
         <v>0</v>
       </c>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="83">
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="77">
         <f>G11</f>
         <v>0</v>
       </c>
-      <c r="H12" s="84"/>
-      <c r="I12" s="84"/>
-      <c r="J12" s="84"/>
+      <c r="H12" s="78"/>
+      <c r="I12" s="78"/>
+      <c r="J12" s="78"/>
       <c r="K12" s="17"/>
       <c r="L12" s="17"/>
       <c r="M12" s="17"/>
@@ -2628,18 +2645,18 @@
       <c r="T12" s="18"/>
     </row>
     <row r="13" spans="1:125" ht="22" customHeight="1">
-      <c r="A13" s="82"/>
+      <c r="A13" s="76"/>
       <c r="B13" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="58"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="85"/>
-      <c r="H13" s="86"/>
-      <c r="I13" s="86"/>
-      <c r="J13" s="86"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="79"/>
+      <c r="H13" s="80"/>
+      <c r="I13" s="80"/>
+      <c r="J13" s="80"/>
       <c r="K13" s="17"/>
       <c r="L13" s="17"/>
       <c r="M13" s="17"/>
@@ -2652,16 +2669,16 @@
       <c r="T13" s="18"/>
     </row>
     <row r="14" spans="1:125" s="23" customFormat="1" ht="11">
-      <c r="A14" s="68"/>
-      <c r="B14" s="69"/>
-      <c r="C14" s="69"/>
-      <c r="D14" s="69"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="69"/>
-      <c r="G14" s="69"/>
-      <c r="H14" s="69"/>
-      <c r="I14" s="69"/>
-      <c r="J14" s="69"/>
+      <c r="A14" s="65"/>
+      <c r="B14" s="66"/>
+      <c r="C14" s="66"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="66"/>
+      <c r="I14" s="66"/>
+      <c r="J14" s="66"/>
       <c r="K14" s="21"/>
       <c r="L14" s="21"/>
       <c r="M14" s="21"/>
@@ -2714,9 +2731,9 @@
       <c r="B16" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="66"/>
-      <c r="D16" s="67"/>
-      <c r="E16" s="67"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="68"/>
       <c r="F16" s="1" t="s">
         <v>8</v>
       </c>
@@ -2748,12 +2765,8 @@
       <c r="B17" s="1">
         <v>1</v>
       </c>
-      <c r="C17" s="1">
-        <v>0</v>
-      </c>
-      <c r="D17" s="1">
-        <v>0</v>
-      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
       <c r="E17" s="6"/>
       <c r="F17" s="1">
         <v>301</v>
@@ -2820,12 +2833,8 @@
         <v>2</v>
       </c>
       <c r="C18" s="6"/>
-      <c r="D18" s="1">
-        <v>0</v>
-      </c>
-      <c r="E18" s="1">
-        <v>0</v>
-      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1">
         <v>102</v>
@@ -2889,13 +2898,9 @@
       <c r="B19" s="1">
         <v>3</v>
       </c>
-      <c r="C19" s="1">
-        <v>0</v>
-      </c>
+      <c r="C19" s="1"/>
       <c r="D19" s="6"/>
-      <c r="E19" s="1">
-        <v>0</v>
-      </c>
+      <c r="E19" s="1"/>
       <c r="F19" s="1">
         <v>201</v>
       </c>
@@ -2955,12 +2960,8 @@
       <c r="B20" s="1">
         <v>4</v>
       </c>
-      <c r="C20" s="1">
-        <v>0</v>
-      </c>
-      <c r="D20" s="1">
-        <v>0</v>
-      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
       <c r="E20" s="6"/>
       <c r="F20" s="1">
         <v>202</v>
@@ -3023,12 +3024,8 @@
         <v>5</v>
       </c>
       <c r="C21" s="6"/>
-      <c r="D21" s="1">
-        <v>0</v>
-      </c>
-      <c r="E21" s="1">
-        <v>0</v>
-      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
       <c r="F21" s="1">
         <v>203</v>
       </c>
@@ -3091,13 +3088,9 @@
       <c r="B22" s="1">
         <v>6</v>
       </c>
-      <c r="C22" s="1">
-        <v>0</v>
-      </c>
+      <c r="C22" s="1"/>
       <c r="D22" s="6"/>
-      <c r="E22" s="1">
-        <v>0</v>
-      </c>
+      <c r="E22" s="1"/>
       <c r="F22" s="1">
         <v>103</v>
       </c>
@@ -3156,7 +3149,7 @@
       <c r="BE22" s="14"/>
     </row>
     <row r="23" spans="1:121" ht="22">
-      <c r="A23" s="70"/>
+      <c r="A23" s="69"/>
       <c r="B23" s="1" t="s">
         <v>16</v>
       </c>
@@ -3173,12 +3166,12 @@
         <v>0</v>
       </c>
       <c r="F23" s="1"/>
-      <c r="G23" s="72" t="s">
+      <c r="G23" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="H23" s="73"/>
-      <c r="I23" s="73"/>
-      <c r="J23" s="73"/>
+      <c r="H23" s="72"/>
+      <c r="I23" s="72"/>
+      <c r="J23" s="72"/>
       <c r="K23" s="17"/>
       <c r="L23" s="17"/>
       <c r="M23" s="17"/>
@@ -3191,24 +3184,24 @@
       <c r="T23" s="18"/>
     </row>
     <row r="24" spans="1:121" ht="22">
-      <c r="A24" s="71"/>
+      <c r="A24" s="70"/>
       <c r="B24" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="76">
+      <c r="C24" s="83">
         <f>SUM(C23:E23)</f>
         <v>0</v>
       </c>
-      <c r="D24" s="77"/>
-      <c r="E24" s="77"/>
-      <c r="F24" s="78"/>
-      <c r="G24" s="74">
+      <c r="D24" s="84"/>
+      <c r="E24" s="84"/>
+      <c r="F24" s="85"/>
+      <c r="G24" s="73">
         <f>ROUNDUP(SUM(C23:E23)/3,2)</f>
         <v>0</v>
       </c>
-      <c r="H24" s="75"/>
-      <c r="I24" s="75"/>
-      <c r="J24" s="75"/>
+      <c r="H24" s="74"/>
+      <c r="I24" s="74"/>
+      <c r="J24" s="74"/>
       <c r="K24" s="17"/>
       <c r="L24" s="17"/>
       <c r="M24" s="17"/>
@@ -3221,24 +3214,24 @@
       <c r="T24" s="18"/>
     </row>
     <row r="25" spans="1:121" ht="22" customHeight="1">
-      <c r="A25" s="70"/>
-      <c r="B25" s="81" t="s">
+      <c r="A25" s="69"/>
+      <c r="B25" s="75" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="55">
+      <c r="C25" s="59">
         <f>SUM(C12+C24)</f>
         <v>0</v>
       </c>
-      <c r="D25" s="56"/>
-      <c r="E25" s="56"/>
-      <c r="F25" s="57"/>
-      <c r="G25" s="55">
+      <c r="D25" s="60"/>
+      <c r="E25" s="60"/>
+      <c r="F25" s="61"/>
+      <c r="G25" s="59">
         <f>SUM(G12+G24)</f>
         <v>0</v>
       </c>
-      <c r="H25" s="56"/>
-      <c r="I25" s="56"/>
-      <c r="J25" s="56"/>
+      <c r="H25" s="60"/>
+      <c r="I25" s="60"/>
+      <c r="J25" s="60"/>
       <c r="K25" s="17"/>
       <c r="L25" s="17"/>
       <c r="M25" s="17"/>
@@ -3251,16 +3244,16 @@
       <c r="T25" s="18"/>
     </row>
     <row r="26" spans="1:121" ht="22" customHeight="1">
-      <c r="A26" s="71"/>
-      <c r="B26" s="82"/>
-      <c r="C26" s="58"/>
-      <c r="D26" s="59"/>
-      <c r="E26" s="59"/>
-      <c r="F26" s="60"/>
-      <c r="G26" s="58"/>
-      <c r="H26" s="59"/>
-      <c r="I26" s="59"/>
-      <c r="J26" s="59"/>
+      <c r="A26" s="70"/>
+      <c r="B26" s="76"/>
+      <c r="C26" s="62"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="64"/>
+      <c r="G26" s="62"/>
+      <c r="H26" s="63"/>
+      <c r="I26" s="63"/>
+      <c r="J26" s="63"/>
       <c r="K26" s="17"/>
       <c r="L26" s="17"/>
       <c r="M26" s="17"/>
@@ -3313,9 +3306,9 @@
       <c r="B28" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="66"/>
-      <c r="D28" s="67"/>
-      <c r="E28" s="67"/>
+      <c r="C28" s="67"/>
+      <c r="D28" s="68"/>
+      <c r="E28" s="68"/>
       <c r="F28" s="1" t="s">
         <v>8</v>
       </c>
@@ -3347,12 +3340,8 @@
       <c r="B29" s="1">
         <v>1</v>
       </c>
-      <c r="C29" s="1">
-        <v>0</v>
-      </c>
-      <c r="D29" s="1">
-        <v>0</v>
-      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
       <c r="E29" s="6"/>
       <c r="F29" s="1">
         <v>210</v>
@@ -3481,12 +3470,8 @@
         <v>2</v>
       </c>
       <c r="C30" s="6"/>
-      <c r="D30" s="1">
-        <v>0</v>
-      </c>
-      <c r="E30" s="1">
-        <v>0</v>
-      </c>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
       <c r="F30" s="1">
         <v>211</v>
       </c>
@@ -3614,13 +3599,9 @@
       <c r="B31" s="1">
         <v>3</v>
       </c>
-      <c r="C31" s="1">
-        <v>0</v>
-      </c>
+      <c r="C31" s="1"/>
       <c r="D31" s="6"/>
-      <c r="E31" s="1">
-        <v>0</v>
-      </c>
+      <c r="E31" s="1"/>
       <c r="F31" s="1">
         <v>212</v>
       </c>
@@ -3745,12 +3726,8 @@
       <c r="B32" s="1">
         <v>4</v>
       </c>
-      <c r="C32" s="1">
-        <v>0</v>
-      </c>
-      <c r="D32" s="1">
-        <v>0</v>
-      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
       <c r="E32" s="6"/>
       <c r="F32" s="1">
         <v>110</v>
@@ -3879,12 +3856,8 @@
         <v>5</v>
       </c>
       <c r="C33" s="6"/>
-      <c r="D33" s="1">
-        <v>0</v>
-      </c>
-      <c r="E33" s="1">
-        <v>0</v>
-      </c>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
       <c r="F33" s="1">
         <v>111</v>
       </c>
@@ -4013,13 +3986,9 @@
       <c r="B34" s="1">
         <v>6</v>
       </c>
-      <c r="C34" s="1">
-        <v>0</v>
-      </c>
+      <c r="C34" s="1"/>
       <c r="D34" s="6"/>
-      <c r="E34" s="1">
-        <v>0</v>
-      </c>
+      <c r="E34" s="1"/>
       <c r="F34" s="1">
         <v>112</v>
       </c>
@@ -4140,7 +4109,7 @@
       <c r="DQ34" s="14"/>
     </row>
     <row r="35" spans="1:121" ht="22">
-      <c r="A35" s="70"/>
+      <c r="A35" s="69"/>
       <c r="B35" s="1" t="s">
         <v>16</v>
       </c>
@@ -4157,12 +4126,12 @@
         <v>0</v>
       </c>
       <c r="F35" s="1"/>
-      <c r="G35" s="72" t="s">
+      <c r="G35" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="H35" s="73"/>
-      <c r="I35" s="73"/>
-      <c r="J35" s="73"/>
+      <c r="H35" s="72"/>
+      <c r="I35" s="72"/>
+      <c r="J35" s="72"/>
       <c r="K35" s="17"/>
       <c r="L35" s="17"/>
       <c r="M35" s="17"/>
@@ -4175,24 +4144,24 @@
       <c r="T35" s="18"/>
     </row>
     <row r="36" spans="1:121" ht="24">
-      <c r="A36" s="71"/>
+      <c r="A36" s="70"/>
       <c r="B36" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="61">
+      <c r="C36" s="86">
         <f>SUM(C35:E35)</f>
         <v>0</v>
       </c>
-      <c r="D36" s="62"/>
-      <c r="E36" s="62"/>
-      <c r="F36" s="63"/>
-      <c r="G36" s="79">
+      <c r="D36" s="87"/>
+      <c r="E36" s="87"/>
+      <c r="F36" s="88"/>
+      <c r="G36" s="81">
         <f>ROUNDUP(SUM(C35:E35)/3,2)</f>
         <v>0</v>
       </c>
-      <c r="H36" s="80"/>
-      <c r="I36" s="80"/>
-      <c r="J36" s="80"/>
+      <c r="H36" s="82"/>
+      <c r="I36" s="82"/>
+      <c r="J36" s="82"/>
       <c r="K36" s="17"/>
       <c r="L36" s="17"/>
       <c r="M36" s="17"/>
@@ -4205,24 +4174,24 @@
       <c r="T36" s="18"/>
     </row>
     <row r="37" spans="1:121" ht="22" customHeight="1">
-      <c r="A37" s="81"/>
+      <c r="A37" s="75"/>
       <c r="B37" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="C37" s="55">
+      <c r="C37" s="59">
         <f>C36</f>
         <v>0</v>
       </c>
-      <c r="D37" s="56"/>
-      <c r="E37" s="56"/>
-      <c r="F37" s="57"/>
-      <c r="G37" s="83">
+      <c r="D37" s="60"/>
+      <c r="E37" s="60"/>
+      <c r="F37" s="61"/>
+      <c r="G37" s="77">
         <f>G36</f>
         <v>0</v>
       </c>
-      <c r="H37" s="84"/>
-      <c r="I37" s="84"/>
-      <c r="J37" s="84"/>
+      <c r="H37" s="78"/>
+      <c r="I37" s="78"/>
+      <c r="J37" s="78"/>
       <c r="K37" s="17"/>
       <c r="L37" s="17"/>
       <c r="M37" s="17"/>
@@ -4235,18 +4204,18 @@
       <c r="T37" s="18"/>
     </row>
     <row r="38" spans="1:121" ht="22" customHeight="1">
-      <c r="A38" s="82"/>
+      <c r="A38" s="76"/>
       <c r="B38" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="C38" s="58"/>
-      <c r="D38" s="59"/>
-      <c r="E38" s="59"/>
-      <c r="F38" s="60"/>
-      <c r="G38" s="85"/>
-      <c r="H38" s="86"/>
-      <c r="I38" s="86"/>
-      <c r="J38" s="86"/>
+      <c r="C38" s="62"/>
+      <c r="D38" s="63"/>
+      <c r="E38" s="63"/>
+      <c r="F38" s="64"/>
+      <c r="G38" s="79"/>
+      <c r="H38" s="80"/>
+      <c r="I38" s="80"/>
+      <c r="J38" s="80"/>
       <c r="K38" s="17"/>
       <c r="L38" s="17"/>
       <c r="M38" s="17"/>
@@ -4259,16 +4228,16 @@
       <c r="T38" s="18"/>
     </row>
     <row r="39" spans="1:121" s="23" customFormat="1" ht="11">
-      <c r="A39" s="68"/>
-      <c r="B39" s="69"/>
-      <c r="C39" s="69"/>
-      <c r="D39" s="69"/>
-      <c r="E39" s="69"/>
-      <c r="F39" s="69"/>
-      <c r="G39" s="69"/>
-      <c r="H39" s="69"/>
-      <c r="I39" s="69"/>
-      <c r="J39" s="69"/>
+      <c r="A39" s="65"/>
+      <c r="B39" s="66"/>
+      <c r="C39" s="66"/>
+      <c r="D39" s="66"/>
+      <c r="E39" s="66"/>
+      <c r="F39" s="66"/>
+      <c r="G39" s="66"/>
+      <c r="H39" s="66"/>
+      <c r="I39" s="66"/>
+      <c r="J39" s="66"/>
       <c r="K39" s="21"/>
       <c r="L39" s="21"/>
       <c r="M39" s="21"/>
@@ -4321,9 +4290,9 @@
       <c r="B41" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C41" s="66"/>
-      <c r="D41" s="67"/>
-      <c r="E41" s="67"/>
+      <c r="C41" s="67"/>
+      <c r="D41" s="68"/>
+      <c r="E41" s="68"/>
       <c r="F41" s="1" t="s">
         <v>8</v>
       </c>
@@ -4355,12 +4324,8 @@
       <c r="B42" s="1">
         <v>1</v>
       </c>
-      <c r="C42" s="1">
-        <v>0</v>
-      </c>
-      <c r="D42" s="1">
-        <v>0</v>
-      </c>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
       <c r="E42" s="6"/>
       <c r="F42" s="1">
         <v>113</v>
@@ -4417,12 +4382,8 @@
         <v>2</v>
       </c>
       <c r="C43" s="6"/>
-      <c r="D43" s="1">
-        <v>0</v>
-      </c>
-      <c r="E43" s="1">
-        <v>0</v>
-      </c>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
       <c r="F43" s="1">
         <v>114</v>
       </c>
@@ -4480,13 +4441,9 @@
       <c r="B44" s="1">
         <v>3</v>
       </c>
-      <c r="C44" s="1">
-        <v>0</v>
-      </c>
+      <c r="C44" s="1"/>
       <c r="D44" s="6"/>
-      <c r="E44" s="1">
-        <v>0</v>
-      </c>
+      <c r="E44" s="1"/>
       <c r="F44" s="1">
         <v>115</v>
       </c>
@@ -4541,12 +4498,8 @@
       <c r="B45" s="1">
         <v>4</v>
       </c>
-      <c r="C45" s="1">
-        <v>0</v>
-      </c>
-      <c r="D45" s="1">
-        <v>0</v>
-      </c>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
       <c r="E45" s="6"/>
       <c r="F45" s="1">
         <v>207</v>
@@ -4601,12 +4554,8 @@
         <v>5</v>
       </c>
       <c r="C46" s="6"/>
-      <c r="D46" s="1">
-        <v>0</v>
-      </c>
-      <c r="E46" s="1">
-        <v>0</v>
-      </c>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
       <c r="F46" s="1">
         <v>208</v>
       </c>
@@ -4661,13 +4610,9 @@
       <c r="B47" s="1">
         <v>6</v>
       </c>
-      <c r="C47" s="1">
-        <v>0</v>
-      </c>
+      <c r="C47" s="1"/>
       <c r="D47" s="6"/>
-      <c r="E47" s="1">
-        <v>0</v>
-      </c>
+      <c r="E47" s="1"/>
       <c r="F47" s="1">
         <v>209</v>
       </c>
@@ -4716,7 +4661,7 @@
       <c r="AW47" s="14"/>
     </row>
     <row r="48" spans="1:121" ht="22">
-      <c r="A48" s="70"/>
+      <c r="A48" s="69"/>
       <c r="B48" s="1" t="s">
         <v>16</v>
       </c>
@@ -4733,12 +4678,12 @@
         <v>0</v>
       </c>
       <c r="F48" s="1"/>
-      <c r="G48" s="72" t="s">
+      <c r="G48" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="H48" s="73"/>
-      <c r="I48" s="73"/>
-      <c r="J48" s="73"/>
+      <c r="H48" s="72"/>
+      <c r="I48" s="72"/>
+      <c r="J48" s="72"/>
       <c r="K48" s="17"/>
       <c r="L48" s="17"/>
       <c r="M48" s="17"/>
@@ -4751,24 +4696,24 @@
       <c r="T48" s="18"/>
     </row>
     <row r="49" spans="1:47" ht="22">
-      <c r="A49" s="71"/>
+      <c r="A49" s="70"/>
       <c r="B49" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C49" s="76">
+      <c r="C49" s="83">
         <f>SUM(C48:E48)</f>
         <v>0</v>
       </c>
-      <c r="D49" s="77"/>
-      <c r="E49" s="77"/>
-      <c r="F49" s="78"/>
-      <c r="G49" s="74">
+      <c r="D49" s="84"/>
+      <c r="E49" s="84"/>
+      <c r="F49" s="85"/>
+      <c r="G49" s="73">
         <f>ROUNDUP(SUM(C48:E48)/3,2)</f>
         <v>0</v>
       </c>
-      <c r="H49" s="75"/>
-      <c r="I49" s="75"/>
-      <c r="J49" s="75"/>
+      <c r="H49" s="74"/>
+      <c r="I49" s="74"/>
+      <c r="J49" s="74"/>
       <c r="K49" s="17"/>
       <c r="L49" s="17"/>
       <c r="M49" s="17"/>
@@ -4781,24 +4726,24 @@
       <c r="T49" s="18"/>
     </row>
     <row r="50" spans="1:47" ht="22" customHeight="1">
-      <c r="A50" s="70"/>
-      <c r="B50" s="81" t="s">
+      <c r="A50" s="69"/>
+      <c r="B50" s="75" t="s">
         <v>43</v>
       </c>
-      <c r="C50" s="55">
+      <c r="C50" s="59">
         <f>SUM(C37+C49)</f>
         <v>0</v>
       </c>
-      <c r="D50" s="56"/>
-      <c r="E50" s="56"/>
-      <c r="F50" s="57"/>
-      <c r="G50" s="55">
+      <c r="D50" s="60"/>
+      <c r="E50" s="60"/>
+      <c r="F50" s="61"/>
+      <c r="G50" s="59">
         <f>SUM(G37+G49)</f>
         <v>0</v>
       </c>
-      <c r="H50" s="56"/>
-      <c r="I50" s="56"/>
-      <c r="J50" s="56"/>
+      <c r="H50" s="60"/>
+      <c r="I50" s="60"/>
+      <c r="J50" s="60"/>
       <c r="K50" s="17"/>
       <c r="L50" s="17"/>
       <c r="M50" s="17"/>
@@ -4811,16 +4756,16 @@
       <c r="T50" s="18"/>
     </row>
     <row r="51" spans="1:47" ht="22" customHeight="1">
-      <c r="A51" s="71"/>
-      <c r="B51" s="82"/>
-      <c r="C51" s="58"/>
-      <c r="D51" s="59"/>
-      <c r="E51" s="59"/>
-      <c r="F51" s="60"/>
-      <c r="G51" s="58"/>
-      <c r="H51" s="59"/>
-      <c r="I51" s="59"/>
-      <c r="J51" s="59"/>
+      <c r="A51" s="70"/>
+      <c r="B51" s="76"/>
+      <c r="C51" s="62"/>
+      <c r="D51" s="63"/>
+      <c r="E51" s="63"/>
+      <c r="F51" s="64"/>
+      <c r="G51" s="62"/>
+      <c r="H51" s="63"/>
+      <c r="I51" s="63"/>
+      <c r="J51" s="63"/>
       <c r="K51" s="17"/>
       <c r="L51" s="17"/>
       <c r="M51" s="17"/>
@@ -4873,9 +4818,9 @@
       <c r="B53" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C53" s="66"/>
-      <c r="D53" s="67"/>
-      <c r="E53" s="67"/>
+      <c r="C53" s="67"/>
+      <c r="D53" s="68"/>
+      <c r="E53" s="68"/>
       <c r="F53" s="1" t="s">
         <v>8</v>
       </c>
@@ -4907,12 +4852,8 @@
       <c r="B54" s="1">
         <v>1</v>
       </c>
-      <c r="C54" s="1">
-        <v>0</v>
-      </c>
-      <c r="D54" s="1">
-        <v>0</v>
-      </c>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
       <c r="E54" s="6"/>
       <c r="F54" s="1">
         <v>401</v>
@@ -4971,12 +4912,8 @@
         <v>2</v>
       </c>
       <c r="C55" s="6"/>
-      <c r="D55" s="1">
-        <v>0</v>
-      </c>
-      <c r="E55" s="1">
-        <v>0</v>
-      </c>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
       <c r="F55" s="1"/>
       <c r="G55" s="1">
         <v>403</v>
@@ -5032,13 +4969,9 @@
       <c r="B56" s="1">
         <v>3</v>
       </c>
-      <c r="C56" s="1">
-        <v>0</v>
-      </c>
+      <c r="C56" s="1"/>
       <c r="D56" s="6"/>
-      <c r="E56" s="1">
-        <v>0</v>
-      </c>
+      <c r="E56" s="1"/>
       <c r="F56" s="1">
         <v>602</v>
       </c>
@@ -5091,12 +5024,8 @@
       <c r="B57" s="1">
         <v>4</v>
       </c>
-      <c r="C57" s="1">
-        <v>0</v>
-      </c>
-      <c r="D57" s="1">
-        <v>0</v>
-      </c>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
       <c r="E57" s="6"/>
       <c r="F57" s="1">
         <v>501</v>
@@ -5151,12 +5080,8 @@
         <v>5</v>
       </c>
       <c r="C58" s="6"/>
-      <c r="D58" s="1">
-        <v>0</v>
-      </c>
-      <c r="E58" s="1">
-        <v>0</v>
-      </c>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
       <c r="F58" s="1">
         <v>603</v>
       </c>
@@ -5211,13 +5136,9 @@
       <c r="B59" s="1">
         <v>6</v>
       </c>
-      <c r="C59" s="1">
-        <v>0</v>
-      </c>
+      <c r="C59" s="1"/>
       <c r="D59" s="6"/>
-      <c r="E59" s="1">
-        <v>0</v>
-      </c>
+      <c r="E59" s="1"/>
       <c r="F59" s="1">
         <v>504</v>
       </c>
@@ -5264,7 +5185,7 @@
       <c r="AU59" s="14"/>
     </row>
     <row r="60" spans="1:47" ht="22">
-      <c r="A60" s="70"/>
+      <c r="A60" s="69"/>
       <c r="B60" s="1" t="s">
         <v>16</v>
       </c>
@@ -5281,12 +5202,12 @@
         <v>0</v>
       </c>
       <c r="F60" s="1"/>
-      <c r="G60" s="72" t="s">
+      <c r="G60" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="H60" s="73"/>
-      <c r="I60" s="73"/>
-      <c r="J60" s="73"/>
+      <c r="H60" s="72"/>
+      <c r="I60" s="72"/>
+      <c r="J60" s="72"/>
       <c r="K60" s="17"/>
       <c r="L60" s="17"/>
       <c r="M60" s="17"/>
@@ -5299,24 +5220,24 @@
       <c r="T60" s="18"/>
     </row>
     <row r="61" spans="1:47" ht="24">
-      <c r="A61" s="71"/>
+      <c r="A61" s="70"/>
       <c r="B61" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C61" s="61">
+      <c r="C61" s="86">
         <f>SUM(C60:E60)</f>
         <v>0</v>
       </c>
-      <c r="D61" s="62"/>
-      <c r="E61" s="62"/>
-      <c r="F61" s="63"/>
-      <c r="G61" s="79">
+      <c r="D61" s="87"/>
+      <c r="E61" s="87"/>
+      <c r="F61" s="88"/>
+      <c r="G61" s="81">
         <f>ROUNDUP(SUM(C60:E60)/3,2)</f>
         <v>0</v>
       </c>
-      <c r="H61" s="80"/>
-      <c r="I61" s="80"/>
-      <c r="J61" s="80"/>
+      <c r="H61" s="82"/>
+      <c r="I61" s="82"/>
+      <c r="J61" s="82"/>
       <c r="K61" s="17"/>
       <c r="L61" s="17"/>
       <c r="M61" s="17"/>
@@ -5329,24 +5250,24 @@
       <c r="T61" s="18"/>
     </row>
     <row r="62" spans="1:47" ht="22" customHeight="1">
-      <c r="A62" s="81"/>
+      <c r="A62" s="75"/>
       <c r="B62" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="C62" s="55">
+      <c r="C62" s="59">
         <f>C61</f>
         <v>0</v>
       </c>
-      <c r="D62" s="56"/>
-      <c r="E62" s="56"/>
-      <c r="F62" s="57"/>
-      <c r="G62" s="83">
+      <c r="D62" s="60"/>
+      <c r="E62" s="60"/>
+      <c r="F62" s="61"/>
+      <c r="G62" s="77">
         <f>G61</f>
         <v>0</v>
       </c>
-      <c r="H62" s="84"/>
-      <c r="I62" s="84"/>
-      <c r="J62" s="84"/>
+      <c r="H62" s="78"/>
+      <c r="I62" s="78"/>
+      <c r="J62" s="78"/>
       <c r="K62" s="17"/>
       <c r="L62" s="17"/>
       <c r="M62" s="17"/>
@@ -5359,18 +5280,18 @@
       <c r="T62" s="18"/>
     </row>
     <row r="63" spans="1:47" ht="22" customHeight="1">
-      <c r="A63" s="82"/>
+      <c r="A63" s="76"/>
       <c r="B63" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="C63" s="58"/>
-      <c r="D63" s="59"/>
-      <c r="E63" s="59"/>
-      <c r="F63" s="60"/>
-      <c r="G63" s="85"/>
-      <c r="H63" s="86"/>
-      <c r="I63" s="86"/>
-      <c r="J63" s="86"/>
+      <c r="C63" s="62"/>
+      <c r="D63" s="63"/>
+      <c r="E63" s="63"/>
+      <c r="F63" s="64"/>
+      <c r="G63" s="79"/>
+      <c r="H63" s="80"/>
+      <c r="I63" s="80"/>
+      <c r="J63" s="80"/>
       <c r="K63" s="17"/>
       <c r="L63" s="17"/>
       <c r="M63" s="17"/>
@@ -5383,16 +5304,16 @@
       <c r="T63" s="18"/>
     </row>
     <row r="64" spans="1:47" s="23" customFormat="1" ht="11">
-      <c r="A64" s="68"/>
-      <c r="B64" s="69"/>
-      <c r="C64" s="69"/>
-      <c r="D64" s="69"/>
-      <c r="E64" s="69"/>
-      <c r="F64" s="69"/>
-      <c r="G64" s="69"/>
-      <c r="H64" s="69"/>
-      <c r="I64" s="69"/>
-      <c r="J64" s="69"/>
+      <c r="A64" s="65"/>
+      <c r="B64" s="66"/>
+      <c r="C64" s="66"/>
+      <c r="D64" s="66"/>
+      <c r="E64" s="66"/>
+      <c r="F64" s="66"/>
+      <c r="G64" s="66"/>
+      <c r="H64" s="66"/>
+      <c r="I64" s="66"/>
+      <c r="J64" s="66"/>
       <c r="K64" s="21"/>
       <c r="L64" s="21"/>
       <c r="M64" s="21"/>
@@ -5445,9 +5366,9 @@
       <c r="B66" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C66" s="66"/>
-      <c r="D66" s="67"/>
-      <c r="E66" s="67"/>
+      <c r="C66" s="67"/>
+      <c r="D66" s="68"/>
+      <c r="E66" s="68"/>
       <c r="F66" s="1" t="s">
         <v>8</v>
       </c>
@@ -5479,12 +5400,8 @@
       <c r="B67" s="1">
         <v>1</v>
       </c>
-      <c r="C67" s="1">
-        <v>0</v>
-      </c>
-      <c r="D67" s="1">
-        <v>0</v>
-      </c>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
       <c r="E67" s="6"/>
       <c r="F67" s="1">
         <v>406</v>
@@ -5534,12 +5451,8 @@
         <v>2</v>
       </c>
       <c r="C68" s="6"/>
-      <c r="D68" s="1">
-        <v>0</v>
-      </c>
-      <c r="E68" s="1">
-        <v>0</v>
-      </c>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
       <c r="F68" s="1">
         <v>505</v>
       </c>
@@ -5590,13 +5503,9 @@
       <c r="B69" s="1">
         <v>3</v>
       </c>
-      <c r="C69" s="1">
-        <v>0</v>
-      </c>
+      <c r="C69" s="1"/>
       <c r="D69" s="6"/>
-      <c r="E69" s="1">
-        <v>0</v>
-      </c>
+      <c r="E69" s="1"/>
       <c r="F69" s="1">
         <v>404</v>
       </c>
@@ -5644,12 +5553,8 @@
       <c r="B70" s="1">
         <v>4</v>
       </c>
-      <c r="C70" s="1">
-        <v>0</v>
-      </c>
-      <c r="D70" s="1">
-        <v>0</v>
-      </c>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
       <c r="E70" s="6"/>
       <c r="F70" s="1">
         <v>405</v>
@@ -5701,12 +5606,8 @@
         <v>5</v>
       </c>
       <c r="C71" s="6"/>
-      <c r="D71" s="1">
-        <v>0</v>
-      </c>
-      <c r="E71" s="1">
-        <v>0</v>
-      </c>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
       <c r="F71" s="1">
         <v>506</v>
       </c>
@@ -5756,13 +5657,9 @@
       <c r="B72" s="1">
         <v>6</v>
       </c>
-      <c r="C72" s="1">
-        <v>0</v>
-      </c>
+      <c r="C72" s="1"/>
       <c r="D72" s="6"/>
-      <c r="E72" s="1">
-        <v>0</v>
-      </c>
+      <c r="E72" s="1"/>
       <c r="F72" s="1"/>
       <c r="G72" s="1">
         <v>407</v>
@@ -5806,7 +5703,7 @@
       <c r="AP72" s="14"/>
     </row>
     <row r="73" spans="1:90" ht="22">
-      <c r="A73" s="70"/>
+      <c r="A73" s="69"/>
       <c r="B73" s="1" t="s">
         <v>16</v>
       </c>
@@ -5823,12 +5720,12 @@
         <v>0</v>
       </c>
       <c r="F73" s="1"/>
-      <c r="G73" s="72" t="s">
+      <c r="G73" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="H73" s="73"/>
-      <c r="I73" s="73"/>
-      <c r="J73" s="73"/>
+      <c r="H73" s="72"/>
+      <c r="I73" s="72"/>
+      <c r="J73" s="72"/>
       <c r="K73" s="17"/>
       <c r="L73" s="17"/>
       <c r="M73" s="17"/>
@@ -5841,24 +5738,24 @@
       <c r="T73" s="18"/>
     </row>
     <row r="74" spans="1:90" ht="22">
-      <c r="A74" s="71"/>
+      <c r="A74" s="70"/>
       <c r="B74" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C74" s="76">
+      <c r="C74" s="83">
         <f>SUM(C73:E73)</f>
         <v>0</v>
       </c>
-      <c r="D74" s="77"/>
-      <c r="E74" s="77"/>
-      <c r="F74" s="78"/>
-      <c r="G74" s="74">
+      <c r="D74" s="84"/>
+      <c r="E74" s="84"/>
+      <c r="F74" s="85"/>
+      <c r="G74" s="73">
         <f>ROUNDUP(SUM(C73:E73)/3,2)</f>
         <v>0</v>
       </c>
-      <c r="H74" s="75"/>
-      <c r="I74" s="75"/>
-      <c r="J74" s="75"/>
+      <c r="H74" s="74"/>
+      <c r="I74" s="74"/>
+      <c r="J74" s="74"/>
       <c r="K74" s="17"/>
       <c r="L74" s="17"/>
       <c r="M74" s="17"/>
@@ -5871,24 +5768,24 @@
       <c r="T74" s="18"/>
     </row>
     <row r="75" spans="1:90" ht="22" customHeight="1">
-      <c r="A75" s="70"/>
-      <c r="B75" s="81" t="s">
+      <c r="A75" s="69"/>
+      <c r="B75" s="75" t="s">
         <v>45</v>
       </c>
-      <c r="C75" s="55">
+      <c r="C75" s="59">
         <f>SUM(C62+C74)</f>
         <v>0</v>
       </c>
-      <c r="D75" s="56"/>
-      <c r="E75" s="56"/>
-      <c r="F75" s="57"/>
-      <c r="G75" s="55">
+      <c r="D75" s="60"/>
+      <c r="E75" s="60"/>
+      <c r="F75" s="61"/>
+      <c r="G75" s="59">
         <f>SUM(G62+G74)</f>
         <v>0</v>
       </c>
-      <c r="H75" s="56"/>
-      <c r="I75" s="56"/>
-      <c r="J75" s="56"/>
+      <c r="H75" s="60"/>
+      <c r="I75" s="60"/>
+      <c r="J75" s="60"/>
       <c r="K75" s="17"/>
       <c r="L75" s="17"/>
       <c r="M75" s="17"/>
@@ -5901,16 +5798,16 @@
       <c r="T75" s="18"/>
     </row>
     <row r="76" spans="1:90" ht="22" customHeight="1">
-      <c r="A76" s="71"/>
-      <c r="B76" s="82"/>
-      <c r="C76" s="58"/>
-      <c r="D76" s="59"/>
-      <c r="E76" s="59"/>
-      <c r="F76" s="60"/>
-      <c r="G76" s="58"/>
-      <c r="H76" s="59"/>
-      <c r="I76" s="59"/>
-      <c r="J76" s="59"/>
+      <c r="A76" s="70"/>
+      <c r="B76" s="76"/>
+      <c r="C76" s="62"/>
+      <c r="D76" s="63"/>
+      <c r="E76" s="63"/>
+      <c r="F76" s="64"/>
+      <c r="G76" s="62"/>
+      <c r="H76" s="63"/>
+      <c r="I76" s="63"/>
+      <c r="J76" s="63"/>
       <c r="K76" s="17"/>
       <c r="L76" s="17"/>
       <c r="M76" s="17"/>
@@ -5963,9 +5860,9 @@
       <c r="B78" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C78" s="66"/>
-      <c r="D78" s="67"/>
-      <c r="E78" s="67"/>
+      <c r="C78" s="67"/>
+      <c r="D78" s="68"/>
+      <c r="E78" s="68"/>
       <c r="F78" s="1" t="s">
         <v>8</v>
       </c>
@@ -5997,12 +5894,8 @@
       <c r="B79" s="1">
         <v>1</v>
       </c>
-      <c r="C79" s="1">
-        <v>0</v>
-      </c>
-      <c r="D79" s="1">
-        <v>0</v>
-      </c>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
       <c r="E79" s="6"/>
       <c r="F79" s="1">
         <v>901</v>
@@ -6100,12 +5993,8 @@
         <v>2</v>
       </c>
       <c r="C80" s="6"/>
-      <c r="D80" s="1">
-        <v>0</v>
-      </c>
-      <c r="E80" s="1">
-        <v>0</v>
-      </c>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
       <c r="F80" s="1">
         <v>902</v>
       </c>
@@ -6204,13 +6093,9 @@
       <c r="B81" s="1">
         <v>3</v>
       </c>
-      <c r="C81" s="1">
-        <v>0</v>
-      </c>
+      <c r="C81" s="1"/>
       <c r="D81" s="6"/>
-      <c r="E81" s="1">
-        <v>0</v>
-      </c>
+      <c r="E81" s="1"/>
       <c r="F81" s="1">
         <v>801</v>
       </c>
@@ -6308,12 +6193,8 @@
       <c r="B82" s="1">
         <v>4</v>
       </c>
-      <c r="C82" s="1">
-        <v>0</v>
-      </c>
-      <c r="D82" s="1">
-        <v>0</v>
-      </c>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
       <c r="E82" s="6"/>
       <c r="F82" s="1">
         <v>803</v>
@@ -6415,12 +6296,8 @@
         <v>5</v>
       </c>
       <c r="C83" s="6"/>
-      <c r="D83" s="1">
-        <v>0</v>
-      </c>
-      <c r="E83" s="1">
-        <v>0</v>
-      </c>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
       <c r="F83" s="1">
         <v>807</v>
       </c>
@@ -6518,13 +6395,9 @@
       <c r="B84" s="1">
         <v>6</v>
       </c>
-      <c r="C84" s="1">
-        <v>0</v>
-      </c>
+      <c r="C84" s="1"/>
       <c r="D84" s="6"/>
-      <c r="E84" s="1">
-        <v>0</v>
-      </c>
+      <c r="E84" s="1"/>
       <c r="F84" s="1"/>
       <c r="G84" s="5"/>
       <c r="H84" s="1"/>
@@ -6612,7 +6485,7 @@
       <c r="CL84" s="14"/>
     </row>
     <row r="85" spans="1:90" ht="22">
-      <c r="A85" s="70"/>
+      <c r="A85" s="69"/>
       <c r="B85" s="1" t="s">
         <v>16</v>
       </c>
@@ -6629,12 +6502,12 @@
         <v>0</v>
       </c>
       <c r="F85" s="1"/>
-      <c r="G85" s="72" t="s">
+      <c r="G85" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="H85" s="73"/>
-      <c r="I85" s="73"/>
-      <c r="J85" s="73"/>
+      <c r="H85" s="72"/>
+      <c r="I85" s="72"/>
+      <c r="J85" s="72"/>
       <c r="K85" s="17"/>
       <c r="L85" s="17"/>
       <c r="M85" s="17"/>
@@ -6647,24 +6520,24 @@
       <c r="T85" s="18"/>
     </row>
     <row r="86" spans="1:90" ht="24">
-      <c r="A86" s="71"/>
+      <c r="A86" s="70"/>
       <c r="B86" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C86" s="61">
+      <c r="C86" s="86">
         <f>SUM(C85:E85)</f>
         <v>0</v>
       </c>
-      <c r="D86" s="62"/>
-      <c r="E86" s="62"/>
-      <c r="F86" s="63"/>
-      <c r="G86" s="79">
+      <c r="D86" s="87"/>
+      <c r="E86" s="87"/>
+      <c r="F86" s="88"/>
+      <c r="G86" s="81">
         <f>ROUNDUP(SUM(C85:E85)/3,2)</f>
         <v>0</v>
       </c>
-      <c r="H86" s="80"/>
-      <c r="I86" s="80"/>
-      <c r="J86" s="80"/>
+      <c r="H86" s="82"/>
+      <c r="I86" s="82"/>
+      <c r="J86" s="82"/>
       <c r="K86" s="17"/>
       <c r="L86" s="17"/>
       <c r="M86" s="17"/>
@@ -6677,24 +6550,24 @@
       <c r="T86" s="18"/>
     </row>
     <row r="87" spans="1:90" ht="22" customHeight="1">
-      <c r="A87" s="81"/>
+      <c r="A87" s="75"/>
       <c r="B87" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="C87" s="55">
+      <c r="C87" s="59">
         <f>C86</f>
         <v>0</v>
       </c>
-      <c r="D87" s="56"/>
-      <c r="E87" s="56"/>
-      <c r="F87" s="57"/>
-      <c r="G87" s="83">
+      <c r="D87" s="60"/>
+      <c r="E87" s="60"/>
+      <c r="F87" s="61"/>
+      <c r="G87" s="77">
         <f>G86</f>
         <v>0</v>
       </c>
-      <c r="H87" s="84"/>
-      <c r="I87" s="84"/>
-      <c r="J87" s="84"/>
+      <c r="H87" s="78"/>
+      <c r="I87" s="78"/>
+      <c r="J87" s="78"/>
       <c r="K87" s="17"/>
       <c r="L87" s="17"/>
       <c r="M87" s="17"/>
@@ -6707,18 +6580,18 @@
       <c r="T87" s="18"/>
     </row>
     <row r="88" spans="1:90" ht="22" customHeight="1">
-      <c r="A88" s="82"/>
+      <c r="A88" s="76"/>
       <c r="B88" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="C88" s="58"/>
-      <c r="D88" s="59"/>
-      <c r="E88" s="59"/>
-      <c r="F88" s="60"/>
-      <c r="G88" s="85"/>
-      <c r="H88" s="86"/>
-      <c r="I88" s="86"/>
-      <c r="J88" s="86"/>
+      <c r="C88" s="62"/>
+      <c r="D88" s="63"/>
+      <c r="E88" s="63"/>
+      <c r="F88" s="64"/>
+      <c r="G88" s="79"/>
+      <c r="H88" s="80"/>
+      <c r="I88" s="80"/>
+      <c r="J88" s="80"/>
       <c r="K88" s="17"/>
       <c r="L88" s="17"/>
       <c r="M88" s="17"/>
@@ -6731,16 +6604,16 @@
       <c r="T88" s="18"/>
     </row>
     <row r="89" spans="1:90" s="27" customFormat="1" ht="7">
-      <c r="A89" s="89"/>
-      <c r="B89" s="90"/>
-      <c r="C89" s="90"/>
-      <c r="D89" s="90"/>
-      <c r="E89" s="90"/>
-      <c r="F89" s="90"/>
-      <c r="G89" s="90"/>
-      <c r="H89" s="90"/>
-      <c r="I89" s="90"/>
-      <c r="J89" s="90"/>
+      <c r="A89" s="91"/>
+      <c r="B89" s="92"/>
+      <c r="C89" s="92"/>
+      <c r="D89" s="92"/>
+      <c r="E89" s="92"/>
+      <c r="F89" s="92"/>
+      <c r="G89" s="92"/>
+      <c r="H89" s="92"/>
+      <c r="I89" s="92"/>
+      <c r="J89" s="92"/>
       <c r="K89" s="25"/>
       <c r="L89" s="25"/>
       <c r="M89" s="25"/>
@@ -6793,9 +6666,9 @@
       <c r="B91" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C91" s="66"/>
-      <c r="D91" s="67"/>
-      <c r="E91" s="67"/>
+      <c r="C91" s="67"/>
+      <c r="D91" s="68"/>
+      <c r="E91" s="68"/>
       <c r="F91" s="1" t="s">
         <v>8</v>
       </c>
@@ -6827,12 +6700,8 @@
       <c r="B92" s="1">
         <v>1</v>
       </c>
-      <c r="C92" s="1">
-        <v>0</v>
-      </c>
-      <c r="D92" s="1">
-        <v>0</v>
-      </c>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
       <c r="E92" s="6"/>
       <c r="F92" s="1">
         <v>907</v>
@@ -6911,12 +6780,8 @@
         <v>2</v>
       </c>
       <c r="C93" s="6"/>
-      <c r="D93" s="1">
-        <v>0</v>
-      </c>
-      <c r="E93" s="1">
-        <v>0</v>
-      </c>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1"/>
       <c r="F93" s="1">
         <v>908</v>
       </c>
@@ -6994,13 +6859,9 @@
       <c r="B94" s="1">
         <v>3</v>
       </c>
-      <c r="C94" s="1">
-        <v>0</v>
-      </c>
+      <c r="C94" s="1"/>
       <c r="D94" s="6"/>
-      <c r="E94" s="1">
-        <v>0</v>
-      </c>
+      <c r="E94" s="1"/>
       <c r="F94" s="1">
         <v>905</v>
       </c>
@@ -7079,12 +6940,8 @@
       <c r="B95" s="1">
         <v>4</v>
       </c>
-      <c r="C95" s="1">
-        <v>0</v>
-      </c>
-      <c r="D95" s="1">
-        <v>0</v>
-      </c>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
       <c r="E95" s="6"/>
       <c r="F95" s="1">
         <v>906</v>
@@ -7165,12 +7022,8 @@
         <v>5</v>
       </c>
       <c r="C96" s="6"/>
-      <c r="D96" s="1">
-        <v>0</v>
-      </c>
-      <c r="E96" s="1">
-        <v>0</v>
-      </c>
+      <c r="D96" s="1"/>
+      <c r="E96" s="1"/>
       <c r="F96" s="1">
         <v>809</v>
       </c>
@@ -7249,13 +7102,9 @@
       <c r="B97" s="1">
         <v>6</v>
       </c>
-      <c r="C97" s="1">
-        <v>0</v>
-      </c>
+      <c r="C97" s="1"/>
       <c r="D97" s="6"/>
-      <c r="E97" s="1">
-        <v>0</v>
-      </c>
+      <c r="E97" s="1"/>
       <c r="F97" s="1">
         <v>811</v>
       </c>
@@ -7328,7 +7177,7 @@
       <c r="BS97" s="14"/>
     </row>
     <row r="98" spans="1:71" ht="22">
-      <c r="A98" s="70"/>
+      <c r="A98" s="69"/>
       <c r="B98" s="1" t="s">
         <v>16</v>
       </c>
@@ -7345,12 +7194,12 @@
         <v>0</v>
       </c>
       <c r="F98" s="1"/>
-      <c r="G98" s="72" t="s">
+      <c r="G98" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="H98" s="73"/>
-      <c r="I98" s="73"/>
-      <c r="J98" s="73"/>
+      <c r="H98" s="72"/>
+      <c r="I98" s="72"/>
+      <c r="J98" s="72"/>
       <c r="K98" s="17"/>
       <c r="L98" s="17"/>
       <c r="M98" s="17"/>
@@ -7358,24 +7207,24 @@
       <c r="O98" s="17"/>
     </row>
     <row r="99" spans="1:71" ht="22">
-      <c r="A99" s="71"/>
+      <c r="A99" s="70"/>
       <c r="B99" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C99" s="76">
+      <c r="C99" s="83">
         <f>SUM(C98:E98)</f>
         <v>0</v>
       </c>
-      <c r="D99" s="77"/>
-      <c r="E99" s="77"/>
-      <c r="F99" s="78"/>
-      <c r="G99" s="74">
+      <c r="D99" s="84"/>
+      <c r="E99" s="84"/>
+      <c r="F99" s="85"/>
+      <c r="G99" s="73">
         <f>ROUNDUP(SUM(C98:E98)/3,2)</f>
         <v>0</v>
       </c>
-      <c r="H99" s="75"/>
-      <c r="I99" s="75"/>
-      <c r="J99" s="75"/>
+      <c r="H99" s="74"/>
+      <c r="I99" s="74"/>
+      <c r="J99" s="74"/>
       <c r="K99" s="17"/>
       <c r="L99" s="17"/>
       <c r="M99" s="17"/>
@@ -7383,24 +7232,24 @@
       <c r="O99" s="17"/>
     </row>
     <row r="100" spans="1:71" ht="22" customHeight="1">
-      <c r="A100" s="70"/>
-      <c r="B100" s="81" t="s">
+      <c r="A100" s="69"/>
+      <c r="B100" s="75" t="s">
         <v>46</v>
       </c>
-      <c r="C100" s="55">
+      <c r="C100" s="59">
         <f>SUM(C87+C99)</f>
         <v>0</v>
       </c>
-      <c r="D100" s="56"/>
-      <c r="E100" s="56"/>
-      <c r="F100" s="57"/>
-      <c r="G100" s="55">
+      <c r="D100" s="60"/>
+      <c r="E100" s="60"/>
+      <c r="F100" s="61"/>
+      <c r="G100" s="59">
         <f>SUM(G87+G99)</f>
         <v>0</v>
       </c>
-      <c r="H100" s="56"/>
-      <c r="I100" s="56"/>
-      <c r="J100" s="56"/>
+      <c r="H100" s="60"/>
+      <c r="I100" s="60"/>
+      <c r="J100" s="60"/>
       <c r="K100" s="17"/>
       <c r="L100" s="17"/>
       <c r="M100" s="17"/>
@@ -7408,16 +7257,16 @@
       <c r="O100" s="17"/>
     </row>
     <row r="101" spans="1:71" ht="17" customHeight="1">
-      <c r="A101" s="71"/>
-      <c r="B101" s="82"/>
-      <c r="C101" s="58"/>
-      <c r="D101" s="59"/>
-      <c r="E101" s="59"/>
-      <c r="F101" s="60"/>
-      <c r="G101" s="58"/>
-      <c r="H101" s="59"/>
-      <c r="I101" s="59"/>
-      <c r="J101" s="59"/>
+      <c r="A101" s="70"/>
+      <c r="B101" s="76"/>
+      <c r="C101" s="62"/>
+      <c r="D101" s="63"/>
+      <c r="E101" s="63"/>
+      <c r="F101" s="64"/>
+      <c r="G101" s="62"/>
+      <c r="H101" s="63"/>
+      <c r="I101" s="63"/>
+      <c r="J101" s="63"/>
       <c r="K101" s="17"/>
       <c r="L101" s="17"/>
       <c r="M101" s="17"/>
@@ -7430,16 +7279,16 @@
       <c r="C102" s="28"/>
       <c r="D102" s="28"/>
       <c r="E102" s="28"/>
-      <c r="F102" s="91" t="s">
+      <c r="F102" s="93" t="s">
         <v>193</v>
       </c>
-      <c r="G102" s="92"/>
-      <c r="H102" s="93"/>
-      <c r="I102" s="94">
+      <c r="G102" s="94"/>
+      <c r="H102" s="95"/>
+      <c r="I102" s="96">
         <f>ROUND(SUM(C103:E103),2)</f>
         <v>0</v>
       </c>
-      <c r="J102" s="95"/>
+      <c r="J102" s="97"/>
       <c r="K102" s="29"/>
       <c r="L102" s="29"/>
       <c r="M102" s="29"/>
@@ -7447,10 +7296,10 @@
       <c r="O102" s="29"/>
     </row>
     <row r="103" spans="1:71" s="30" customFormat="1" ht="32">
-      <c r="A103" s="87" t="s">
+      <c r="A103" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="B103" s="88"/>
+      <c r="B103" s="90"/>
       <c r="C103" s="37">
         <f>ROUND(SUM(C10+C23+C35+C48+C60+C73+C85+C98), 2)</f>
         <v>0</v>
@@ -7463,15 +7312,15 @@
         <f>ROUND(SUM(E10+E23+E35+E48+E60+E73+E85+E98), 2)</f>
         <v>0</v>
       </c>
-      <c r="F103" s="64" t="s">
+      <c r="F103" s="98" t="s">
         <v>32</v>
       </c>
-      <c r="G103" s="64"/>
-      <c r="H103" s="64"/>
-      <c r="I103" s="65">
-        <v>0</v>
-      </c>
-      <c r="J103" s="65"/>
+      <c r="G103" s="98"/>
+      <c r="H103" s="98"/>
+      <c r="I103" s="99">
+        <v>56305</v>
+      </c>
+      <c r="J103" s="99"/>
       <c r="K103" s="29"/>
       <c r="L103" s="29"/>
       <c r="M103" s="29"/>
@@ -7480,6 +7329,68 @@
     </row>
   </sheetData>
   <mergeCells count="78">
+    <mergeCell ref="C25:F26"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="F103:H103"/>
+    <mergeCell ref="I103:J103"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="A39:J39"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="G48:J48"/>
+    <mergeCell ref="G49:J49"/>
+    <mergeCell ref="C49:F49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="G50:J51"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="G12:J13"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C12:F13"/>
+    <mergeCell ref="G60:J60"/>
+    <mergeCell ref="G61:J61"/>
+    <mergeCell ref="C50:F51"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="C61:F61"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="G73:J73"/>
+    <mergeCell ref="G74:J74"/>
+    <mergeCell ref="C74:F74"/>
+    <mergeCell ref="C62:F63"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C100:F101"/>
+    <mergeCell ref="B100:B101"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="G87:J88"/>
+    <mergeCell ref="A89:J89"/>
+    <mergeCell ref="C91:E91"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="G98:J98"/>
+    <mergeCell ref="G99:J99"/>
+    <mergeCell ref="C99:F99"/>
+    <mergeCell ref="C87:F88"/>
+    <mergeCell ref="F102:H102"/>
+    <mergeCell ref="I102:J102"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="G100:J101"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="G75:J76"/>
+    <mergeCell ref="C78:E78"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="G85:J85"/>
+    <mergeCell ref="G86:J86"/>
+    <mergeCell ref="C86:F86"/>
+    <mergeCell ref="C75:F76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="G62:J63"/>
+    <mergeCell ref="A64:J64"/>
+    <mergeCell ref="C66:E66"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C37:F38"/>
     <mergeCell ref="A14:J14"/>
@@ -7496,68 +7407,6 @@
     <mergeCell ref="A35:A36"/>
     <mergeCell ref="G35:J35"/>
     <mergeCell ref="G36:J36"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="A100:A101"/>
-    <mergeCell ref="G100:J101"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="G75:J76"/>
-    <mergeCell ref="C78:E78"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="G85:J85"/>
-    <mergeCell ref="G86:J86"/>
-    <mergeCell ref="C86:F86"/>
-    <mergeCell ref="C75:F76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="G62:J63"/>
-    <mergeCell ref="A64:J64"/>
-    <mergeCell ref="C66:E66"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="C100:F101"/>
-    <mergeCell ref="B100:B101"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="G87:J88"/>
-    <mergeCell ref="A89:J89"/>
-    <mergeCell ref="C91:E91"/>
-    <mergeCell ref="A98:A99"/>
-    <mergeCell ref="G98:J98"/>
-    <mergeCell ref="G99:J99"/>
-    <mergeCell ref="C99:F99"/>
-    <mergeCell ref="C87:F88"/>
-    <mergeCell ref="F102:H102"/>
-    <mergeCell ref="I102:J102"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="G73:J73"/>
-    <mergeCell ref="G74:J74"/>
-    <mergeCell ref="C74:F74"/>
-    <mergeCell ref="C62:F63"/>
-    <mergeCell ref="G60:J60"/>
-    <mergeCell ref="G61:J61"/>
-    <mergeCell ref="C50:F51"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="C61:F61"/>
-    <mergeCell ref="G10:J10"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="G12:J13"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C12:F13"/>
-    <mergeCell ref="C25:F26"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="F103:H103"/>
-    <mergeCell ref="I103:J103"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="A39:J39"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="G48:J48"/>
-    <mergeCell ref="G49:J49"/>
-    <mergeCell ref="C49:F49"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="G50:J51"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
@@ -9207,19 +9056,26 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0F4E16C-CBB2-DB42-9EC7-B339465D5E6D}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="22"/>
   <cols>
-    <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" customWidth="1"/>
+    <col min="1" max="1" width="22" style="3" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" style="35" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="48"/>
+    <col min="4" max="4" width="10.83203125" style="35"/>
+    <col min="5" max="5" width="10.83203125" style="48"/>
+    <col min="6" max="6" width="10.83203125" style="3"/>
+    <col min="7" max="7" width="22.1640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="20.33203125" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="22">
-      <c r="A1" s="3"/>
-      <c r="B1" s="35"/>
+    <row r="1" spans="1:8">
       <c r="C1" s="35" t="s">
         <v>33</v>
       </c>
@@ -9229,212 +9085,374 @@
       <c r="E1" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="3"/>
-    </row>
-    <row r="2" spans="1:6" ht="22">
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="3" t="s">
-        <v>36</v>
+        <v>200</v>
       </c>
       <c r="B2" s="35">
         <v>1</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="3"/>
-    </row>
-    <row r="3" spans="1:6" ht="22">
-      <c r="A3" s="3"/>
+      <c r="C2" s="51">
+        <v>1</v>
+      </c>
+      <c r="D2" s="53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="B3" s="35">
         <v>2</v>
       </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="1:6" ht="22">
-      <c r="A4" s="3"/>
+      <c r="D3" s="53">
+        <v>1</v>
+      </c>
+      <c r="E3" s="56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="B4" s="35">
         <v>3</v>
       </c>
-      <c r="C4" s="48"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="1:6" ht="22">
-      <c r="A5" s="3"/>
+      <c r="C4" s="51">
+        <v>2</v>
+      </c>
+      <c r="E4" s="56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="B5" s="35">
         <v>4</v>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:6" ht="22">
-      <c r="A6" s="3"/>
+      <c r="C5" s="51">
+        <v>1</v>
+      </c>
+      <c r="D5" s="53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="B6" s="35">
         <v>5</v>
       </c>
-      <c r="C6" s="50"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:6" ht="22">
-      <c r="A7" s="3"/>
+      <c r="D6" s="53">
+        <v>1</v>
+      </c>
+      <c r="E6" s="56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="B7" s="35">
         <v>6</v>
       </c>
-      <c r="C7" s="50"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:6" ht="22">
-      <c r="A8" s="3"/>
-      <c r="B8" s="35"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="1:6" ht="22">
+      <c r="C7" s="51">
+        <v>2</v>
+      </c>
+      <c r="E7" s="56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="27">
       <c r="A9" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B9" s="35">
         <v>1</v>
       </c>
-      <c r="C9" s="52"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="1:6" ht="22">
-      <c r="A10" s="3"/>
+      <c r="C9" s="49">
+        <v>1</v>
+      </c>
+      <c r="D9" s="52">
+        <v>2</v>
+      </c>
+      <c r="E9" s="50"/>
+      <c r="G9" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="27">
       <c r="B10" s="35">
         <v>2</v>
       </c>
-      <c r="C10" s="52"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="1:6" ht="22">
-      <c r="A11" s="3"/>
+      <c r="C10" s="49">
+        <v>2</v>
+      </c>
+      <c r="D10" s="52">
+        <v>1</v>
+      </c>
+      <c r="E10" s="50"/>
+      <c r="G10" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="B11" s="35">
         <v>3</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="1:6" ht="22">
-      <c r="A12" s="3"/>
+      <c r="C11" s="49">
+        <v>2</v>
+      </c>
+      <c r="D11" s="43"/>
+      <c r="E11" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="B12" s="35">
         <v>4</v>
       </c>
-      <c r="C12" s="52"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="1:6" ht="22">
-      <c r="A13" s="3"/>
+      <c r="C12" s="49">
+        <v>2</v>
+      </c>
+      <c r="D12" s="43"/>
+      <c r="E12" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="B13" s="35">
         <v>5</v>
       </c>
-      <c r="C13" s="52"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="1:6" ht="22">
-      <c r="A14" s="3"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="52">
+        <v>1</v>
+      </c>
+      <c r="E13" s="55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="B14" s="35">
         <v>6</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="1:6" ht="22">
-      <c r="A15" s="3"/>
-      <c r="B15" s="35"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-    </row>
-    <row r="16" spans="1:6" ht="22">
+      <c r="C14" s="50"/>
+      <c r="D14" s="52">
+        <v>2</v>
+      </c>
+      <c r="E14" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B16" s="35">
         <v>1</v>
       </c>
-      <c r="C16" s="52"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="3"/>
-    </row>
-    <row r="17" spans="1:6" ht="22">
-      <c r="A17" s="3"/>
+      <c r="C16" s="51">
+        <v>1</v>
+      </c>
+      <c r="D16" s="53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="3" t="s">
+        <v>199</v>
+      </c>
       <c r="B17" s="35">
         <v>2</v>
       </c>
-      <c r="C17" s="52"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-    </row>
-    <row r="18" spans="1:6" ht="22">
-      <c r="A18" s="3"/>
+      <c r="C17" s="51">
+        <v>2</v>
+      </c>
+      <c r="E17" s="56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="B18" s="35">
         <v>3</v>
       </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="53"/>
-      <c r="E18" s="54"/>
-      <c r="F18" s="3"/>
-    </row>
-    <row r="19" spans="1:6" ht="22">
-      <c r="A19" s="3"/>
+      <c r="D18" s="53">
+        <v>1</v>
+      </c>
+      <c r="E18" s="56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="B19" s="35">
         <v>4</v>
       </c>
-      <c r="C19" s="52"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="54"/>
-      <c r="F19" s="3"/>
-    </row>
-    <row r="20" spans="1:6" ht="22">
-      <c r="A20" s="3"/>
+      <c r="C19" s="51">
+        <v>1</v>
+      </c>
+      <c r="D19" s="53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="B20" s="35">
         <v>5</v>
       </c>
-      <c r="C20" s="52"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-    </row>
-    <row r="21" spans="1:6" ht="22">
-      <c r="A21" s="3"/>
+      <c r="C20" s="51">
+        <v>2</v>
+      </c>
+      <c r="E20" s="56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="B21" s="35">
         <v>6</v>
       </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="54"/>
-      <c r="F21" s="3"/>
+      <c r="D21" s="53">
+        <v>1</v>
+      </c>
+      <c r="E21" s="56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="35">
+        <v>1</v>
+      </c>
+      <c r="C23" s="51">
+        <v>1</v>
+      </c>
+      <c r="E23" s="56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="B24" s="35">
+        <v>2</v>
+      </c>
+      <c r="C24" s="51">
+        <v>2</v>
+      </c>
+      <c r="D24" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="B25" s="35">
+        <v>3</v>
+      </c>
+      <c r="D25" s="53">
+        <v>2</v>
+      </c>
+      <c r="E25" s="56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="B26" s="35">
+        <v>4</v>
+      </c>
+      <c r="C26" s="51">
+        <v>1</v>
+      </c>
+      <c r="E26" s="56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="B27" s="35">
+        <v>5</v>
+      </c>
+      <c r="C27" s="51">
+        <v>2</v>
+      </c>
+      <c r="D27" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="B28" s="35">
+        <v>6</v>
+      </c>
+      <c r="D28" s="53">
+        <v>2</v>
+      </c>
+      <c r="E28" s="56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B30" s="35">
+        <v>1</v>
+      </c>
+      <c r="C30" s="51">
+        <v>1</v>
+      </c>
+      <c r="D30" s="54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="B31" s="35">
+        <v>2</v>
+      </c>
+      <c r="C31" s="51">
+        <v>2</v>
+      </c>
+      <c r="E31" s="56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="B32" s="35">
+        <v>3</v>
+      </c>
+      <c r="D32" s="53">
+        <v>1</v>
+      </c>
+      <c r="E32" s="56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5">
+      <c r="B33" s="35">
+        <v>4</v>
+      </c>
+      <c r="C33" s="51">
+        <v>1</v>
+      </c>
+      <c r="D33" s="54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5">
+      <c r="B34" s="35">
+        <v>5</v>
+      </c>
+      <c r="C34" s="51">
+        <v>2</v>
+      </c>
+      <c r="E34" s="56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5">
+      <c r="B35" s="35">
+        <v>6</v>
+      </c>
+      <c r="D35" s="53">
+        <v>1</v>
+      </c>
+      <c r="E35" s="56">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="5eS5V7tWAdrXeRNkq1KDtMVuDHlulqgMlEXAh6TjOwCfUyW8IiFO6AvidckLknI1MLBrZ1hEpNQML9KaXnladg==" saltValue="ujFfwJFU3OtlHEUCSbM4qw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -9462,10 +9480,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:125" s="14" customFormat="1" ht="22">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="97"/>
+      <c r="B1" s="58"/>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
       <c r="E1" s="13"/>
@@ -9514,9 +9532,9 @@
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="66"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
       <c r="F3" s="1" t="s">
         <v>8</v>
       </c>
@@ -9549,10 +9567,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="1">
-        <v>0</v>
+        <v>5.13</v>
       </c>
       <c r="D4" s="1">
-        <v>0</v>
+        <v>5.13</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="36">
@@ -9729,10 +9747,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="40">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="D5" s="1">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="36">
@@ -9910,11 +9928,11 @@
         <v>3</v>
       </c>
       <c r="C6" s="1">
-        <v>0</v>
+        <v>5.13</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="1">
-        <v>0</v>
+        <v>5.13</v>
       </c>
       <c r="F6" s="36">
         <f>Racks!F6</f>
@@ -10088,11 +10106,11 @@
         <v>4</v>
       </c>
       <c r="C7" s="1">
-        <v>0</v>
+        <v>3.16</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="40">
-        <v>0</v>
+        <v>3.16</v>
       </c>
       <c r="F7" s="36">
         <f>Racks!F7</f>
@@ -10267,10 +10285,10 @@
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="1">
-        <v>0</v>
+        <v>3.16</v>
       </c>
       <c r="E8" s="1">
-        <v>0</v>
+        <v>3.16</v>
       </c>
       <c r="F8" s="36">
         <f>Racks!F8</f>
@@ -10447,10 +10465,10 @@
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="40">
-        <v>0</v>
+        <v>3.16</v>
       </c>
       <c r="E9" s="1">
-        <v>0</v>
+        <v>3.16</v>
       </c>
       <c r="F9" s="36">
         <f>Racks!F9</f>
@@ -10619,31 +10637,31 @@
       <c r="DU9" s="14"/>
     </row>
     <row r="10" spans="1:125" ht="22">
-      <c r="A10" s="70"/>
+      <c r="A10" s="69"/>
       <c r="B10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="32">
         <f>SUM(C4:C9)</f>
-        <v>0</v>
+        <v>15.399999999999999</v>
       </c>
       <c r="D10" s="33">
         <f>SUM(D4:D9)</f>
-        <v>0</v>
+        <v>13.43</v>
       </c>
       <c r="E10" s="34">
         <f>SUM(E4:E9)</f>
-        <v>0</v>
+        <v>14.61</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="72" t="s">
+      <c r="G10" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
+      <c r="H10" s="72"/>
+      <c r="I10" s="72"/>
+      <c r="J10" s="72"/>
       <c r="K10" s="17"/>
       <c r="L10" s="17"/>
       <c r="M10" s="17"/>
@@ -10656,24 +10674,24 @@
       <c r="T10" s="18"/>
     </row>
     <row r="11" spans="1:125" ht="24">
-      <c r="A11" s="71"/>
+      <c r="A11" s="70"/>
       <c r="B11" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="61">
+      <c r="C11" s="86">
         <f>SUM(C10:E10)</f>
-        <v>0</v>
-      </c>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="79">
+        <v>43.44</v>
+      </c>
+      <c r="D11" s="87"/>
+      <c r="E11" s="87"/>
+      <c r="F11" s="88"/>
+      <c r="G11" s="81">
         <f>ROUNDUP(SUM(C10:E10)/3,2)</f>
-        <v>0</v>
-      </c>
-      <c r="H11" s="80"/>
-      <c r="I11" s="80"/>
-      <c r="J11" s="80"/>
+        <v>14.48</v>
+      </c>
+      <c r="H11" s="82"/>
+      <c r="I11" s="82"/>
+      <c r="J11" s="82"/>
       <c r="K11" s="17"/>
       <c r="L11" s="17"/>
       <c r="M11" s="17"/>
@@ -10686,24 +10704,24 @@
       <c r="T11" s="18"/>
     </row>
     <row r="12" spans="1:125" ht="22" customHeight="1">
-      <c r="A12" s="81"/>
+      <c r="A12" s="75"/>
       <c r="B12" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="55">
+      <c r="C12" s="59">
         <f>C11</f>
-        <v>0</v>
-      </c>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="83">
+        <v>43.44</v>
+      </c>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="77">
         <f>G11</f>
-        <v>0</v>
-      </c>
-      <c r="H12" s="84"/>
-      <c r="I12" s="84"/>
-      <c r="J12" s="84"/>
+        <v>14.48</v>
+      </c>
+      <c r="H12" s="78"/>
+      <c r="I12" s="78"/>
+      <c r="J12" s="78"/>
       <c r="K12" s="17"/>
       <c r="L12" s="17"/>
       <c r="M12" s="17"/>
@@ -10716,18 +10734,18 @@
       <c r="T12" s="18"/>
     </row>
     <row r="13" spans="1:125" ht="22" customHeight="1">
-      <c r="A13" s="82"/>
+      <c r="A13" s="76"/>
       <c r="B13" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="58"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="85"/>
-      <c r="H13" s="86"/>
-      <c r="I13" s="86"/>
-      <c r="J13" s="86"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="79"/>
+      <c r="H13" s="80"/>
+      <c r="I13" s="80"/>
+      <c r="J13" s="80"/>
       <c r="K13" s="17"/>
       <c r="L13" s="17"/>
       <c r="M13" s="17"/>
@@ -10740,16 +10758,16 @@
       <c r="T13" s="18"/>
     </row>
     <row r="14" spans="1:125" s="23" customFormat="1" ht="11">
-      <c r="A14" s="68"/>
-      <c r="B14" s="69"/>
-      <c r="C14" s="69"/>
-      <c r="D14" s="69"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="69"/>
-      <c r="G14" s="69"/>
-      <c r="H14" s="69"/>
-      <c r="I14" s="69"/>
-      <c r="J14" s="69"/>
+      <c r="A14" s="65"/>
+      <c r="B14" s="66"/>
+      <c r="C14" s="66"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="66"/>
+      <c r="I14" s="66"/>
+      <c r="J14" s="66"/>
       <c r="K14" s="21"/>
       <c r="L14" s="21"/>
       <c r="M14" s="21"/>
@@ -10810,9 +10828,9 @@
       <c r="B16" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="66"/>
-      <c r="D16" s="67"/>
-      <c r="E16" s="67"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="68"/>
       <c r="F16" s="1" t="s">
         <v>8</v>
       </c>
@@ -10845,10 +10863,10 @@
         <v>1</v>
       </c>
       <c r="C17" s="1">
-        <v>0</v>
+        <v>5.13</v>
       </c>
       <c r="D17" s="1">
-        <v>0</v>
+        <v>5.13</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="36">
@@ -10957,10 +10975,10 @@
         <v>2</v>
       </c>
       <c r="C18" s="40">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="D18" s="1">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="36">
@@ -11070,11 +11088,11 @@
         <v>3</v>
       </c>
       <c r="C19" s="1">
-        <v>0</v>
+        <v>3.16</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="1">
-        <v>0</v>
+        <v>3.16</v>
       </c>
       <c r="F19" s="36">
         <f>Racks!F19</f>
@@ -11179,11 +11197,11 @@
         <v>4</v>
       </c>
       <c r="C20" s="1">
-        <v>0</v>
+        <v>3.16</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="40">
-        <v>0</v>
+        <v>3.16</v>
       </c>
       <c r="F20" s="36">
         <f>Racks!F20</f>
@@ -11290,10 +11308,10 @@
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="1">
-        <v>0</v>
+        <v>3.16</v>
       </c>
       <c r="E21" s="1">
-        <v>0</v>
+        <v>3.16</v>
       </c>
       <c r="F21" s="36">
         <f>Racks!F21</f>
@@ -11402,10 +11420,10 @@
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="40">
-        <v>0</v>
+        <v>5.13</v>
       </c>
       <c r="E22" s="1">
-        <v>0</v>
+        <v>5.13</v>
       </c>
       <c r="F22" s="36">
         <f>Racks!F22</f>
@@ -11506,31 +11524,31 @@
       <c r="BE22" s="14"/>
     </row>
     <row r="23" spans="1:121" ht="22">
-      <c r="A23" s="70"/>
+      <c r="A23" s="69"/>
       <c r="B23" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C23" s="32">
         <f>SUM(C17:C22)</f>
-        <v>0</v>
+        <v>13.43</v>
       </c>
       <c r="D23" s="33">
         <f>SUM(D17:D22)</f>
-        <v>0</v>
+        <v>15.399999999999999</v>
       </c>
       <c r="E23" s="34">
         <f>SUM(E17:E22)</f>
-        <v>0</v>
+        <v>14.61</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G23" s="72" t="s">
+      <c r="G23" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="H23" s="73"/>
-      <c r="I23" s="73"/>
-      <c r="J23" s="73"/>
+      <c r="H23" s="72"/>
+      <c r="I23" s="72"/>
+      <c r="J23" s="72"/>
       <c r="K23" s="17"/>
       <c r="L23" s="17"/>
       <c r="M23" s="17"/>
@@ -11543,24 +11561,24 @@
       <c r="T23" s="18"/>
     </row>
     <row r="24" spans="1:121" ht="22">
-      <c r="A24" s="71"/>
+      <c r="A24" s="70"/>
       <c r="B24" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="76">
+      <c r="C24" s="83">
         <f>SUM(C23:E23)</f>
-        <v>0</v>
-      </c>
-      <c r="D24" s="77"/>
-      <c r="E24" s="77"/>
-      <c r="F24" s="78"/>
-      <c r="G24" s="74">
+        <v>43.44</v>
+      </c>
+      <c r="D24" s="84"/>
+      <c r="E24" s="84"/>
+      <c r="F24" s="85"/>
+      <c r="G24" s="73">
         <f>ROUNDUP(SUM(C23:E23)/3,2)</f>
-        <v>0</v>
-      </c>
-      <c r="H24" s="75"/>
-      <c r="I24" s="75"/>
-      <c r="J24" s="75"/>
+        <v>14.48</v>
+      </c>
+      <c r="H24" s="74"/>
+      <c r="I24" s="74"/>
+      <c r="J24" s="74"/>
       <c r="K24" s="17"/>
       <c r="L24" s="17"/>
       <c r="M24" s="17"/>
@@ -11573,24 +11591,24 @@
       <c r="T24" s="18"/>
     </row>
     <row r="25" spans="1:121" ht="22" customHeight="1">
-      <c r="A25" s="70"/>
-      <c r="B25" s="81" t="s">
+      <c r="A25" s="69"/>
+      <c r="B25" s="75" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="55">
+      <c r="C25" s="59">
         <f>SUM(C12+C24)</f>
-        <v>0</v>
-      </c>
-      <c r="D25" s="56"/>
-      <c r="E25" s="56"/>
-      <c r="F25" s="57"/>
-      <c r="G25" s="55">
+        <v>86.88</v>
+      </c>
+      <c r="D25" s="60"/>
+      <c r="E25" s="60"/>
+      <c r="F25" s="61"/>
+      <c r="G25" s="59">
         <f>SUM(G12+G24)</f>
-        <v>0</v>
-      </c>
-      <c r="H25" s="56"/>
-      <c r="I25" s="56"/>
-      <c r="J25" s="56"/>
+        <v>28.96</v>
+      </c>
+      <c r="H25" s="60"/>
+      <c r="I25" s="60"/>
+      <c r="J25" s="60"/>
       <c r="K25" s="17"/>
       <c r="L25" s="17"/>
       <c r="M25" s="17"/>
@@ -11603,16 +11621,16 @@
       <c r="T25" s="18"/>
     </row>
     <row r="26" spans="1:121" ht="22" customHeight="1">
-      <c r="A26" s="71"/>
-      <c r="B26" s="82"/>
-      <c r="C26" s="58"/>
-      <c r="D26" s="59"/>
-      <c r="E26" s="59"/>
-      <c r="F26" s="60"/>
-      <c r="G26" s="58"/>
-      <c r="H26" s="59"/>
-      <c r="I26" s="59"/>
-      <c r="J26" s="59"/>
+      <c r="A26" s="70"/>
+      <c r="B26" s="76"/>
+      <c r="C26" s="62"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="64"/>
+      <c r="G26" s="62"/>
+      <c r="H26" s="63"/>
+      <c r="I26" s="63"/>
+      <c r="J26" s="63"/>
       <c r="K26" s="17"/>
       <c r="L26" s="17"/>
       <c r="M26" s="17"/>
@@ -11673,9 +11691,9 @@
       <c r="B28" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="66"/>
-      <c r="D28" s="67"/>
-      <c r="E28" s="67"/>
+      <c r="C28" s="67"/>
+      <c r="D28" s="68"/>
+      <c r="E28" s="68"/>
       <c r="F28" s="1" t="s">
         <v>8</v>
       </c>
@@ -11708,10 +11726,10 @@
         <v>1</v>
       </c>
       <c r="C29" s="1">
-        <v>0</v>
+        <v>3.16</v>
       </c>
       <c r="D29" s="1">
-        <v>0</v>
+        <v>3.16</v>
       </c>
       <c r="E29" s="6"/>
       <c r="F29" s="36">
@@ -11884,10 +11902,10 @@
         <v>2</v>
       </c>
       <c r="C30" s="40">
-        <v>0</v>
+        <v>3.16</v>
       </c>
       <c r="D30" s="1">
-        <v>0</v>
+        <v>3.16</v>
       </c>
       <c r="E30" s="6"/>
       <c r="F30" s="36">
@@ -12061,11 +12079,11 @@
         <v>3</v>
       </c>
       <c r="C31" s="1">
-        <v>0</v>
+        <v>3.16</v>
       </c>
       <c r="D31" s="6"/>
       <c r="E31" s="1">
-        <v>0</v>
+        <v>3.16</v>
       </c>
       <c r="F31" s="36">
         <f>Racks!F31</f>
@@ -12235,11 +12253,11 @@
         <v>4</v>
       </c>
       <c r="C32" s="1">
-        <v>0</v>
+        <v>5.13</v>
       </c>
       <c r="D32" s="6"/>
       <c r="E32" s="40">
-        <v>0</v>
+        <v>5.13</v>
       </c>
       <c r="F32" s="36">
         <f>Racks!F32</f>
@@ -12410,10 +12428,10 @@
       </c>
       <c r="C33" s="6"/>
       <c r="D33" s="1">
-        <v>0</v>
+        <v>5.13</v>
       </c>
       <c r="E33" s="1">
-        <v>0</v>
+        <v>5.13</v>
       </c>
       <c r="F33" s="36">
         <f>Racks!F33</f>
@@ -12586,10 +12604,10 @@
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="40">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="E34" s="1">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="F34" s="36">
         <f>Racks!F34</f>
@@ -12754,31 +12772,31 @@
       <c r="DQ34" s="14"/>
     </row>
     <row r="35" spans="1:121" ht="22">
-      <c r="A35" s="70"/>
+      <c r="A35" s="69"/>
       <c r="B35" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C35" s="32">
         <f>SUM(C29:C34)</f>
-        <v>0</v>
+        <v>14.61</v>
       </c>
       <c r="D35" s="33">
         <f>SUM(D29:D34)</f>
-        <v>0</v>
+        <v>13.43</v>
       </c>
       <c r="E35" s="34">
         <f>SUM(E29:E34)</f>
-        <v>0</v>
+        <v>15.399999999999999</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G35" s="72" t="s">
+      <c r="G35" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="H35" s="73"/>
-      <c r="I35" s="73"/>
-      <c r="J35" s="73"/>
+      <c r="H35" s="72"/>
+      <c r="I35" s="72"/>
+      <c r="J35" s="72"/>
       <c r="K35" s="17"/>
       <c r="L35" s="17"/>
       <c r="M35" s="17"/>
@@ -12791,24 +12809,24 @@
       <c r="T35" s="18"/>
     </row>
     <row r="36" spans="1:121" ht="24">
-      <c r="A36" s="71"/>
+      <c r="A36" s="70"/>
       <c r="B36" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="61">
+      <c r="C36" s="86">
         <f>SUM(C35:E35)</f>
-        <v>0</v>
-      </c>
-      <c r="D36" s="62"/>
-      <c r="E36" s="62"/>
-      <c r="F36" s="63"/>
-      <c r="G36" s="79">
+        <v>43.44</v>
+      </c>
+      <c r="D36" s="87"/>
+      <c r="E36" s="87"/>
+      <c r="F36" s="88"/>
+      <c r="G36" s="81">
         <f>ROUNDUP(SUM(C35:E35)/3,2)</f>
-        <v>0</v>
-      </c>
-      <c r="H36" s="80"/>
-      <c r="I36" s="80"/>
-      <c r="J36" s="80"/>
+        <v>14.48</v>
+      </c>
+      <c r="H36" s="82"/>
+      <c r="I36" s="82"/>
+      <c r="J36" s="82"/>
       <c r="K36" s="17"/>
       <c r="L36" s="17"/>
       <c r="M36" s="17"/>
@@ -12821,24 +12839,24 @@
       <c r="T36" s="18"/>
     </row>
     <row r="37" spans="1:121" ht="22" customHeight="1">
-      <c r="A37" s="81"/>
+      <c r="A37" s="75"/>
       <c r="B37" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="C37" s="55">
+      <c r="C37" s="59">
         <f>C36</f>
-        <v>0</v>
-      </c>
-      <c r="D37" s="56"/>
-      <c r="E37" s="56"/>
-      <c r="F37" s="57"/>
-      <c r="G37" s="83">
+        <v>43.44</v>
+      </c>
+      <c r="D37" s="60"/>
+      <c r="E37" s="60"/>
+      <c r="F37" s="61"/>
+      <c r="G37" s="77">
         <f>G36</f>
-        <v>0</v>
-      </c>
-      <c r="H37" s="84"/>
-      <c r="I37" s="84"/>
-      <c r="J37" s="84"/>
+        <v>14.48</v>
+      </c>
+      <c r="H37" s="78"/>
+      <c r="I37" s="78"/>
+      <c r="J37" s="78"/>
       <c r="K37" s="17"/>
       <c r="L37" s="17"/>
       <c r="M37" s="17"/>
@@ -12851,18 +12869,18 @@
       <c r="T37" s="18"/>
     </row>
     <row r="38" spans="1:121" ht="22" customHeight="1">
-      <c r="A38" s="82"/>
+      <c r="A38" s="76"/>
       <c r="B38" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="C38" s="58"/>
-      <c r="D38" s="59"/>
-      <c r="E38" s="59"/>
-      <c r="F38" s="60"/>
-      <c r="G38" s="85"/>
-      <c r="H38" s="86"/>
-      <c r="I38" s="86"/>
-      <c r="J38" s="86"/>
+      <c r="C38" s="62"/>
+      <c r="D38" s="63"/>
+      <c r="E38" s="63"/>
+      <c r="F38" s="64"/>
+      <c r="G38" s="79"/>
+      <c r="H38" s="80"/>
+      <c r="I38" s="80"/>
+      <c r="J38" s="80"/>
       <c r="K38" s="17"/>
       <c r="L38" s="17"/>
       <c r="M38" s="17"/>
@@ -12875,16 +12893,16 @@
       <c r="T38" s="18"/>
     </row>
     <row r="39" spans="1:121" s="23" customFormat="1" ht="11">
-      <c r="A39" s="68"/>
-      <c r="B39" s="69"/>
-      <c r="C39" s="69"/>
-      <c r="D39" s="69"/>
-      <c r="E39" s="69"/>
-      <c r="F39" s="69"/>
-      <c r="G39" s="69"/>
-      <c r="H39" s="69"/>
-      <c r="I39" s="69"/>
-      <c r="J39" s="69"/>
+      <c r="A39" s="65"/>
+      <c r="B39" s="66"/>
+      <c r="C39" s="66"/>
+      <c r="D39" s="66"/>
+      <c r="E39" s="66"/>
+      <c r="F39" s="66"/>
+      <c r="G39" s="66"/>
+      <c r="H39" s="66"/>
+      <c r="I39" s="66"/>
+      <c r="J39" s="66"/>
       <c r="K39" s="21"/>
       <c r="L39" s="21"/>
       <c r="M39" s="21"/>
@@ -12945,9 +12963,9 @@
       <c r="B41" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C41" s="66"/>
-      <c r="D41" s="67"/>
-      <c r="E41" s="67"/>
+      <c r="C41" s="67"/>
+      <c r="D41" s="68"/>
+      <c r="E41" s="68"/>
       <c r="F41" s="1" t="s">
         <v>8</v>
       </c>
@@ -12980,10 +12998,10 @@
         <v>1</v>
       </c>
       <c r="C42" s="1">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="D42" s="1">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="E42" s="6"/>
       <c r="F42" s="36">
@@ -13084,10 +13102,10 @@
         <v>2</v>
       </c>
       <c r="C43" s="40">
-        <v>0</v>
+        <v>5.13</v>
       </c>
       <c r="D43" s="1">
-        <v>0</v>
+        <v>5.13</v>
       </c>
       <c r="E43" s="6"/>
       <c r="F43" s="36">
@@ -13189,11 +13207,11 @@
         <v>3</v>
       </c>
       <c r="C44" s="1">
-        <v>0</v>
+        <v>5.13</v>
       </c>
       <c r="D44" s="6"/>
       <c r="E44" s="1">
-        <v>0</v>
+        <v>5.13</v>
       </c>
       <c r="F44" s="36">
         <f>Racks!F44</f>
@@ -13291,11 +13309,11 @@
         <v>4</v>
       </c>
       <c r="C45" s="1">
-        <v>0</v>
+        <v>3.16</v>
       </c>
       <c r="D45" s="6"/>
       <c r="E45" s="40">
-        <v>0</v>
+        <v>3.16</v>
       </c>
       <c r="F45" s="36">
         <f>Racks!F45</f>
@@ -13394,10 +13412,10 @@
       </c>
       <c r="C46" s="6"/>
       <c r="D46" s="1">
-        <v>0</v>
+        <v>3.16</v>
       </c>
       <c r="E46" s="1">
-        <v>0</v>
+        <v>3.16</v>
       </c>
       <c r="F46" s="36">
         <f>Racks!F46</f>
@@ -13498,10 +13516,10 @@
       </c>
       <c r="C47" s="6"/>
       <c r="D47" s="40">
-        <v>0</v>
+        <v>3.16</v>
       </c>
       <c r="E47" s="1">
-        <v>0</v>
+        <v>3.16</v>
       </c>
       <c r="F47" s="36">
         <f>Racks!F47</f>
@@ -13594,31 +13612,31 @@
       <c r="AW47" s="14"/>
     </row>
     <row r="48" spans="1:121" ht="22">
-      <c r="A48" s="70"/>
+      <c r="A48" s="69"/>
       <c r="B48" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C48" s="32">
         <f>SUM(C42:C47)</f>
-        <v>0</v>
+        <v>15.399999999999999</v>
       </c>
       <c r="D48" s="33">
         <f>SUM(D42:D47)</f>
-        <v>0</v>
+        <v>13.43</v>
       </c>
       <c r="E48" s="34">
         <f>SUM(E42:E47)</f>
-        <v>0</v>
+        <v>14.61</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G48" s="72" t="s">
+      <c r="G48" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="H48" s="73"/>
-      <c r="I48" s="73"/>
-      <c r="J48" s="73"/>
+      <c r="H48" s="72"/>
+      <c r="I48" s="72"/>
+      <c r="J48" s="72"/>
       <c r="K48" s="17"/>
       <c r="L48" s="17"/>
       <c r="M48" s="17"/>
@@ -13631,24 +13649,24 @@
       <c r="T48" s="18"/>
     </row>
     <row r="49" spans="1:47" ht="22">
-      <c r="A49" s="71"/>
+      <c r="A49" s="70"/>
       <c r="B49" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C49" s="76">
+      <c r="C49" s="83">
         <f>SUM(C48:E48)</f>
-        <v>0</v>
-      </c>
-      <c r="D49" s="77"/>
-      <c r="E49" s="77"/>
-      <c r="F49" s="78"/>
-      <c r="G49" s="74">
+        <v>43.44</v>
+      </c>
+      <c r="D49" s="84"/>
+      <c r="E49" s="84"/>
+      <c r="F49" s="85"/>
+      <c r="G49" s="73">
         <f>ROUNDUP(SUM(C48:E48)/3,2)</f>
-        <v>0</v>
-      </c>
-      <c r="H49" s="75"/>
-      <c r="I49" s="75"/>
-      <c r="J49" s="75"/>
+        <v>14.48</v>
+      </c>
+      <c r="H49" s="74"/>
+      <c r="I49" s="74"/>
+      <c r="J49" s="74"/>
       <c r="K49" s="17"/>
       <c r="L49" s="17"/>
       <c r="M49" s="17"/>
@@ -13661,24 +13679,24 @@
       <c r="T49" s="18"/>
     </row>
     <row r="50" spans="1:47" ht="22" customHeight="1">
-      <c r="A50" s="70"/>
-      <c r="B50" s="81" t="s">
+      <c r="A50" s="69"/>
+      <c r="B50" s="75" t="s">
         <v>43</v>
       </c>
-      <c r="C50" s="55">
+      <c r="C50" s="59">
         <f>SUM(C37+C49)</f>
-        <v>0</v>
-      </c>
-      <c r="D50" s="56"/>
-      <c r="E50" s="56"/>
-      <c r="F50" s="57"/>
-      <c r="G50" s="55">
+        <v>86.88</v>
+      </c>
+      <c r="D50" s="60"/>
+      <c r="E50" s="60"/>
+      <c r="F50" s="61"/>
+      <c r="G50" s="59">
         <f>SUM(G37+G49)</f>
-        <v>0</v>
-      </c>
-      <c r="H50" s="56"/>
-      <c r="I50" s="56"/>
-      <c r="J50" s="56"/>
+        <v>28.96</v>
+      </c>
+      <c r="H50" s="60"/>
+      <c r="I50" s="60"/>
+      <c r="J50" s="60"/>
       <c r="K50" s="17"/>
       <c r="L50" s="17"/>
       <c r="M50" s="17"/>
@@ -13691,16 +13709,16 @@
       <c r="T50" s="18"/>
     </row>
     <row r="51" spans="1:47" ht="22" customHeight="1">
-      <c r="A51" s="71"/>
-      <c r="B51" s="82"/>
-      <c r="C51" s="58"/>
-      <c r="D51" s="59"/>
-      <c r="E51" s="59"/>
-      <c r="F51" s="60"/>
-      <c r="G51" s="58"/>
-      <c r="H51" s="59"/>
-      <c r="I51" s="59"/>
-      <c r="J51" s="59"/>
+      <c r="A51" s="70"/>
+      <c r="B51" s="76"/>
+      <c r="C51" s="62"/>
+      <c r="D51" s="63"/>
+      <c r="E51" s="63"/>
+      <c r="F51" s="64"/>
+      <c r="G51" s="62"/>
+      <c r="H51" s="63"/>
+      <c r="I51" s="63"/>
+      <c r="J51" s="63"/>
       <c r="K51" s="17"/>
       <c r="L51" s="17"/>
       <c r="M51" s="17"/>
@@ -13761,9 +13779,9 @@
       <c r="B53" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C53" s="66"/>
-      <c r="D53" s="67"/>
-      <c r="E53" s="67"/>
+      <c r="C53" s="67"/>
+      <c r="D53" s="68"/>
+      <c r="E53" s="68"/>
       <c r="F53" s="1" t="s">
         <v>8</v>
       </c>
@@ -13796,10 +13814,10 @@
         <v>1</v>
       </c>
       <c r="C54" s="1">
-        <v>0</v>
+        <v>4.6500000000000004</v>
       </c>
       <c r="D54" s="1">
-        <v>0</v>
+        <v>4.6500000000000004</v>
       </c>
       <c r="E54" s="6"/>
       <c r="F54" s="44">
@@ -13898,10 +13916,10 @@
         <v>2</v>
       </c>
       <c r="C55" s="40">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="D55" s="1">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="E55" s="6"/>
       <c r="F55" s="44">
@@ -14001,11 +14019,11 @@
         <v>3</v>
       </c>
       <c r="C56" s="1">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="D56" s="6"/>
       <c r="E56" s="1">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="F56" s="44">
         <f>Racks!F56</f>
@@ -14101,11 +14119,11 @@
         <v>4</v>
       </c>
       <c r="C57" s="1">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="D57" s="6"/>
       <c r="E57" s="40">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="F57" s="44">
         <f>Racks!F57</f>
@@ -14202,10 +14220,10 @@
       </c>
       <c r="C58" s="6"/>
       <c r="D58" s="1">
-        <v>0</v>
+        <v>3.26</v>
       </c>
       <c r="E58" s="1">
-        <v>0</v>
+        <v>3.26</v>
       </c>
       <c r="F58" s="44">
         <f>Racks!F58</f>
@@ -14304,10 +14322,10 @@
       </c>
       <c r="C59" s="6"/>
       <c r="D59" s="40">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="E59" s="1">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="F59" s="44">
         <f>Racks!F59</f>
@@ -14398,31 +14416,31 @@
       <c r="AU59" s="14"/>
     </row>
     <row r="60" spans="1:47" ht="22">
-      <c r="A60" s="70"/>
+      <c r="A60" s="69"/>
       <c r="B60" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C60" s="32">
         <f>SUM(C54:C59)</f>
-        <v>0</v>
+        <v>14.059999999999999</v>
       </c>
       <c r="D60" s="33">
         <f>SUM(D54:D59)</f>
-        <v>0</v>
+        <v>12.11</v>
       </c>
       <c r="E60" s="34">
         <f>SUM(E54:E59)</f>
-        <v>0</v>
+        <v>11.11</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G60" s="72" t="s">
+      <c r="G60" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="H60" s="73"/>
-      <c r="I60" s="73"/>
-      <c r="J60" s="73"/>
+      <c r="H60" s="72"/>
+      <c r="I60" s="72"/>
+      <c r="J60" s="72"/>
       <c r="K60" s="17"/>
       <c r="L60" s="17"/>
       <c r="M60" s="17"/>
@@ -14435,24 +14453,24 @@
       <c r="T60" s="18"/>
     </row>
     <row r="61" spans="1:47" ht="24">
-      <c r="A61" s="71"/>
+      <c r="A61" s="70"/>
       <c r="B61" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C61" s="61">
+      <c r="C61" s="86">
         <f>SUM(C60:E60)</f>
-        <v>0</v>
-      </c>
-      <c r="D61" s="62"/>
-      <c r="E61" s="62"/>
-      <c r="F61" s="63"/>
-      <c r="G61" s="79">
+        <v>37.28</v>
+      </c>
+      <c r="D61" s="87"/>
+      <c r="E61" s="87"/>
+      <c r="F61" s="88"/>
+      <c r="G61" s="81">
         <f>ROUNDUP(SUM(C60:E60)/3,2)</f>
-        <v>0</v>
-      </c>
-      <c r="H61" s="80"/>
-      <c r="I61" s="80"/>
-      <c r="J61" s="80"/>
+        <v>12.43</v>
+      </c>
+      <c r="H61" s="82"/>
+      <c r="I61" s="82"/>
+      <c r="J61" s="82"/>
       <c r="K61" s="17"/>
       <c r="L61" s="17"/>
       <c r="M61" s="17"/>
@@ -14465,24 +14483,24 @@
       <c r="T61" s="18"/>
     </row>
     <row r="62" spans="1:47" ht="22" customHeight="1">
-      <c r="A62" s="81"/>
+      <c r="A62" s="75"/>
       <c r="B62" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="C62" s="55">
+      <c r="C62" s="59">
         <f>C61</f>
-        <v>0</v>
-      </c>
-      <c r="D62" s="56"/>
-      <c r="E62" s="56"/>
-      <c r="F62" s="57"/>
-      <c r="G62" s="83">
+        <v>37.28</v>
+      </c>
+      <c r="D62" s="60"/>
+      <c r="E62" s="60"/>
+      <c r="F62" s="61"/>
+      <c r="G62" s="77">
         <f>G61</f>
-        <v>0</v>
-      </c>
-      <c r="H62" s="84"/>
-      <c r="I62" s="84"/>
-      <c r="J62" s="84"/>
+        <v>12.43</v>
+      </c>
+      <c r="H62" s="78"/>
+      <c r="I62" s="78"/>
+      <c r="J62" s="78"/>
       <c r="K62" s="17"/>
       <c r="L62" s="17"/>
       <c r="M62" s="17"/>
@@ -14495,18 +14513,18 @@
       <c r="T62" s="18"/>
     </row>
     <row r="63" spans="1:47" ht="22" customHeight="1">
-      <c r="A63" s="82"/>
+      <c r="A63" s="76"/>
       <c r="B63" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="C63" s="58"/>
-      <c r="D63" s="59"/>
-      <c r="E63" s="59"/>
-      <c r="F63" s="60"/>
-      <c r="G63" s="85"/>
-      <c r="H63" s="86"/>
-      <c r="I63" s="86"/>
-      <c r="J63" s="86"/>
+      <c r="C63" s="62"/>
+      <c r="D63" s="63"/>
+      <c r="E63" s="63"/>
+      <c r="F63" s="64"/>
+      <c r="G63" s="79"/>
+      <c r="H63" s="80"/>
+      <c r="I63" s="80"/>
+      <c r="J63" s="80"/>
       <c r="K63" s="17"/>
       <c r="L63" s="17"/>
       <c r="M63" s="17"/>
@@ -14519,16 +14537,16 @@
       <c r="T63" s="18"/>
     </row>
     <row r="64" spans="1:47" s="23" customFormat="1" ht="11">
-      <c r="A64" s="68"/>
-      <c r="B64" s="69"/>
-      <c r="C64" s="69"/>
-      <c r="D64" s="69"/>
-      <c r="E64" s="69"/>
-      <c r="F64" s="69"/>
-      <c r="G64" s="69"/>
-      <c r="H64" s="69"/>
-      <c r="I64" s="69"/>
-      <c r="J64" s="69"/>
+      <c r="A64" s="65"/>
+      <c r="B64" s="66"/>
+      <c r="C64" s="66"/>
+      <c r="D64" s="66"/>
+      <c r="E64" s="66"/>
+      <c r="F64" s="66"/>
+      <c r="G64" s="66"/>
+      <c r="H64" s="66"/>
+      <c r="I64" s="66"/>
+      <c r="J64" s="66"/>
       <c r="K64" s="21"/>
       <c r="L64" s="21"/>
       <c r="M64" s="21"/>
@@ -14589,9 +14607,9 @@
       <c r="B66" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C66" s="66"/>
-      <c r="D66" s="67"/>
-      <c r="E66" s="67"/>
+      <c r="C66" s="67"/>
+      <c r="D66" s="68"/>
+      <c r="E66" s="68"/>
       <c r="F66" s="1" t="s">
         <v>8</v>
       </c>
@@ -14624,10 +14642,10 @@
         <v>1</v>
       </c>
       <c r="C67" s="1">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="D67" s="1">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="E67" s="6"/>
       <c r="F67" s="43">
@@ -14721,10 +14739,10 @@
         <v>2</v>
       </c>
       <c r="C68" s="40">
-        <v>0</v>
+        <v>3.26</v>
       </c>
       <c r="D68" s="1">
-        <v>0</v>
+        <v>3.26</v>
       </c>
       <c r="E68" s="6"/>
       <c r="F68" s="43">
@@ -14819,11 +14837,11 @@
         <v>3</v>
       </c>
       <c r="C69" s="1">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="D69" s="6"/>
       <c r="E69" s="1">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="F69" s="43">
         <f>Racks!F69</f>
@@ -14914,11 +14932,11 @@
         <v>4</v>
       </c>
       <c r="C70" s="1">
-        <v>0</v>
+        <v>4.84</v>
       </c>
       <c r="D70" s="6"/>
       <c r="E70" s="40">
-        <v>0</v>
+        <v>4.84</v>
       </c>
       <c r="F70" s="43">
         <f>Racks!F70</f>
@@ -15010,10 +15028,10 @@
       </c>
       <c r="C71" s="6"/>
       <c r="D71" s="1">
-        <v>0</v>
+        <v>3.26</v>
       </c>
       <c r="E71" s="1">
-        <v>0</v>
+        <v>3.26</v>
       </c>
       <c r="F71" s="43">
         <f>Racks!F71</f>
@@ -15107,10 +15125,10 @@
       </c>
       <c r="C72" s="6"/>
       <c r="D72" s="40">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="E72" s="1">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="F72" s="43">
         <f>Racks!F72</f>
@@ -15196,31 +15214,31 @@
       <c r="AP72" s="14"/>
     </row>
     <row r="73" spans="1:90" ht="22">
-      <c r="A73" s="70"/>
+      <c r="A73" s="69"/>
       <c r="B73" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C73" s="32">
         <f>SUM(C67:C72)</f>
-        <v>0</v>
+        <v>12.739999999999998</v>
       </c>
       <c r="D73" s="33">
         <f>SUM(D67:D72)</f>
-        <v>0</v>
+        <v>11.16</v>
       </c>
       <c r="E73" s="34">
         <f>SUM(E67:E72)</f>
-        <v>0</v>
+        <v>13.86</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G73" s="72" t="s">
+      <c r="G73" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="H73" s="73"/>
-      <c r="I73" s="73"/>
-      <c r="J73" s="73"/>
+      <c r="H73" s="72"/>
+      <c r="I73" s="72"/>
+      <c r="J73" s="72"/>
       <c r="K73" s="17"/>
       <c r="L73" s="17"/>
       <c r="M73" s="17"/>
@@ -15233,24 +15251,24 @@
       <c r="T73" s="18"/>
     </row>
     <row r="74" spans="1:90" ht="22">
-      <c r="A74" s="71"/>
+      <c r="A74" s="70"/>
       <c r="B74" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C74" s="76">
+      <c r="C74" s="83">
         <f>SUM(C73:E73)</f>
-        <v>0</v>
-      </c>
-      <c r="D74" s="77"/>
-      <c r="E74" s="77"/>
-      <c r="F74" s="78"/>
-      <c r="G74" s="74">
+        <v>37.76</v>
+      </c>
+      <c r="D74" s="84"/>
+      <c r="E74" s="84"/>
+      <c r="F74" s="85"/>
+      <c r="G74" s="73">
         <f>ROUNDUP(SUM(C73:E73)/3,2)</f>
-        <v>0</v>
-      </c>
-      <c r="H74" s="75"/>
-      <c r="I74" s="75"/>
-      <c r="J74" s="75"/>
+        <v>12.59</v>
+      </c>
+      <c r="H74" s="74"/>
+      <c r="I74" s="74"/>
+      <c r="J74" s="74"/>
       <c r="K74" s="17"/>
       <c r="L74" s="17"/>
       <c r="M74" s="17"/>
@@ -15263,24 +15281,24 @@
       <c r="T74" s="18"/>
     </row>
     <row r="75" spans="1:90" ht="22" customHeight="1">
-      <c r="A75" s="70"/>
-      <c r="B75" s="81" t="s">
+      <c r="A75" s="69"/>
+      <c r="B75" s="75" t="s">
         <v>45</v>
       </c>
-      <c r="C75" s="55">
+      <c r="C75" s="59">
         <f>SUM(C62+C74)</f>
-        <v>0</v>
-      </c>
-      <c r="D75" s="56"/>
-      <c r="E75" s="56"/>
-      <c r="F75" s="57"/>
-      <c r="G75" s="55">
+        <v>75.039999999999992</v>
+      </c>
+      <c r="D75" s="60"/>
+      <c r="E75" s="60"/>
+      <c r="F75" s="61"/>
+      <c r="G75" s="59">
         <f>SUM(G62+G74)</f>
-        <v>0</v>
-      </c>
-      <c r="H75" s="56"/>
-      <c r="I75" s="56"/>
-      <c r="J75" s="56"/>
+        <v>25.02</v>
+      </c>
+      <c r="H75" s="60"/>
+      <c r="I75" s="60"/>
+      <c r="J75" s="60"/>
       <c r="K75" s="17"/>
       <c r="L75" s="17"/>
       <c r="M75" s="17"/>
@@ -15293,16 +15311,16 @@
       <c r="T75" s="18"/>
     </row>
     <row r="76" spans="1:90" ht="22" customHeight="1">
-      <c r="A76" s="71"/>
-      <c r="B76" s="82"/>
-      <c r="C76" s="58"/>
-      <c r="D76" s="59"/>
-      <c r="E76" s="59"/>
-      <c r="F76" s="60"/>
-      <c r="G76" s="58"/>
-      <c r="H76" s="59"/>
-      <c r="I76" s="59"/>
-      <c r="J76" s="59"/>
+      <c r="A76" s="70"/>
+      <c r="B76" s="76"/>
+      <c r="C76" s="62"/>
+      <c r="D76" s="63"/>
+      <c r="E76" s="63"/>
+      <c r="F76" s="64"/>
+      <c r="G76" s="62"/>
+      <c r="H76" s="63"/>
+      <c r="I76" s="63"/>
+      <c r="J76" s="63"/>
       <c r="K76" s="17"/>
       <c r="L76" s="17"/>
       <c r="M76" s="17"/>
@@ -15363,9 +15381,9 @@
       <c r="B78" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C78" s="66"/>
-      <c r="D78" s="67"/>
-      <c r="E78" s="67"/>
+      <c r="C78" s="67"/>
+      <c r="D78" s="68"/>
+      <c r="E78" s="68"/>
       <c r="F78" s="1" t="s">
         <v>8</v>
       </c>
@@ -15398,10 +15416,10 @@
         <v>1</v>
       </c>
       <c r="C79" s="1">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="D79" s="1">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="E79" s="6"/>
       <c r="F79" s="44">
@@ -15543,10 +15561,10 @@
         <v>2</v>
       </c>
       <c r="C80" s="40">
-        <v>0</v>
+        <v>2.37</v>
       </c>
       <c r="D80" s="1">
-        <v>0</v>
+        <v>2.37</v>
       </c>
       <c r="E80" s="6"/>
       <c r="F80" s="44">
@@ -15689,11 +15707,11 @@
         <v>3</v>
       </c>
       <c r="C81" s="1">
-        <v>0</v>
+        <v>2.98</v>
       </c>
       <c r="D81" s="6"/>
       <c r="E81" s="1">
-        <v>0</v>
+        <v>2.98</v>
       </c>
       <c r="F81" s="44">
         <f>Racks!F81</f>
@@ -15832,11 +15850,11 @@
         <v>4</v>
       </c>
       <c r="C82" s="1">
-        <v>0</v>
+        <v>3.58</v>
       </c>
       <c r="D82" s="6"/>
       <c r="E82" s="40">
-        <v>0</v>
+        <v>3.58</v>
       </c>
       <c r="F82" s="44">
         <f>Racks!F82</f>
@@ -15976,10 +15994,10 @@
       </c>
       <c r="C83" s="6"/>
       <c r="D83" s="1">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="E83" s="1">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="F83" s="44">
         <f>Racks!F83</f>
@@ -16258,31 +16276,31 @@
       <c r="CL84" s="14"/>
     </row>
     <row r="85" spans="1:90" ht="22">
-      <c r="A85" s="70"/>
+      <c r="A85" s="69"/>
       <c r="B85" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C85" s="32">
         <f>SUM(C79:C84)</f>
-        <v>0</v>
+        <v>10.11</v>
       </c>
       <c r="D85" s="33">
         <f>SUM(D79:D84)</f>
-        <v>0</v>
+        <v>5.34</v>
       </c>
       <c r="E85" s="34">
         <f>SUM(E79:E84)</f>
-        <v>0</v>
+        <v>8.3500000000000014</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G85" s="72" t="s">
+      <c r="G85" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="H85" s="73"/>
-      <c r="I85" s="73"/>
-      <c r="J85" s="73"/>
+      <c r="H85" s="72"/>
+      <c r="I85" s="72"/>
+      <c r="J85" s="72"/>
       <c r="K85" s="17"/>
       <c r="L85" s="17"/>
       <c r="M85" s="17"/>
@@ -16295,24 +16313,24 @@
       <c r="T85" s="18"/>
     </row>
     <row r="86" spans="1:90" ht="24">
-      <c r="A86" s="71"/>
+      <c r="A86" s="70"/>
       <c r="B86" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C86" s="61">
+      <c r="C86" s="86">
         <f>SUM(C85:E85)</f>
-        <v>0</v>
-      </c>
-      <c r="D86" s="62"/>
-      <c r="E86" s="62"/>
-      <c r="F86" s="63"/>
-      <c r="G86" s="79">
+        <v>23.8</v>
+      </c>
+      <c r="D86" s="87"/>
+      <c r="E86" s="87"/>
+      <c r="F86" s="88"/>
+      <c r="G86" s="81">
         <f>ROUNDUP(SUM(C85:E85)/3,2)</f>
-        <v>0</v>
-      </c>
-      <c r="H86" s="80"/>
-      <c r="I86" s="80"/>
-      <c r="J86" s="80"/>
+        <v>7.9399999999999995</v>
+      </c>
+      <c r="H86" s="82"/>
+      <c r="I86" s="82"/>
+      <c r="J86" s="82"/>
       <c r="K86" s="17"/>
       <c r="L86" s="17"/>
       <c r="M86" s="17"/>
@@ -16325,24 +16343,24 @@
       <c r="T86" s="18"/>
     </row>
     <row r="87" spans="1:90" ht="22" customHeight="1">
-      <c r="A87" s="81"/>
+      <c r="A87" s="75"/>
       <c r="B87" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="C87" s="55">
+      <c r="C87" s="59">
         <f>C86</f>
-        <v>0</v>
-      </c>
-      <c r="D87" s="56"/>
-      <c r="E87" s="56"/>
-      <c r="F87" s="57"/>
-      <c r="G87" s="83">
+        <v>23.8</v>
+      </c>
+      <c r="D87" s="60"/>
+      <c r="E87" s="60"/>
+      <c r="F87" s="61"/>
+      <c r="G87" s="77">
         <f>G86</f>
-        <v>0</v>
-      </c>
-      <c r="H87" s="84"/>
-      <c r="I87" s="84"/>
-      <c r="J87" s="84"/>
+        <v>7.9399999999999995</v>
+      </c>
+      <c r="H87" s="78"/>
+      <c r="I87" s="78"/>
+      <c r="J87" s="78"/>
       <c r="K87" s="17"/>
       <c r="L87" s="17"/>
       <c r="M87" s="17"/>
@@ -16355,18 +16373,18 @@
       <c r="T87" s="18"/>
     </row>
     <row r="88" spans="1:90" ht="22" customHeight="1">
-      <c r="A88" s="82"/>
+      <c r="A88" s="76"/>
       <c r="B88" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="C88" s="58"/>
-      <c r="D88" s="59"/>
-      <c r="E88" s="59"/>
-      <c r="F88" s="60"/>
-      <c r="G88" s="85"/>
-      <c r="H88" s="86"/>
-      <c r="I88" s="86"/>
-      <c r="J88" s="86"/>
+      <c r="C88" s="62"/>
+      <c r="D88" s="63"/>
+      <c r="E88" s="63"/>
+      <c r="F88" s="64"/>
+      <c r="G88" s="79"/>
+      <c r="H88" s="80"/>
+      <c r="I88" s="80"/>
+      <c r="J88" s="80"/>
       <c r="K88" s="17"/>
       <c r="L88" s="17"/>
       <c r="M88" s="17"/>
@@ -16379,16 +16397,16 @@
       <c r="T88" s="18"/>
     </row>
     <row r="89" spans="1:90" s="27" customFormat="1" ht="7">
-      <c r="A89" s="89"/>
-      <c r="B89" s="90"/>
-      <c r="C89" s="90"/>
-      <c r="D89" s="90"/>
-      <c r="E89" s="90"/>
-      <c r="F89" s="90"/>
-      <c r="G89" s="90"/>
-      <c r="H89" s="90"/>
-      <c r="I89" s="90"/>
-      <c r="J89" s="90"/>
+      <c r="A89" s="91"/>
+      <c r="B89" s="92"/>
+      <c r="C89" s="92"/>
+      <c r="D89" s="92"/>
+      <c r="E89" s="92"/>
+      <c r="F89" s="92"/>
+      <c r="G89" s="92"/>
+      <c r="H89" s="92"/>
+      <c r="I89" s="92"/>
+      <c r="J89" s="92"/>
       <c r="K89" s="25"/>
       <c r="L89" s="25"/>
       <c r="M89" s="25"/>
@@ -16449,9 +16467,9 @@
       <c r="B91" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C91" s="66"/>
-      <c r="D91" s="67"/>
-      <c r="E91" s="67"/>
+      <c r="C91" s="67"/>
+      <c r="D91" s="68"/>
+      <c r="E91" s="68"/>
       <c r="F91" s="1" t="s">
         <v>8</v>
       </c>
@@ -16484,10 +16502,10 @@
         <v>1</v>
       </c>
       <c r="C92" s="1">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="D92" s="1">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="E92" s="6"/>
       <c r="F92" s="36">
@@ -16610,10 +16628,10 @@
         <v>2</v>
       </c>
       <c r="C93" s="40">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="D93" s="1">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="E93" s="6"/>
       <c r="F93" s="36">
@@ -16737,11 +16755,11 @@
         <v>3</v>
       </c>
       <c r="C94" s="1">
-        <v>0</v>
+        <v>2.98</v>
       </c>
       <c r="D94" s="6"/>
       <c r="E94" s="1">
-        <v>0</v>
+        <v>2.98</v>
       </c>
       <c r="F94" s="36">
         <f>Racks!F94</f>
@@ -16861,11 +16879,11 @@
         <v>4</v>
       </c>
       <c r="C95" s="1">
-        <v>0</v>
+        <v>2.98</v>
       </c>
       <c r="D95" s="6"/>
       <c r="E95" s="40">
-        <v>0</v>
+        <v>2.98</v>
       </c>
       <c r="F95" s="36">
         <f>Racks!F95</f>
@@ -16986,10 +17004,10 @@
       </c>
       <c r="C96" s="6"/>
       <c r="D96" s="1">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="E96" s="1">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="F96" s="36">
         <f>Racks!F96</f>
@@ -17112,10 +17130,10 @@
       </c>
       <c r="C97" s="6"/>
       <c r="D97" s="40">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="E97" s="1">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="F97" s="36">
         <f>Racks!F97</f>
@@ -17230,29 +17248,29 @@
       <c r="BS97" s="14"/>
     </row>
     <row r="98" spans="1:71" ht="22">
-      <c r="A98" s="70"/>
+      <c r="A98" s="69"/>
       <c r="B98" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C98" s="32">
         <f>SUM(C92:C97)</f>
-        <v>0</v>
+        <v>8.32</v>
       </c>
       <c r="D98" s="33">
         <f>SUM(D92:D97)</f>
-        <v>0</v>
+        <v>5.94</v>
       </c>
       <c r="E98" s="34">
         <f>SUM(E92:E97)</f>
-        <v>0</v>
+        <v>9.5399999999999991</v>
       </c>
       <c r="F98" s="1"/>
-      <c r="G98" s="72" t="s">
+      <c r="G98" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="H98" s="73"/>
-      <c r="I98" s="73"/>
-      <c r="J98" s="73"/>
+      <c r="H98" s="72"/>
+      <c r="I98" s="72"/>
+      <c r="J98" s="72"/>
       <c r="K98" s="17"/>
       <c r="L98" s="17"/>
       <c r="M98" s="17"/>
@@ -17260,24 +17278,24 @@
       <c r="O98" s="17"/>
     </row>
     <row r="99" spans="1:71" ht="22">
-      <c r="A99" s="71"/>
+      <c r="A99" s="70"/>
       <c r="B99" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C99" s="76">
+      <c r="C99" s="83">
         <f>SUM(C98:E98)</f>
-        <v>0</v>
-      </c>
-      <c r="D99" s="77"/>
-      <c r="E99" s="77"/>
-      <c r="F99" s="78"/>
-      <c r="G99" s="74">
+        <v>23.8</v>
+      </c>
+      <c r="D99" s="84"/>
+      <c r="E99" s="84"/>
+      <c r="F99" s="85"/>
+      <c r="G99" s="73">
         <f>ROUNDUP(SUM(C98:E98)/3,2)</f>
-        <v>0</v>
-      </c>
-      <c r="H99" s="75"/>
-      <c r="I99" s="75"/>
-      <c r="J99" s="75"/>
+        <v>7.9399999999999995</v>
+      </c>
+      <c r="H99" s="74"/>
+      <c r="I99" s="74"/>
+      <c r="J99" s="74"/>
       <c r="K99" s="17"/>
       <c r="L99" s="17"/>
       <c r="M99" s="17"/>
@@ -17285,24 +17303,24 @@
       <c r="O99" s="17"/>
     </row>
     <row r="100" spans="1:71" ht="22" customHeight="1">
-      <c r="A100" s="70"/>
-      <c r="B100" s="81" t="s">
+      <c r="A100" s="69"/>
+      <c r="B100" s="75" t="s">
         <v>46</v>
       </c>
-      <c r="C100" s="55">
+      <c r="C100" s="59">
         <f>SUM(C87+C99)</f>
-        <v>0</v>
-      </c>
-      <c r="D100" s="56"/>
-      <c r="E100" s="56"/>
-      <c r="F100" s="57"/>
-      <c r="G100" s="55">
+        <v>47.6</v>
+      </c>
+      <c r="D100" s="60"/>
+      <c r="E100" s="60"/>
+      <c r="F100" s="61"/>
+      <c r="G100" s="59">
         <f>SUM(G87+G99)</f>
-        <v>0</v>
-      </c>
-      <c r="H100" s="56"/>
-      <c r="I100" s="56"/>
-      <c r="J100" s="56"/>
+        <v>15.879999999999999</v>
+      </c>
+      <c r="H100" s="60"/>
+      <c r="I100" s="60"/>
+      <c r="J100" s="60"/>
       <c r="K100" s="17"/>
       <c r="L100" s="17"/>
       <c r="M100" s="17"/>
@@ -17310,16 +17328,16 @@
       <c r="O100" s="17"/>
     </row>
     <row r="101" spans="1:71" ht="22" customHeight="1">
-      <c r="A101" s="71"/>
-      <c r="B101" s="82"/>
-      <c r="C101" s="58"/>
-      <c r="D101" s="59"/>
-      <c r="E101" s="59"/>
-      <c r="F101" s="60"/>
-      <c r="G101" s="58"/>
-      <c r="H101" s="59"/>
-      <c r="I101" s="59"/>
-      <c r="J101" s="59"/>
+      <c r="A101" s="70"/>
+      <c r="B101" s="76"/>
+      <c r="C101" s="62"/>
+      <c r="D101" s="63"/>
+      <c r="E101" s="63"/>
+      <c r="F101" s="64"/>
+      <c r="G101" s="62"/>
+      <c r="H101" s="63"/>
+      <c r="I101" s="63"/>
+      <c r="J101" s="63"/>
       <c r="K101" s="17"/>
       <c r="L101" s="17"/>
       <c r="M101" s="17"/>
@@ -17332,16 +17350,16 @@
       <c r="C102" s="41"/>
       <c r="D102" s="41"/>
       <c r="E102" s="41"/>
-      <c r="F102" s="91" t="s">
+      <c r="F102" s="93" t="s">
         <v>193</v>
       </c>
-      <c r="G102" s="92"/>
-      <c r="H102" s="93"/>
-      <c r="I102" s="94">
+      <c r="G102" s="94"/>
+      <c r="H102" s="95"/>
+      <c r="I102" s="96">
         <f>ROUND(SUM(C103:E103),2)</f>
-        <v>0</v>
-      </c>
-      <c r="J102" s="95"/>
+        <v>296.39999999999998</v>
+      </c>
+      <c r="J102" s="97"/>
       <c r="K102" s="29"/>
       <c r="L102" s="29"/>
       <c r="M102" s="29"/>
@@ -17349,31 +17367,31 @@
       <c r="O102" s="29"/>
     </row>
     <row r="103" spans="1:71" s="30" customFormat="1" ht="32">
-      <c r="A103" s="87" t="s">
+      <c r="A103" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="B103" s="88"/>
+      <c r="B103" s="90"/>
       <c r="C103" s="37">
         <f>ROUND(SUM(C10+C23+C35+C48+C60+C73+C85+C98), 2)</f>
-        <v>0</v>
+        <v>104.07</v>
       </c>
       <c r="D103" s="38">
         <f>ROUND(SUM(D10+D23+D35+D48+D60+D73+D85+D98), 2)</f>
-        <v>0</v>
+        <v>90.24</v>
       </c>
       <c r="E103" s="39">
         <f>ROUND(SUM(E10+E23+E35+E48+E60+E73+E85+E98), 2)</f>
-        <v>0</v>
-      </c>
-      <c r="F103" s="64" t="s">
+        <v>102.09</v>
+      </c>
+      <c r="F103" s="98" t="s">
         <v>32</v>
       </c>
-      <c r="G103" s="64"/>
-      <c r="H103" s="64"/>
-      <c r="I103" s="65">
-        <v>0</v>
-      </c>
-      <c r="J103" s="65"/>
+      <c r="G103" s="98"/>
+      <c r="H103" s="98"/>
+      <c r="I103" s="99">
+        <v>56305</v>
+      </c>
+      <c r="J103" s="99"/>
       <c r="K103" s="29"/>
       <c r="L103" s="29"/>
       <c r="M103" s="29"/>
@@ -17383,21 +17401,53 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="KtgEuMG/acsHmtOZ/doKKqlT5kNPSZNRfQbjoTtKyT1BFrviCqHsUmco9NtayX6hguuxslk9QxWDmAGpN+XJmQ==" saltValue="q612C3Gg3CDENLU4xWLwxw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="78">
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="F103:H103"/>
-    <mergeCell ref="I103:J103"/>
-    <mergeCell ref="C91:E91"/>
-    <mergeCell ref="A100:A101"/>
-    <mergeCell ref="B100:B101"/>
-    <mergeCell ref="C100:F101"/>
-    <mergeCell ref="G100:J101"/>
-    <mergeCell ref="F102:H102"/>
-    <mergeCell ref="I102:J102"/>
-    <mergeCell ref="G86:J86"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="C87:F88"/>
-    <mergeCell ref="G87:J88"/>
-    <mergeCell ref="A89:J89"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="G24:J24"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C12:F13"/>
+    <mergeCell ref="G12:J13"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="G48:J48"/>
+    <mergeCell ref="C49:F49"/>
+    <mergeCell ref="G49:J49"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:F26"/>
+    <mergeCell ref="G25:J26"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="G35:J35"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="G36:J36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="C37:F38"/>
+    <mergeCell ref="G37:J38"/>
+    <mergeCell ref="A39:J39"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="G73:J73"/>
+    <mergeCell ref="C74:F74"/>
+    <mergeCell ref="G74:J74"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="C50:F51"/>
+    <mergeCell ref="G50:J51"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="G60:J60"/>
+    <mergeCell ref="C61:F61"/>
+    <mergeCell ref="G61:J61"/>
+    <mergeCell ref="A62:A63"/>
     <mergeCell ref="C62:F63"/>
     <mergeCell ref="G62:J63"/>
     <mergeCell ref="A64:J64"/>
@@ -17414,53 +17464,21 @@
     <mergeCell ref="A85:A86"/>
     <mergeCell ref="G85:J85"/>
     <mergeCell ref="C86:F86"/>
-    <mergeCell ref="A39:J39"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="G73:J73"/>
-    <mergeCell ref="C74:F74"/>
-    <mergeCell ref="G74:J74"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="C50:F51"/>
-    <mergeCell ref="G50:J51"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="G60:J60"/>
-    <mergeCell ref="C61:F61"/>
-    <mergeCell ref="G61:J61"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="G48:J48"/>
-    <mergeCell ref="C49:F49"/>
-    <mergeCell ref="G49:J49"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:F26"/>
-    <mergeCell ref="G25:J26"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="G35:J35"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="G36:J36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="C37:F38"/>
-    <mergeCell ref="G37:J38"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="G24:J24"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="G10:J10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C12:F13"/>
-    <mergeCell ref="G12:J13"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G86:J86"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="C87:F88"/>
+    <mergeCell ref="G87:J88"/>
+    <mergeCell ref="A89:J89"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="F103:H103"/>
+    <mergeCell ref="I103:J103"/>
+    <mergeCell ref="C91:E91"/>
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="B100:B101"/>
+    <mergeCell ref="C100:F101"/>
+    <mergeCell ref="G100:J101"/>
+    <mergeCell ref="F102:H102"/>
+    <mergeCell ref="I102:J102"/>
   </mergeCells>
   <printOptions headings="1"/>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
@@ -17477,7 +17495,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2E15F19-BCDE-EF44-ACD7-73DA8C530F2F}">
   <dimension ref="A1:DU103"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
@@ -17495,10 +17513,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:125" s="14" customFormat="1" ht="22">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="97"/>
+      <c r="B1" s="58"/>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
       <c r="E1" s="13"/>
@@ -17547,9 +17565,9 @@
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="66"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
       <c r="F3" s="1" t="s">
         <v>8</v>
       </c>
@@ -17582,10 +17600,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="1">
-        <v>0</v>
+        <v>5.13</v>
       </c>
       <c r="D4" s="1">
-        <v>0</v>
+        <v>5.13</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="36">
@@ -17762,11 +17780,11 @@
         <v>2</v>
       </c>
       <c r="C5" s="40">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="1">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="F5" s="36">
         <f>Racks!F5</f>
@@ -17944,10 +17962,10 @@
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="40">
-        <v>0</v>
+        <v>5.13</v>
       </c>
       <c r="E6" s="1">
-        <v>0</v>
+        <v>5.13</v>
       </c>
       <c r="F6" s="36">
         <f>Racks!F6</f>
@@ -18121,10 +18139,10 @@
         <v>4</v>
       </c>
       <c r="C7" s="1">
-        <v>0</v>
+        <v>3.16</v>
       </c>
       <c r="D7" s="1">
-        <v>0</v>
+        <v>3.16</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="36">
@@ -18299,11 +18317,11 @@
         <v>5</v>
       </c>
       <c r="C8" s="40">
-        <v>0</v>
+        <v>3.16</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="1">
-        <v>0</v>
+        <v>3.16</v>
       </c>
       <c r="F8" s="36">
         <f>Racks!F8</f>
@@ -18480,10 +18498,10 @@
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="40">
-        <v>0</v>
+        <v>3.16</v>
       </c>
       <c r="E9" s="1">
-        <v>0</v>
+        <v>3.16</v>
       </c>
       <c r="F9" s="36">
         <f>Racks!F9</f>
@@ -18652,31 +18670,31 @@
       <c r="DU9" s="14"/>
     </row>
     <row r="10" spans="1:125" ht="22">
-      <c r="A10" s="70"/>
+      <c r="A10" s="69"/>
       <c r="B10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="32">
         <f>SUM(C4:C9)</f>
-        <v>0</v>
+        <v>13.43</v>
       </c>
       <c r="D10" s="33">
         <f>SUM(D4:D9)</f>
-        <v>0</v>
+        <v>16.579999999999998</v>
       </c>
       <c r="E10" s="34">
         <f>SUM(E4:E9)</f>
-        <v>0</v>
+        <v>13.43</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="72" t="s">
+      <c r="G10" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
+      <c r="H10" s="72"/>
+      <c r="I10" s="72"/>
+      <c r="J10" s="72"/>
       <c r="K10" s="17"/>
       <c r="L10" s="17"/>
       <c r="M10" s="17"/>
@@ -18689,24 +18707,24 @@
       <c r="T10" s="18"/>
     </row>
     <row r="11" spans="1:125" ht="24">
-      <c r="A11" s="71"/>
+      <c r="A11" s="70"/>
       <c r="B11" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="61">
+      <c r="C11" s="86">
         <f>SUM(C10:E10)</f>
-        <v>0</v>
-      </c>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="79">
+        <v>43.44</v>
+      </c>
+      <c r="D11" s="87"/>
+      <c r="E11" s="87"/>
+      <c r="F11" s="88"/>
+      <c r="G11" s="81">
         <f>ROUNDUP(SUM(C10:E10)/3,2)</f>
-        <v>0</v>
-      </c>
-      <c r="H11" s="80"/>
-      <c r="I11" s="80"/>
-      <c r="J11" s="80"/>
+        <v>14.48</v>
+      </c>
+      <c r="H11" s="82"/>
+      <c r="I11" s="82"/>
+      <c r="J11" s="82"/>
       <c r="K11" s="17"/>
       <c r="L11" s="17"/>
       <c r="M11" s="17"/>
@@ -18719,24 +18737,24 @@
       <c r="T11" s="18"/>
     </row>
     <row r="12" spans="1:125" ht="22" customHeight="1">
-      <c r="A12" s="81"/>
+      <c r="A12" s="75"/>
       <c r="B12" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="55">
+      <c r="C12" s="59">
         <f>C11</f>
-        <v>0</v>
-      </c>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="83">
+        <v>43.44</v>
+      </c>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="77">
         <f>G11</f>
-        <v>0</v>
-      </c>
-      <c r="H12" s="84"/>
-      <c r="I12" s="84"/>
-      <c r="J12" s="84"/>
+        <v>14.48</v>
+      </c>
+      <c r="H12" s="78"/>
+      <c r="I12" s="78"/>
+      <c r="J12" s="78"/>
       <c r="K12" s="17"/>
       <c r="L12" s="17"/>
       <c r="M12" s="17"/>
@@ -18749,18 +18767,18 @@
       <c r="T12" s="18"/>
     </row>
     <row r="13" spans="1:125" ht="22" customHeight="1">
-      <c r="A13" s="82"/>
+      <c r="A13" s="76"/>
       <c r="B13" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="58"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="85"/>
-      <c r="H13" s="86"/>
-      <c r="I13" s="86"/>
-      <c r="J13" s="86"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="79"/>
+      <c r="H13" s="80"/>
+      <c r="I13" s="80"/>
+      <c r="J13" s="80"/>
       <c r="K13" s="17"/>
       <c r="L13" s="17"/>
       <c r="M13" s="17"/>
@@ -18773,16 +18791,16 @@
       <c r="T13" s="18"/>
     </row>
     <row r="14" spans="1:125" s="23" customFormat="1" ht="11">
-      <c r="A14" s="68"/>
-      <c r="B14" s="69"/>
-      <c r="C14" s="69"/>
-      <c r="D14" s="69"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="69"/>
-      <c r="G14" s="69"/>
-      <c r="H14" s="69"/>
-      <c r="I14" s="69"/>
-      <c r="J14" s="69"/>
+      <c r="A14" s="65"/>
+      <c r="B14" s="66"/>
+      <c r="C14" s="66"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="66"/>
+      <c r="I14" s="66"/>
+      <c r="J14" s="66"/>
       <c r="K14" s="21"/>
       <c r="L14" s="21"/>
       <c r="M14" s="21"/>
@@ -18843,9 +18861,9 @@
       <c r="B16" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="66"/>
-      <c r="D16" s="67"/>
-      <c r="E16" s="67"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="68"/>
       <c r="F16" s="1" t="s">
         <v>8</v>
       </c>
@@ -18878,10 +18896,10 @@
         <v>1</v>
       </c>
       <c r="C17" s="1">
-        <v>0</v>
+        <v>5.13</v>
       </c>
       <c r="D17" s="1">
-        <v>0</v>
+        <v>5.13</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="36">
@@ -18990,11 +19008,11 @@
         <v>2</v>
       </c>
       <c r="C18" s="40">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="1">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="F18" s="36">
         <f>Racks!F18</f>
@@ -19104,10 +19122,10 @@
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="40">
-        <v>0</v>
+        <v>3.16</v>
       </c>
       <c r="E19" s="1">
-        <v>0</v>
+        <v>3.16</v>
       </c>
       <c r="F19" s="36">
         <f>Racks!F19</f>
@@ -19212,10 +19230,10 @@
         <v>4</v>
       </c>
       <c r="C20" s="1">
-        <v>0</v>
+        <v>3.16</v>
       </c>
       <c r="D20" s="1">
-        <v>0</v>
+        <v>3.16</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="36">
@@ -19322,11 +19340,11 @@
         <v>5</v>
       </c>
       <c r="C21" s="40">
-        <v>0</v>
+        <v>3.16</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="1">
-        <v>0</v>
+        <v>3.16</v>
       </c>
       <c r="F21" s="36">
         <f>Racks!F21</f>
@@ -19435,10 +19453,10 @@
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="40">
-        <v>0</v>
+        <v>5.13</v>
       </c>
       <c r="E22" s="1">
-        <v>0</v>
+        <v>5.13</v>
       </c>
       <c r="F22" s="36">
         <f>Racks!F22</f>
@@ -19539,31 +19557,31 @@
       <c r="BE22" s="14"/>
     </row>
     <row r="23" spans="1:121" ht="22">
-      <c r="A23" s="70"/>
+      <c r="A23" s="69"/>
       <c r="B23" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C23" s="32">
         <f>SUM(C17:C22)</f>
-        <v>0</v>
+        <v>13.43</v>
       </c>
       <c r="D23" s="33">
         <f>SUM(D17:D22)</f>
-        <v>0</v>
+        <v>16.579999999999998</v>
       </c>
       <c r="E23" s="34">
         <f>SUM(E17:E22)</f>
-        <v>0</v>
+        <v>13.43</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G23" s="72" t="s">
+      <c r="G23" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="H23" s="73"/>
-      <c r="I23" s="73"/>
-      <c r="J23" s="73"/>
+      <c r="H23" s="72"/>
+      <c r="I23" s="72"/>
+      <c r="J23" s="72"/>
       <c r="K23" s="17"/>
       <c r="L23" s="17"/>
       <c r="M23" s="17"/>
@@ -19576,24 +19594,24 @@
       <c r="T23" s="18"/>
     </row>
     <row r="24" spans="1:121" ht="22">
-      <c r="A24" s="71"/>
+      <c r="A24" s="70"/>
       <c r="B24" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="76">
+      <c r="C24" s="83">
         <f>SUM(C23:E23)</f>
-        <v>0</v>
-      </c>
-      <c r="D24" s="77"/>
-      <c r="E24" s="77"/>
-      <c r="F24" s="78"/>
-      <c r="G24" s="74">
+        <v>43.44</v>
+      </c>
+      <c r="D24" s="84"/>
+      <c r="E24" s="84"/>
+      <c r="F24" s="85"/>
+      <c r="G24" s="73">
         <f>ROUNDUP(SUM(C23:E23)/3,2)</f>
-        <v>0</v>
-      </c>
-      <c r="H24" s="75"/>
-      <c r="I24" s="75"/>
-      <c r="J24" s="75"/>
+        <v>14.48</v>
+      </c>
+      <c r="H24" s="74"/>
+      <c r="I24" s="74"/>
+      <c r="J24" s="74"/>
       <c r="K24" s="17"/>
       <c r="L24" s="17"/>
       <c r="M24" s="17"/>
@@ -19606,24 +19624,24 @@
       <c r="T24" s="18"/>
     </row>
     <row r="25" spans="1:121" ht="22" customHeight="1">
-      <c r="A25" s="70"/>
-      <c r="B25" s="81" t="s">
+      <c r="A25" s="69"/>
+      <c r="B25" s="75" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="55">
+      <c r="C25" s="59">
         <f>SUM(C12+C24)</f>
-        <v>0</v>
-      </c>
-      <c r="D25" s="56"/>
-      <c r="E25" s="56"/>
-      <c r="F25" s="57"/>
-      <c r="G25" s="55">
+        <v>86.88</v>
+      </c>
+      <c r="D25" s="60"/>
+      <c r="E25" s="60"/>
+      <c r="F25" s="61"/>
+      <c r="G25" s="59">
         <f>SUM(G12+G24)</f>
-        <v>0</v>
-      </c>
-      <c r="H25" s="56"/>
-      <c r="I25" s="56"/>
-      <c r="J25" s="56"/>
+        <v>28.96</v>
+      </c>
+      <c r="H25" s="60"/>
+      <c r="I25" s="60"/>
+      <c r="J25" s="60"/>
       <c r="K25" s="17"/>
       <c r="L25" s="17"/>
       <c r="M25" s="17"/>
@@ -19636,16 +19654,16 @@
       <c r="T25" s="18"/>
     </row>
     <row r="26" spans="1:121" ht="22" customHeight="1">
-      <c r="A26" s="71"/>
-      <c r="B26" s="82"/>
-      <c r="C26" s="58"/>
-      <c r="D26" s="59"/>
-      <c r="E26" s="59"/>
-      <c r="F26" s="60"/>
-      <c r="G26" s="58"/>
-      <c r="H26" s="59"/>
-      <c r="I26" s="59"/>
-      <c r="J26" s="59"/>
+      <c r="A26" s="70"/>
+      <c r="B26" s="76"/>
+      <c r="C26" s="62"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="64"/>
+      <c r="G26" s="62"/>
+      <c r="H26" s="63"/>
+      <c r="I26" s="63"/>
+      <c r="J26" s="63"/>
       <c r="K26" s="17"/>
       <c r="L26" s="17"/>
       <c r="M26" s="17"/>
@@ -19706,9 +19724,9 @@
       <c r="B28" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="66"/>
-      <c r="D28" s="67"/>
-      <c r="E28" s="67"/>
+      <c r="C28" s="67"/>
+      <c r="D28" s="68"/>
+      <c r="E28" s="68"/>
       <c r="F28" s="1" t="s">
         <v>8</v>
       </c>
@@ -19741,10 +19759,10 @@
         <v>1</v>
       </c>
       <c r="C29" s="1">
-        <v>0</v>
+        <v>3.16</v>
       </c>
       <c r="D29" s="1">
-        <v>0</v>
+        <v>3.16</v>
       </c>
       <c r="E29" s="6"/>
       <c r="F29" s="36">
@@ -19917,11 +19935,11 @@
         <v>2</v>
       </c>
       <c r="C30" s="40">
-        <v>0</v>
+        <v>3.16</v>
       </c>
       <c r="D30" s="6"/>
       <c r="E30" s="1">
-        <v>0</v>
+        <v>3.16</v>
       </c>
       <c r="F30" s="36">
         <f>Racks!F30</f>
@@ -20095,10 +20113,10 @@
       </c>
       <c r="C31" s="6"/>
       <c r="D31" s="40">
-        <v>0</v>
+        <v>3.16</v>
       </c>
       <c r="E31" s="1">
-        <v>0</v>
+        <v>3.16</v>
       </c>
       <c r="F31" s="36">
         <f>Racks!F31</f>
@@ -20268,10 +20286,10 @@
         <v>4</v>
       </c>
       <c r="C32" s="1">
-        <v>0</v>
+        <v>5.13</v>
       </c>
       <c r="D32" s="1">
-        <v>0</v>
+        <v>5.13</v>
       </c>
       <c r="E32" s="6"/>
       <c r="F32" s="36">
@@ -20442,11 +20460,11 @@
         <v>5</v>
       </c>
       <c r="C33" s="40">
-        <v>0</v>
+        <v>5.13</v>
       </c>
       <c r="D33" s="6"/>
       <c r="E33" s="1">
-        <v>0</v>
+        <v>5.13</v>
       </c>
       <c r="F33" s="36">
         <f>Racks!F33</f>
@@ -20619,10 +20637,10 @@
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="40">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="E34" s="1">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="F34" s="36">
         <f>Racks!F34</f>
@@ -20787,31 +20805,31 @@
       <c r="DQ34" s="14"/>
     </row>
     <row r="35" spans="1:121" ht="22">
-      <c r="A35" s="70"/>
+      <c r="A35" s="69"/>
       <c r="B35" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C35" s="32">
         <f>SUM(C29:C34)</f>
-        <v>0</v>
+        <v>16.579999999999998</v>
       </c>
       <c r="D35" s="33">
         <f>SUM(D29:D34)</f>
-        <v>0</v>
+        <v>13.43</v>
       </c>
       <c r="E35" s="34">
         <f>SUM(E29:E34)</f>
-        <v>0</v>
+        <v>13.43</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G35" s="72" t="s">
+      <c r="G35" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="H35" s="73"/>
-      <c r="I35" s="73"/>
-      <c r="J35" s="73"/>
+      <c r="H35" s="72"/>
+      <c r="I35" s="72"/>
+      <c r="J35" s="72"/>
       <c r="K35" s="17"/>
       <c r="L35" s="17"/>
       <c r="M35" s="17"/>
@@ -20824,24 +20842,24 @@
       <c r="T35" s="18"/>
     </row>
     <row r="36" spans="1:121" ht="24">
-      <c r="A36" s="71"/>
+      <c r="A36" s="70"/>
       <c r="B36" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="61">
+      <c r="C36" s="86">
         <f>SUM(C35:E35)</f>
-        <v>0</v>
-      </c>
-      <c r="D36" s="62"/>
-      <c r="E36" s="62"/>
-      <c r="F36" s="63"/>
-      <c r="G36" s="79">
+        <v>43.44</v>
+      </c>
+      <c r="D36" s="87"/>
+      <c r="E36" s="87"/>
+      <c r="F36" s="88"/>
+      <c r="G36" s="81">
         <f>ROUNDUP(SUM(C35:E35)/3,2)</f>
-        <v>0</v>
-      </c>
-      <c r="H36" s="80"/>
-      <c r="I36" s="80"/>
-      <c r="J36" s="80"/>
+        <v>14.48</v>
+      </c>
+      <c r="H36" s="82"/>
+      <c r="I36" s="82"/>
+      <c r="J36" s="82"/>
       <c r="K36" s="17"/>
       <c r="L36" s="17"/>
       <c r="M36" s="17"/>
@@ -20854,24 +20872,24 @@
       <c r="T36" s="18"/>
     </row>
     <row r="37" spans="1:121" ht="22" customHeight="1">
-      <c r="A37" s="81"/>
+      <c r="A37" s="75"/>
       <c r="B37" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="C37" s="55">
+      <c r="C37" s="59">
         <f>C36</f>
-        <v>0</v>
-      </c>
-      <c r="D37" s="56"/>
-      <c r="E37" s="56"/>
-      <c r="F37" s="57"/>
-      <c r="G37" s="83">
+        <v>43.44</v>
+      </c>
+      <c r="D37" s="60"/>
+      <c r="E37" s="60"/>
+      <c r="F37" s="61"/>
+      <c r="G37" s="77">
         <f>G36</f>
-        <v>0</v>
-      </c>
-      <c r="H37" s="84"/>
-      <c r="I37" s="84"/>
-      <c r="J37" s="84"/>
+        <v>14.48</v>
+      </c>
+      <c r="H37" s="78"/>
+      <c r="I37" s="78"/>
+      <c r="J37" s="78"/>
       <c r="K37" s="17"/>
       <c r="L37" s="17"/>
       <c r="M37" s="17"/>
@@ -20884,18 +20902,18 @@
       <c r="T37" s="18"/>
     </row>
     <row r="38" spans="1:121" ht="22" customHeight="1">
-      <c r="A38" s="82"/>
+      <c r="A38" s="76"/>
       <c r="B38" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="C38" s="58"/>
-      <c r="D38" s="59"/>
-      <c r="E38" s="59"/>
-      <c r="F38" s="60"/>
-      <c r="G38" s="85"/>
-      <c r="H38" s="86"/>
-      <c r="I38" s="86"/>
-      <c r="J38" s="86"/>
+      <c r="C38" s="62"/>
+      <c r="D38" s="63"/>
+      <c r="E38" s="63"/>
+      <c r="F38" s="64"/>
+      <c r="G38" s="79"/>
+      <c r="H38" s="80"/>
+      <c r="I38" s="80"/>
+      <c r="J38" s="80"/>
       <c r="K38" s="17"/>
       <c r="L38" s="17"/>
       <c r="M38" s="17"/>
@@ -20908,16 +20926,16 @@
       <c r="T38" s="18"/>
     </row>
     <row r="39" spans="1:121" s="23" customFormat="1" ht="11">
-      <c r="A39" s="68"/>
-      <c r="B39" s="69"/>
-      <c r="C39" s="69"/>
-      <c r="D39" s="69"/>
-      <c r="E39" s="69"/>
-      <c r="F39" s="69"/>
-      <c r="G39" s="69"/>
-      <c r="H39" s="69"/>
-      <c r="I39" s="69"/>
-      <c r="J39" s="69"/>
+      <c r="A39" s="65"/>
+      <c r="B39" s="66"/>
+      <c r="C39" s="66"/>
+      <c r="D39" s="66"/>
+      <c r="E39" s="66"/>
+      <c r="F39" s="66"/>
+      <c r="G39" s="66"/>
+      <c r="H39" s="66"/>
+      <c r="I39" s="66"/>
+      <c r="J39" s="66"/>
       <c r="K39" s="21"/>
       <c r="L39" s="21"/>
       <c r="M39" s="21"/>
@@ -20978,9 +20996,9 @@
       <c r="B41" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C41" s="66"/>
-      <c r="D41" s="67"/>
-      <c r="E41" s="67"/>
+      <c r="C41" s="67"/>
+      <c r="D41" s="68"/>
+      <c r="E41" s="68"/>
       <c r="F41" s="1" t="s">
         <v>8</v>
       </c>
@@ -21013,10 +21031,10 @@
         <v>1</v>
       </c>
       <c r="C42" s="1">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="D42" s="1">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="E42" s="6"/>
       <c r="F42" s="36">
@@ -21117,11 +21135,11 @@
         <v>2</v>
       </c>
       <c r="C43" s="40">
-        <v>0</v>
+        <v>5.13</v>
       </c>
       <c r="D43" s="6"/>
       <c r="E43" s="1">
-        <v>0</v>
+        <v>5.13</v>
       </c>
       <c r="F43" s="36">
         <f>Racks!F43</f>
@@ -21223,10 +21241,10 @@
       </c>
       <c r="C44" s="6"/>
       <c r="D44" s="40">
-        <v>0</v>
+        <v>5.13</v>
       </c>
       <c r="E44" s="1">
-        <v>0</v>
+        <v>5.13</v>
       </c>
       <c r="F44" s="36">
         <f>Racks!F44</f>
@@ -21324,10 +21342,10 @@
         <v>4</v>
       </c>
       <c r="C45" s="1">
-        <v>0</v>
+        <v>3.16</v>
       </c>
       <c r="D45" s="1">
-        <v>0</v>
+        <v>3.16</v>
       </c>
       <c r="E45" s="6"/>
       <c r="F45" s="36">
@@ -21426,11 +21444,11 @@
         <v>5</v>
       </c>
       <c r="C46" s="40">
-        <v>0</v>
+        <v>3.16</v>
       </c>
       <c r="D46" s="6"/>
       <c r="E46" s="1">
-        <v>0</v>
+        <v>3.16</v>
       </c>
       <c r="F46" s="36">
         <f>Racks!F46</f>
@@ -21531,10 +21549,10 @@
       </c>
       <c r="C47" s="6"/>
       <c r="D47" s="40">
-        <v>0</v>
+        <v>3.16</v>
       </c>
       <c r="E47" s="1">
-        <v>0</v>
+        <v>3.16</v>
       </c>
       <c r="F47" s="36">
         <f>Racks!F47</f>
@@ -21627,31 +21645,31 @@
       <c r="AW47" s="14"/>
     </row>
     <row r="48" spans="1:121" ht="22">
-      <c r="A48" s="70"/>
+      <c r="A48" s="69"/>
       <c r="B48" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C48" s="32">
         <f>SUM(C42:C47)</f>
-        <v>0</v>
+        <v>13.43</v>
       </c>
       <c r="D48" s="33">
         <f>SUM(D42:D47)</f>
-        <v>0</v>
+        <v>13.43</v>
       </c>
       <c r="E48" s="34">
         <f>SUM(E42:E47)</f>
-        <v>0</v>
+        <v>16.579999999999998</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G48" s="72" t="s">
+      <c r="G48" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="H48" s="73"/>
-      <c r="I48" s="73"/>
-      <c r="J48" s="73"/>
+      <c r="H48" s="72"/>
+      <c r="I48" s="72"/>
+      <c r="J48" s="72"/>
       <c r="K48" s="17"/>
       <c r="L48" s="17"/>
       <c r="M48" s="17"/>
@@ -21664,24 +21682,24 @@
       <c r="T48" s="18"/>
     </row>
     <row r="49" spans="1:47" ht="22">
-      <c r="A49" s="71"/>
+      <c r="A49" s="70"/>
       <c r="B49" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C49" s="76">
+      <c r="C49" s="83">
         <f>SUM(C48:E48)</f>
-        <v>0</v>
-      </c>
-      <c r="D49" s="77"/>
-      <c r="E49" s="77"/>
-      <c r="F49" s="78"/>
-      <c r="G49" s="74">
+        <v>43.44</v>
+      </c>
+      <c r="D49" s="84"/>
+      <c r="E49" s="84"/>
+      <c r="F49" s="85"/>
+      <c r="G49" s="73">
         <f>ROUNDUP(SUM(C48:E48)/3,2)</f>
-        <v>0</v>
-      </c>
-      <c r="H49" s="75"/>
-      <c r="I49" s="75"/>
-      <c r="J49" s="75"/>
+        <v>14.48</v>
+      </c>
+      <c r="H49" s="74"/>
+      <c r="I49" s="74"/>
+      <c r="J49" s="74"/>
       <c r="K49" s="17"/>
       <c r="L49" s="17"/>
       <c r="M49" s="17"/>
@@ -21694,24 +21712,24 @@
       <c r="T49" s="18"/>
     </row>
     <row r="50" spans="1:47" ht="22" customHeight="1">
-      <c r="A50" s="70"/>
-      <c r="B50" s="81" t="s">
+      <c r="A50" s="69"/>
+      <c r="B50" s="75" t="s">
         <v>43</v>
       </c>
-      <c r="C50" s="55">
+      <c r="C50" s="59">
         <f>SUM(C37+C49)</f>
-        <v>0</v>
-      </c>
-      <c r="D50" s="56"/>
-      <c r="E50" s="56"/>
-      <c r="F50" s="57"/>
-      <c r="G50" s="55">
+        <v>86.88</v>
+      </c>
+      <c r="D50" s="60"/>
+      <c r="E50" s="60"/>
+      <c r="F50" s="61"/>
+      <c r="G50" s="59">
         <f>SUM(G37+G49)</f>
-        <v>0</v>
-      </c>
-      <c r="H50" s="56"/>
-      <c r="I50" s="56"/>
-      <c r="J50" s="56"/>
+        <v>28.96</v>
+      </c>
+      <c r="H50" s="60"/>
+      <c r="I50" s="60"/>
+      <c r="J50" s="60"/>
       <c r="K50" s="17"/>
       <c r="L50" s="17"/>
       <c r="M50" s="17"/>
@@ -21724,16 +21742,16 @@
       <c r="T50" s="18"/>
     </row>
     <row r="51" spans="1:47" ht="22" customHeight="1">
-      <c r="A51" s="71"/>
-      <c r="B51" s="82"/>
-      <c r="C51" s="58"/>
-      <c r="D51" s="59"/>
-      <c r="E51" s="59"/>
-      <c r="F51" s="60"/>
-      <c r="G51" s="58"/>
-      <c r="H51" s="59"/>
-      <c r="I51" s="59"/>
-      <c r="J51" s="59"/>
+      <c r="A51" s="70"/>
+      <c r="B51" s="76"/>
+      <c r="C51" s="62"/>
+      <c r="D51" s="63"/>
+      <c r="E51" s="63"/>
+      <c r="F51" s="64"/>
+      <c r="G51" s="62"/>
+      <c r="H51" s="63"/>
+      <c r="I51" s="63"/>
+      <c r="J51" s="63"/>
       <c r="K51" s="17"/>
       <c r="L51" s="17"/>
       <c r="M51" s="17"/>
@@ -21794,9 +21812,9 @@
       <c r="B53" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C53" s="66"/>
-      <c r="D53" s="67"/>
-      <c r="E53" s="67"/>
+      <c r="C53" s="67"/>
+      <c r="D53" s="68"/>
+      <c r="E53" s="68"/>
       <c r="F53" s="1" t="s">
         <v>8</v>
       </c>
@@ -21829,10 +21847,10 @@
         <v>1</v>
       </c>
       <c r="C54" s="1">
-        <v>0</v>
+        <v>4.6500000000000004</v>
       </c>
       <c r="D54" s="1">
-        <v>0</v>
+        <v>4.6500000000000004</v>
       </c>
       <c r="E54" s="6"/>
       <c r="F54" s="44">
@@ -21931,11 +21949,11 @@
         <v>2</v>
       </c>
       <c r="C55" s="40">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="D55" s="6"/>
       <c r="E55" s="1">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="F55" s="44">
         <f>Racks!F55</f>
@@ -22035,10 +22053,10 @@
       </c>
       <c r="C56" s="6"/>
       <c r="D56" s="40">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="E56" s="1">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="F56" s="44">
         <f>Racks!F56</f>
@@ -22134,10 +22152,10 @@
         <v>4</v>
       </c>
       <c r="C57" s="1">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="D57" s="1">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="E57" s="6"/>
       <c r="F57" s="44">
@@ -22234,11 +22252,11 @@
         <v>5</v>
       </c>
       <c r="C58" s="40">
-        <v>0</v>
+        <v>3.26</v>
       </c>
       <c r="D58" s="6"/>
       <c r="E58" s="1">
-        <v>0</v>
+        <v>3.26</v>
       </c>
       <c r="F58" s="44">
         <f>Racks!F58</f>
@@ -22337,10 +22355,10 @@
       </c>
       <c r="C59" s="6"/>
       <c r="D59" s="40">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="E59" s="1">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="F59" s="44">
         <f>Racks!F59</f>
@@ -22431,31 +22449,31 @@
       <c r="AU59" s="14"/>
     </row>
     <row r="60" spans="1:47" ht="22">
-      <c r="A60" s="70"/>
+      <c r="A60" s="69"/>
       <c r="B60" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C60" s="32">
         <f>SUM(C54:C59)</f>
-        <v>0</v>
+        <v>13.42</v>
       </c>
       <c r="D60" s="33">
         <f>SUM(D54:D59)</f>
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="E60" s="34">
         <f>SUM(E54:E59)</f>
-        <v>0</v>
+        <v>11.36</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G60" s="72" t="s">
+      <c r="G60" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="H60" s="73"/>
-      <c r="I60" s="73"/>
-      <c r="J60" s="73"/>
+      <c r="H60" s="72"/>
+      <c r="I60" s="72"/>
+      <c r="J60" s="72"/>
       <c r="K60" s="17"/>
       <c r="L60" s="17"/>
       <c r="M60" s="17"/>
@@ -22468,24 +22486,24 @@
       <c r="T60" s="18"/>
     </row>
     <row r="61" spans="1:47" ht="24">
-      <c r="A61" s="71"/>
+      <c r="A61" s="70"/>
       <c r="B61" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C61" s="61">
+      <c r="C61" s="86">
         <f>SUM(C60:E60)</f>
-        <v>0</v>
-      </c>
-      <c r="D61" s="62"/>
-      <c r="E61" s="62"/>
-      <c r="F61" s="63"/>
-      <c r="G61" s="79">
+        <v>37.28</v>
+      </c>
+      <c r="D61" s="87"/>
+      <c r="E61" s="87"/>
+      <c r="F61" s="88"/>
+      <c r="G61" s="81">
         <f>ROUNDUP(SUM(C60:E60)/3,2)</f>
-        <v>0</v>
-      </c>
-      <c r="H61" s="80"/>
-      <c r="I61" s="80"/>
-      <c r="J61" s="80"/>
+        <v>12.43</v>
+      </c>
+      <c r="H61" s="82"/>
+      <c r="I61" s="82"/>
+      <c r="J61" s="82"/>
       <c r="K61" s="17"/>
       <c r="L61" s="17"/>
       <c r="M61" s="17"/>
@@ -22498,24 +22516,24 @@
       <c r="T61" s="18"/>
     </row>
     <row r="62" spans="1:47" ht="22" customHeight="1">
-      <c r="A62" s="81"/>
+      <c r="A62" s="75"/>
       <c r="B62" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="C62" s="55">
+      <c r="C62" s="59">
         <f>C61</f>
-        <v>0</v>
-      </c>
-      <c r="D62" s="56"/>
-      <c r="E62" s="56"/>
-      <c r="F62" s="57"/>
-      <c r="G62" s="83">
+        <v>37.28</v>
+      </c>
+      <c r="D62" s="60"/>
+      <c r="E62" s="60"/>
+      <c r="F62" s="61"/>
+      <c r="G62" s="77">
         <f>G61</f>
-        <v>0</v>
-      </c>
-      <c r="H62" s="84"/>
-      <c r="I62" s="84"/>
-      <c r="J62" s="84"/>
+        <v>12.43</v>
+      </c>
+      <c r="H62" s="78"/>
+      <c r="I62" s="78"/>
+      <c r="J62" s="78"/>
       <c r="K62" s="17"/>
       <c r="L62" s="17"/>
       <c r="M62" s="17"/>
@@ -22528,18 +22546,18 @@
       <c r="T62" s="18"/>
     </row>
     <row r="63" spans="1:47" ht="22" customHeight="1">
-      <c r="A63" s="82"/>
+      <c r="A63" s="76"/>
       <c r="B63" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="C63" s="58"/>
-      <c r="D63" s="59"/>
-      <c r="E63" s="59"/>
-      <c r="F63" s="60"/>
-      <c r="G63" s="85"/>
-      <c r="H63" s="86"/>
-      <c r="I63" s="86"/>
-      <c r="J63" s="86"/>
+      <c r="C63" s="62"/>
+      <c r="D63" s="63"/>
+      <c r="E63" s="63"/>
+      <c r="F63" s="64"/>
+      <c r="G63" s="79"/>
+      <c r="H63" s="80"/>
+      <c r="I63" s="80"/>
+      <c r="J63" s="80"/>
       <c r="K63" s="17"/>
       <c r="L63" s="17"/>
       <c r="M63" s="17"/>
@@ -22552,16 +22570,16 @@
       <c r="T63" s="18"/>
     </row>
     <row r="64" spans="1:47" s="23" customFormat="1" ht="11">
-      <c r="A64" s="68"/>
-      <c r="B64" s="69"/>
-      <c r="C64" s="69"/>
-      <c r="D64" s="69"/>
-      <c r="E64" s="69"/>
-      <c r="F64" s="69"/>
-      <c r="G64" s="69"/>
-      <c r="H64" s="69"/>
-      <c r="I64" s="69"/>
-      <c r="J64" s="69"/>
+      <c r="A64" s="65"/>
+      <c r="B64" s="66"/>
+      <c r="C64" s="66"/>
+      <c r="D64" s="66"/>
+      <c r="E64" s="66"/>
+      <c r="F64" s="66"/>
+      <c r="G64" s="66"/>
+      <c r="H64" s="66"/>
+      <c r="I64" s="66"/>
+      <c r="J64" s="66"/>
       <c r="K64" s="21"/>
       <c r="L64" s="21"/>
       <c r="M64" s="21"/>
@@ -22622,9 +22640,9 @@
       <c r="B66" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C66" s="66"/>
-      <c r="D66" s="67"/>
-      <c r="E66" s="67"/>
+      <c r="C66" s="67"/>
+      <c r="D66" s="68"/>
+      <c r="E66" s="68"/>
       <c r="F66" s="1" t="s">
         <v>8</v>
       </c>
@@ -22657,10 +22675,10 @@
         <v>1</v>
       </c>
       <c r="C67" s="1">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="D67" s="1">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="E67" s="6"/>
       <c r="F67" s="43">
@@ -22754,11 +22772,11 @@
         <v>2</v>
       </c>
       <c r="C68" s="40">
-        <v>0</v>
+        <v>3.26</v>
       </c>
       <c r="D68" s="6"/>
       <c r="E68" s="1">
-        <v>0</v>
+        <v>3.26</v>
       </c>
       <c r="F68" s="43">
         <f>Racks!F68</f>
@@ -22853,10 +22871,10 @@
       </c>
       <c r="C69" s="6"/>
       <c r="D69" s="40">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="E69" s="1">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="F69" s="43">
         <f>Racks!F69</f>
@@ -22947,10 +22965,10 @@
         <v>4</v>
       </c>
       <c r="C70" s="1">
-        <v>0</v>
+        <v>4.84</v>
       </c>
       <c r="D70" s="1">
-        <v>0</v>
+        <v>4.84</v>
       </c>
       <c r="E70" s="6"/>
       <c r="F70" s="43">
@@ -23042,11 +23060,11 @@
         <v>5</v>
       </c>
       <c r="C71" s="40">
-        <v>0</v>
+        <v>3.26</v>
       </c>
       <c r="D71" s="6"/>
       <c r="E71" s="1">
-        <v>0</v>
+        <v>3.26</v>
       </c>
       <c r="F71" s="43">
         <f>Racks!F71</f>
@@ -23140,10 +23158,10 @@
       </c>
       <c r="C72" s="6"/>
       <c r="D72" s="40">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="E72" s="1">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="F72" s="43">
         <f>Racks!F72</f>
@@ -23229,31 +23247,31 @@
       <c r="AP72" s="14"/>
     </row>
     <row r="73" spans="1:90" ht="22">
-      <c r="A73" s="70"/>
+      <c r="A73" s="69"/>
       <c r="B73" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C73" s="32">
         <f>SUM(C67:C72)</f>
-        <v>0</v>
+        <v>13.12</v>
       </c>
       <c r="D73" s="33">
         <f>SUM(D67:D72)</f>
-        <v>0</v>
+        <v>12.36</v>
       </c>
       <c r="E73" s="34">
         <f>SUM(E67:E72)</f>
-        <v>0</v>
+        <v>12.279999999999998</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G73" s="72" t="s">
+      <c r="G73" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="H73" s="73"/>
-      <c r="I73" s="73"/>
-      <c r="J73" s="73"/>
+      <c r="H73" s="72"/>
+      <c r="I73" s="72"/>
+      <c r="J73" s="72"/>
       <c r="K73" s="17"/>
       <c r="L73" s="17"/>
       <c r="M73" s="17"/>
@@ -23266,24 +23284,24 @@
       <c r="T73" s="18"/>
     </row>
     <row r="74" spans="1:90" ht="22">
-      <c r="A74" s="71"/>
+      <c r="A74" s="70"/>
       <c r="B74" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C74" s="76">
+      <c r="C74" s="83">
         <f>SUM(C73:E73)</f>
-        <v>0</v>
-      </c>
-      <c r="D74" s="77"/>
-      <c r="E74" s="77"/>
-      <c r="F74" s="78"/>
-      <c r="G74" s="74">
+        <v>37.759999999999991</v>
+      </c>
+      <c r="D74" s="84"/>
+      <c r="E74" s="84"/>
+      <c r="F74" s="85"/>
+      <c r="G74" s="73">
         <f>ROUNDUP(SUM(C73:E73)/3,2)</f>
-        <v>0</v>
-      </c>
-      <c r="H74" s="75"/>
-      <c r="I74" s="75"/>
-      <c r="J74" s="75"/>
+        <v>12.59</v>
+      </c>
+      <c r="H74" s="74"/>
+      <c r="I74" s="74"/>
+      <c r="J74" s="74"/>
       <c r="K74" s="17"/>
       <c r="L74" s="17"/>
       <c r="M74" s="17"/>
@@ -23296,24 +23314,24 @@
       <c r="T74" s="18"/>
     </row>
     <row r="75" spans="1:90" ht="22" customHeight="1">
-      <c r="A75" s="70"/>
-      <c r="B75" s="81" t="s">
+      <c r="A75" s="69"/>
+      <c r="B75" s="75" t="s">
         <v>45</v>
       </c>
-      <c r="C75" s="55">
+      <c r="C75" s="59">
         <f>SUM(C62+C74)</f>
-        <v>0</v>
-      </c>
-      <c r="D75" s="56"/>
-      <c r="E75" s="56"/>
-      <c r="F75" s="57"/>
-      <c r="G75" s="55">
+        <v>75.039999999999992</v>
+      </c>
+      <c r="D75" s="60"/>
+      <c r="E75" s="60"/>
+      <c r="F75" s="61"/>
+      <c r="G75" s="59">
         <f>SUM(G62+G74)</f>
-        <v>0</v>
-      </c>
-      <c r="H75" s="56"/>
-      <c r="I75" s="56"/>
-      <c r="J75" s="56"/>
+        <v>25.02</v>
+      </c>
+      <c r="H75" s="60"/>
+      <c r="I75" s="60"/>
+      <c r="J75" s="60"/>
       <c r="K75" s="17"/>
       <c r="L75" s="17"/>
       <c r="M75" s="17"/>
@@ -23326,16 +23344,16 @@
       <c r="T75" s="18"/>
     </row>
     <row r="76" spans="1:90" ht="22" customHeight="1">
-      <c r="A76" s="71"/>
-      <c r="B76" s="82"/>
-      <c r="C76" s="58"/>
-      <c r="D76" s="59"/>
-      <c r="E76" s="59"/>
-      <c r="F76" s="60"/>
-      <c r="G76" s="58"/>
-      <c r="H76" s="59"/>
-      <c r="I76" s="59"/>
-      <c r="J76" s="59"/>
+      <c r="A76" s="70"/>
+      <c r="B76" s="76"/>
+      <c r="C76" s="62"/>
+      <c r="D76" s="63"/>
+      <c r="E76" s="63"/>
+      <c r="F76" s="64"/>
+      <c r="G76" s="62"/>
+      <c r="H76" s="63"/>
+      <c r="I76" s="63"/>
+      <c r="J76" s="63"/>
       <c r="K76" s="17"/>
       <c r="L76" s="17"/>
       <c r="M76" s="17"/>
@@ -23396,9 +23414,9 @@
       <c r="B78" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C78" s="66"/>
-      <c r="D78" s="67"/>
-      <c r="E78" s="67"/>
+      <c r="C78" s="67"/>
+      <c r="D78" s="68"/>
+      <c r="E78" s="68"/>
       <c r="F78" s="1" t="s">
         <v>8</v>
       </c>
@@ -23431,10 +23449,10 @@
         <v>1</v>
       </c>
       <c r="C79" s="1">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="D79" s="1">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="E79" s="6"/>
       <c r="F79" s="44">
@@ -23576,11 +23594,11 @@
         <v>2</v>
       </c>
       <c r="C80" s="40">
-        <v>0</v>
+        <v>2.37</v>
       </c>
       <c r="D80" s="6"/>
       <c r="E80" s="1">
-        <v>0</v>
+        <v>2.37</v>
       </c>
       <c r="F80" s="44">
         <f>Racks!F80</f>
@@ -23723,10 +23741,10 @@
       </c>
       <c r="C81" s="6"/>
       <c r="D81" s="40">
-        <v>0</v>
+        <v>2.98</v>
       </c>
       <c r="E81" s="1">
-        <v>0</v>
+        <v>2.98</v>
       </c>
       <c r="F81" s="44">
         <f>Racks!F81</f>
@@ -23865,10 +23883,10 @@
         <v>4</v>
       </c>
       <c r="C82" s="1">
-        <v>0</v>
+        <v>3.58</v>
       </c>
       <c r="D82" s="1">
-        <v>0</v>
+        <v>3.58</v>
       </c>
       <c r="E82" s="6"/>
       <c r="F82" s="44">
@@ -24008,11 +24026,11 @@
         <v>5</v>
       </c>
       <c r="C83" s="40">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="D83" s="6"/>
       <c r="E83" s="1">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="F83" s="44">
         <f>Racks!F83</f>
@@ -24291,31 +24309,31 @@
       <c r="CL84" s="14"/>
     </row>
     <row r="85" spans="1:90" ht="22">
-      <c r="A85" s="70"/>
+      <c r="A85" s="69"/>
       <c r="B85" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C85" s="32">
         <f>SUM(C79:C84)</f>
-        <v>0</v>
+        <v>8.92</v>
       </c>
       <c r="D85" s="33">
         <f>SUM(D79:D84)</f>
-        <v>0</v>
+        <v>7.74</v>
       </c>
       <c r="E85" s="34">
         <f>SUM(E79:E84)</f>
-        <v>0</v>
+        <v>7.14</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G85" s="72" t="s">
+      <c r="G85" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="H85" s="73"/>
-      <c r="I85" s="73"/>
-      <c r="J85" s="73"/>
+      <c r="H85" s="72"/>
+      <c r="I85" s="72"/>
+      <c r="J85" s="72"/>
       <c r="K85" s="17"/>
       <c r="L85" s="17"/>
       <c r="M85" s="17"/>
@@ -24328,24 +24346,24 @@
       <c r="T85" s="18"/>
     </row>
     <row r="86" spans="1:90" ht="24">
-      <c r="A86" s="71"/>
+      <c r="A86" s="70"/>
       <c r="B86" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C86" s="61">
+      <c r="C86" s="86">
         <f>SUM(C85:E85)</f>
-        <v>0</v>
-      </c>
-      <c r="D86" s="62"/>
-      <c r="E86" s="62"/>
-      <c r="F86" s="63"/>
-      <c r="G86" s="79">
+        <v>23.8</v>
+      </c>
+      <c r="D86" s="87"/>
+      <c r="E86" s="87"/>
+      <c r="F86" s="88"/>
+      <c r="G86" s="81">
         <f>ROUNDUP(SUM(C85:E85)/3,2)</f>
-        <v>0</v>
-      </c>
-      <c r="H86" s="80"/>
-      <c r="I86" s="80"/>
-      <c r="J86" s="80"/>
+        <v>7.9399999999999995</v>
+      </c>
+      <c r="H86" s="82"/>
+      <c r="I86" s="82"/>
+      <c r="J86" s="82"/>
       <c r="K86" s="17"/>
       <c r="L86" s="17"/>
       <c r="M86" s="17"/>
@@ -24358,24 +24376,24 @@
       <c r="T86" s="18"/>
     </row>
     <row r="87" spans="1:90" ht="22" customHeight="1">
-      <c r="A87" s="81"/>
+      <c r="A87" s="75"/>
       <c r="B87" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="C87" s="55">
+      <c r="C87" s="59">
         <f>C86</f>
-        <v>0</v>
-      </c>
-      <c r="D87" s="56"/>
-      <c r="E87" s="56"/>
-      <c r="F87" s="57"/>
-      <c r="G87" s="83">
+        <v>23.8</v>
+      </c>
+      <c r="D87" s="60"/>
+      <c r="E87" s="60"/>
+      <c r="F87" s="61"/>
+      <c r="G87" s="77">
         <f>G86</f>
-        <v>0</v>
-      </c>
-      <c r="H87" s="84"/>
-      <c r="I87" s="84"/>
-      <c r="J87" s="84"/>
+        <v>7.9399999999999995</v>
+      </c>
+      <c r="H87" s="78"/>
+      <c r="I87" s="78"/>
+      <c r="J87" s="78"/>
       <c r="K87" s="17"/>
       <c r="L87" s="17"/>
       <c r="M87" s="17"/>
@@ -24388,18 +24406,18 @@
       <c r="T87" s="18"/>
     </row>
     <row r="88" spans="1:90" ht="22" customHeight="1">
-      <c r="A88" s="82"/>
+      <c r="A88" s="76"/>
       <c r="B88" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="C88" s="58"/>
-      <c r="D88" s="59"/>
-      <c r="E88" s="59"/>
-      <c r="F88" s="60"/>
-      <c r="G88" s="85"/>
-      <c r="H88" s="86"/>
-      <c r="I88" s="86"/>
-      <c r="J88" s="86"/>
+      <c r="C88" s="62"/>
+      <c r="D88" s="63"/>
+      <c r="E88" s="63"/>
+      <c r="F88" s="64"/>
+      <c r="G88" s="79"/>
+      <c r="H88" s="80"/>
+      <c r="I88" s="80"/>
+      <c r="J88" s="80"/>
       <c r="K88" s="17"/>
       <c r="L88" s="17"/>
       <c r="M88" s="17"/>
@@ -24412,16 +24430,16 @@
       <c r="T88" s="18"/>
     </row>
     <row r="89" spans="1:90" s="27" customFormat="1" ht="7">
-      <c r="A89" s="89"/>
-      <c r="B89" s="90"/>
-      <c r="C89" s="90"/>
-      <c r="D89" s="90"/>
-      <c r="E89" s="90"/>
-      <c r="F89" s="90"/>
-      <c r="G89" s="90"/>
-      <c r="H89" s="90"/>
-      <c r="I89" s="90"/>
-      <c r="J89" s="90"/>
+      <c r="A89" s="91"/>
+      <c r="B89" s="92"/>
+      <c r="C89" s="92"/>
+      <c r="D89" s="92"/>
+      <c r="E89" s="92"/>
+      <c r="F89" s="92"/>
+      <c r="G89" s="92"/>
+      <c r="H89" s="92"/>
+      <c r="I89" s="92"/>
+      <c r="J89" s="92"/>
       <c r="K89" s="25"/>
       <c r="L89" s="25"/>
       <c r="M89" s="25"/>
@@ -24479,9 +24497,9 @@
       <c r="B91" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C91" s="66"/>
-      <c r="D91" s="67"/>
-      <c r="E91" s="67"/>
+      <c r="C91" s="67"/>
+      <c r="D91" s="68"/>
+      <c r="E91" s="68"/>
       <c r="F91" s="1" t="s">
         <v>8</v>
       </c>
@@ -24514,10 +24532,10 @@
         <v>1</v>
       </c>
       <c r="C92" s="1">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="D92" s="1">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="E92" s="6"/>
       <c r="F92" s="36">
@@ -24640,11 +24658,11 @@
         <v>2</v>
       </c>
       <c r="C93" s="40">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="D93" s="6"/>
       <c r="E93" s="1">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="F93" s="36">
         <f>Racks!F93</f>
@@ -24765,10 +24783,10 @@
       </c>
       <c r="C94" s="6"/>
       <c r="D94" s="40">
-        <v>0</v>
+        <v>2.98</v>
       </c>
       <c r="E94" s="1">
-        <v>0</v>
+        <v>2.98</v>
       </c>
       <c r="F94" s="36">
         <f>Racks!F94</f>
@@ -24888,10 +24906,10 @@
         <v>4</v>
       </c>
       <c r="C95" s="1">
-        <v>0</v>
+        <v>2.98</v>
       </c>
       <c r="D95" s="1">
-        <v>0</v>
+        <v>2.98</v>
       </c>
       <c r="E95" s="6"/>
       <c r="F95" s="36">
@@ -25012,11 +25030,11 @@
         <v>5</v>
       </c>
       <c r="C96" s="40">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="D96" s="6"/>
       <c r="E96" s="1">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="F96" s="36">
         <f>Racks!F96</f>
@@ -25139,10 +25157,10 @@
       </c>
       <c r="C97" s="6"/>
       <c r="D97" s="40">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="E97" s="1">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="F97" s="36">
         <f>Racks!F97</f>
@@ -25257,29 +25275,29 @@
       <c r="BS97" s="14"/>
     </row>
     <row r="98" spans="1:71" ht="22">
-      <c r="A98" s="70"/>
+      <c r="A98" s="69"/>
       <c r="B98" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C98" s="32">
         <f>SUM(C92:C97)</f>
-        <v>0</v>
+        <v>7.13</v>
       </c>
       <c r="D98" s="33">
         <f>SUM(D92:D97)</f>
-        <v>0</v>
+        <v>8.93</v>
       </c>
       <c r="E98" s="34">
         <f>SUM(E92:E97)</f>
-        <v>0</v>
+        <v>7.74</v>
       </c>
       <c r="F98" s="1"/>
-      <c r="G98" s="72" t="s">
+      <c r="G98" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="H98" s="73"/>
-      <c r="I98" s="73"/>
-      <c r="J98" s="73"/>
+      <c r="H98" s="72"/>
+      <c r="I98" s="72"/>
+      <c r="J98" s="72"/>
       <c r="K98" s="17"/>
       <c r="L98" s="17"/>
       <c r="M98" s="17"/>
@@ -25287,24 +25305,24 @@
       <c r="O98" s="17"/>
     </row>
     <row r="99" spans="1:71" ht="22">
-      <c r="A99" s="71"/>
+      <c r="A99" s="70"/>
       <c r="B99" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C99" s="76">
+      <c r="C99" s="83">
         <f>SUM(C98:E98)</f>
-        <v>0</v>
-      </c>
-      <c r="D99" s="77"/>
-      <c r="E99" s="77"/>
-      <c r="F99" s="78"/>
-      <c r="G99" s="74">
+        <v>23.799999999999997</v>
+      </c>
+      <c r="D99" s="84"/>
+      <c r="E99" s="84"/>
+      <c r="F99" s="85"/>
+      <c r="G99" s="73">
         <f>ROUNDUP(SUM(C98:E98)/3,2)</f>
-        <v>0</v>
-      </c>
-      <c r="H99" s="75"/>
-      <c r="I99" s="75"/>
-      <c r="J99" s="75"/>
+        <v>7.9399999999999995</v>
+      </c>
+      <c r="H99" s="74"/>
+      <c r="I99" s="74"/>
+      <c r="J99" s="74"/>
       <c r="K99" s="17"/>
       <c r="L99" s="17"/>
       <c r="M99" s="17"/>
@@ -25312,24 +25330,24 @@
       <c r="O99" s="17"/>
     </row>
     <row r="100" spans="1:71" ht="22" customHeight="1">
-      <c r="A100" s="70"/>
-      <c r="B100" s="81" t="s">
+      <c r="A100" s="69"/>
+      <c r="B100" s="75" t="s">
         <v>46</v>
       </c>
-      <c r="C100" s="55">
+      <c r="C100" s="59">
         <f>SUM(C87+C99)</f>
-        <v>0</v>
-      </c>
-      <c r="D100" s="56"/>
-      <c r="E100" s="56"/>
-      <c r="F100" s="57"/>
-      <c r="G100" s="55">
+        <v>47.599999999999994</v>
+      </c>
+      <c r="D100" s="60"/>
+      <c r="E100" s="60"/>
+      <c r="F100" s="61"/>
+      <c r="G100" s="59">
         <f>SUM(G87+G99)</f>
-        <v>0</v>
-      </c>
-      <c r="H100" s="56"/>
-      <c r="I100" s="56"/>
-      <c r="J100" s="56"/>
+        <v>15.879999999999999</v>
+      </c>
+      <c r="H100" s="60"/>
+      <c r="I100" s="60"/>
+      <c r="J100" s="60"/>
       <c r="K100" s="17"/>
       <c r="L100" s="17"/>
       <c r="M100" s="17"/>
@@ -25337,16 +25355,16 @@
       <c r="O100" s="17"/>
     </row>
     <row r="101" spans="1:71" ht="22" customHeight="1">
-      <c r="A101" s="71"/>
-      <c r="B101" s="82"/>
-      <c r="C101" s="58"/>
-      <c r="D101" s="59"/>
-      <c r="E101" s="59"/>
-      <c r="F101" s="60"/>
-      <c r="G101" s="58"/>
-      <c r="H101" s="59"/>
-      <c r="I101" s="59"/>
-      <c r="J101" s="59"/>
+      <c r="A101" s="70"/>
+      <c r="B101" s="76"/>
+      <c r="C101" s="62"/>
+      <c r="D101" s="63"/>
+      <c r="E101" s="63"/>
+      <c r="F101" s="64"/>
+      <c r="G101" s="62"/>
+      <c r="H101" s="63"/>
+      <c r="I101" s="63"/>
+      <c r="J101" s="63"/>
       <c r="K101" s="17"/>
       <c r="L101" s="17"/>
       <c r="M101" s="17"/>
@@ -25359,16 +25377,16 @@
       <c r="C102" s="41"/>
       <c r="D102" s="41"/>
       <c r="E102" s="41"/>
-      <c r="F102" s="91" t="s">
+      <c r="F102" s="93" t="s">
         <v>193</v>
       </c>
-      <c r="G102" s="92"/>
-      <c r="H102" s="93"/>
-      <c r="I102" s="94">
+      <c r="G102" s="94"/>
+      <c r="H102" s="95"/>
+      <c r="I102" s="96">
         <f>ROUND(SUM(C103:E103),2)</f>
-        <v>0</v>
-      </c>
-      <c r="J102" s="95"/>
+        <v>296.39999999999998</v>
+      </c>
+      <c r="J102" s="97"/>
       <c r="K102" s="29"/>
       <c r="L102" s="29"/>
       <c r="M102" s="29"/>
@@ -25376,31 +25394,31 @@
       <c r="O102" s="29"/>
     </row>
     <row r="103" spans="1:71" s="30" customFormat="1" ht="32">
-      <c r="A103" s="87" t="s">
+      <c r="A103" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="B103" s="88"/>
+      <c r="B103" s="90"/>
       <c r="C103" s="37">
         <f>ROUND(SUM(C10+C23+C35+C48+C60+C73+C85+C98), 2)</f>
-        <v>0</v>
+        <v>99.46</v>
       </c>
       <c r="D103" s="38">
         <f>ROUND(SUM(D10+D23+D35+D48+D60+D73+D85+D98), 2)</f>
-        <v>0</v>
+        <v>101.55</v>
       </c>
       <c r="E103" s="39">
         <f>ROUND(SUM(E10+E23+E35+E48+E60+E73+E85+E98), 2)</f>
-        <v>0</v>
-      </c>
-      <c r="F103" s="64" t="s">
+        <v>95.39</v>
+      </c>
+      <c r="F103" s="98" t="s">
         <v>32</v>
       </c>
-      <c r="G103" s="64"/>
-      <c r="H103" s="64"/>
-      <c r="I103" s="65">
-        <v>0</v>
-      </c>
-      <c r="J103" s="65"/>
+      <c r="G103" s="98"/>
+      <c r="H103" s="98"/>
+      <c r="I103" s="99">
+        <v>56305</v>
+      </c>
+      <c r="J103" s="99"/>
       <c r="K103" s="29"/>
       <c r="L103" s="29"/>
       <c r="M103" s="29"/>
@@ -25410,21 +25428,53 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="A7Pm8O9pfu9xP/8K4MlVcR3vajbyCIwk3u4VSGnKIFQk6s4bxepw+cEvY0uZx5gxcdz8wuMhoIDNIy96TL7IJg==" saltValue="ZnLm+9SzsKEtT2H4qjufKQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="78">
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="F103:H103"/>
-    <mergeCell ref="I103:J103"/>
-    <mergeCell ref="C91:E91"/>
-    <mergeCell ref="A100:A101"/>
-    <mergeCell ref="B100:B101"/>
-    <mergeCell ref="C100:F101"/>
-    <mergeCell ref="G100:J101"/>
-    <mergeCell ref="F102:H102"/>
-    <mergeCell ref="I102:J102"/>
-    <mergeCell ref="G86:J86"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="C87:F88"/>
-    <mergeCell ref="G87:J88"/>
-    <mergeCell ref="A89:J89"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="G24:J24"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C12:F13"/>
+    <mergeCell ref="G12:J13"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="G48:J48"/>
+    <mergeCell ref="C49:F49"/>
+    <mergeCell ref="G49:J49"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:F26"/>
+    <mergeCell ref="G25:J26"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="G35:J35"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="G36:J36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="C37:F38"/>
+    <mergeCell ref="G37:J38"/>
+    <mergeCell ref="A39:J39"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="G73:J73"/>
+    <mergeCell ref="C74:F74"/>
+    <mergeCell ref="G74:J74"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="C50:F51"/>
+    <mergeCell ref="G50:J51"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="G60:J60"/>
+    <mergeCell ref="C61:F61"/>
+    <mergeCell ref="G61:J61"/>
+    <mergeCell ref="A62:A63"/>
     <mergeCell ref="C62:F63"/>
     <mergeCell ref="G62:J63"/>
     <mergeCell ref="A64:J64"/>
@@ -25441,53 +25491,21 @@
     <mergeCell ref="A85:A86"/>
     <mergeCell ref="G85:J85"/>
     <mergeCell ref="C86:F86"/>
-    <mergeCell ref="A39:J39"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="G73:J73"/>
-    <mergeCell ref="C74:F74"/>
-    <mergeCell ref="G74:J74"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="C50:F51"/>
-    <mergeCell ref="G50:J51"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="G60:J60"/>
-    <mergeCell ref="C61:F61"/>
-    <mergeCell ref="G61:J61"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="G48:J48"/>
-    <mergeCell ref="C49:F49"/>
-    <mergeCell ref="G49:J49"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:F26"/>
-    <mergeCell ref="G25:J26"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="G35:J35"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="G36:J36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="C37:F38"/>
-    <mergeCell ref="G37:J38"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="G24:J24"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="G10:J10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C12:F13"/>
-    <mergeCell ref="G12:J13"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G86:J86"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="C87:F88"/>
+    <mergeCell ref="G87:J88"/>
+    <mergeCell ref="A89:J89"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="F103:H103"/>
+    <mergeCell ref="I103:J103"/>
+    <mergeCell ref="C91:E91"/>
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="B100:B101"/>
+    <mergeCell ref="C100:F101"/>
+    <mergeCell ref="G100:J101"/>
+    <mergeCell ref="F102:H102"/>
+    <mergeCell ref="I102:J102"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
@@ -25503,7 +25521,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E57C73F-E6C4-8146-83BC-D20AC5A5D487}">
   <dimension ref="A1:DU103"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A92" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H94" sqref="H94"/>
     </sheetView>
   </sheetViews>
@@ -25521,10 +25539,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:125" s="14" customFormat="1" ht="22">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="97"/>
+      <c r="B1" s="58"/>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
       <c r="E1" s="13"/>
@@ -25573,9 +25591,9 @@
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="66"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
       <c r="F3" s="1" t="s">
         <v>8</v>
       </c>
@@ -25608,11 +25626,11 @@
         <v>1</v>
       </c>
       <c r="C4" s="1">
-        <v>0</v>
+        <v>5.13</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="40">
-        <v>0</v>
+        <v>5.13</v>
       </c>
       <c r="F4" s="36">
         <f>Racks!F4</f>
@@ -25788,10 +25806,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="40">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="D5" s="1">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="36">
@@ -25970,10 +25988,10 @@
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="40">
-        <v>0</v>
+        <v>5.13</v>
       </c>
       <c r="E6" s="1">
-        <v>0</v>
+        <v>5.13</v>
       </c>
       <c r="F6" s="36">
         <f>Racks!F6</f>
@@ -26147,11 +26165,11 @@
         <v>4</v>
       </c>
       <c r="C7" s="1">
-        <v>0</v>
+        <v>3.16</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="40">
-        <v>0</v>
+        <v>3.16</v>
       </c>
       <c r="F7" s="36">
         <f>Racks!F7</f>
@@ -26325,10 +26343,10 @@
         <v>5</v>
       </c>
       <c r="C8" s="40">
-        <v>0</v>
+        <v>3.16</v>
       </c>
       <c r="D8" s="1">
-        <v>0</v>
+        <v>3.16</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="36">
@@ -26506,10 +26524,10 @@
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="40">
-        <v>0</v>
+        <v>3.16</v>
       </c>
       <c r="E9" s="1">
-        <v>0</v>
+        <v>3.16</v>
       </c>
       <c r="F9" s="36">
         <f>Racks!F9</f>
@@ -26678,31 +26696,31 @@
       <c r="DU9" s="14"/>
     </row>
     <row r="10" spans="1:125" ht="22">
-      <c r="A10" s="70"/>
+      <c r="A10" s="69"/>
       <c r="B10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="32">
         <f>SUM(C4:C9)</f>
-        <v>0</v>
+        <v>13.43</v>
       </c>
       <c r="D10" s="33">
         <f>SUM(D4:D9)</f>
-        <v>0</v>
+        <v>13.43</v>
       </c>
       <c r="E10" s="34">
         <f>SUM(E4:E9)</f>
-        <v>0</v>
+        <v>16.579999999999998</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="72" t="s">
+      <c r="G10" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
+      <c r="H10" s="72"/>
+      <c r="I10" s="72"/>
+      <c r="J10" s="72"/>
       <c r="K10" s="17"/>
       <c r="L10" s="17"/>
       <c r="M10" s="17"/>
@@ -26715,24 +26733,24 @@
       <c r="T10" s="18"/>
     </row>
     <row r="11" spans="1:125" ht="24">
-      <c r="A11" s="71"/>
+      <c r="A11" s="70"/>
       <c r="B11" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="61">
+      <c r="C11" s="86">
         <f>SUM(C10:E10)</f>
-        <v>0</v>
-      </c>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="79">
+        <v>43.44</v>
+      </c>
+      <c r="D11" s="87"/>
+      <c r="E11" s="87"/>
+      <c r="F11" s="88"/>
+      <c r="G11" s="81">
         <f>ROUNDUP(SUM(C10:E10)/3,2)</f>
-        <v>0</v>
-      </c>
-      <c r="H11" s="80"/>
-      <c r="I11" s="80"/>
-      <c r="J11" s="80"/>
+        <v>14.48</v>
+      </c>
+      <c r="H11" s="82"/>
+      <c r="I11" s="82"/>
+      <c r="J11" s="82"/>
       <c r="K11" s="17"/>
       <c r="L11" s="17"/>
       <c r="M11" s="17"/>
@@ -26745,24 +26763,24 @@
       <c r="T11" s="18"/>
     </row>
     <row r="12" spans="1:125" ht="22" customHeight="1">
-      <c r="A12" s="81"/>
+      <c r="A12" s="75"/>
       <c r="B12" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="55">
+      <c r="C12" s="59">
         <f>C11</f>
-        <v>0</v>
-      </c>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="83">
+        <v>43.44</v>
+      </c>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="77">
         <f>G11</f>
-        <v>0</v>
-      </c>
-      <c r="H12" s="84"/>
-      <c r="I12" s="84"/>
-      <c r="J12" s="84"/>
+        <v>14.48</v>
+      </c>
+      <c r="H12" s="78"/>
+      <c r="I12" s="78"/>
+      <c r="J12" s="78"/>
       <c r="K12" s="17"/>
       <c r="L12" s="17"/>
       <c r="M12" s="17"/>
@@ -26775,18 +26793,18 @@
       <c r="T12" s="18"/>
     </row>
     <row r="13" spans="1:125" ht="22" customHeight="1">
-      <c r="A13" s="82"/>
+      <c r="A13" s="76"/>
       <c r="B13" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="58"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="85"/>
-      <c r="H13" s="86"/>
-      <c r="I13" s="86"/>
-      <c r="J13" s="86"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="79"/>
+      <c r="H13" s="80"/>
+      <c r="I13" s="80"/>
+      <c r="J13" s="80"/>
       <c r="K13" s="17"/>
       <c r="L13" s="17"/>
       <c r="M13" s="17"/>
@@ -26799,16 +26817,16 @@
       <c r="T13" s="18"/>
     </row>
     <row r="14" spans="1:125" s="23" customFormat="1" ht="11">
-      <c r="A14" s="68"/>
-      <c r="B14" s="69"/>
-      <c r="C14" s="69"/>
-      <c r="D14" s="69"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="69"/>
-      <c r="G14" s="69"/>
-      <c r="H14" s="69"/>
-      <c r="I14" s="69"/>
-      <c r="J14" s="69"/>
+      <c r="A14" s="65"/>
+      <c r="B14" s="66"/>
+      <c r="C14" s="66"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="66"/>
+      <c r="I14" s="66"/>
+      <c r="J14" s="66"/>
       <c r="K14" s="21"/>
       <c r="L14" s="21"/>
       <c r="M14" s="21"/>
@@ -26869,9 +26887,9 @@
       <c r="B16" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="66"/>
-      <c r="D16" s="67"/>
-      <c r="E16" s="67"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="68"/>
       <c r="F16" s="1" t="s">
         <v>8</v>
       </c>
@@ -26904,11 +26922,11 @@
         <v>1</v>
       </c>
       <c r="C17" s="1">
-        <v>0</v>
+        <v>5.13</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="40">
-        <v>0</v>
+        <v>5.13</v>
       </c>
       <c r="F17" s="36">
         <f>Racks!F17</f>
@@ -27016,10 +27034,10 @@
         <v>2</v>
       </c>
       <c r="C18" s="40">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="D18" s="1">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="36">
@@ -27130,10 +27148,10 @@
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="40">
-        <v>0</v>
+        <v>3.16</v>
       </c>
       <c r="E19" s="1">
-        <v>0</v>
+        <v>3.16</v>
       </c>
       <c r="F19" s="36">
         <f>Racks!F19</f>
@@ -27238,11 +27256,11 @@
         <v>4</v>
       </c>
       <c r="C20" s="1">
-        <v>0</v>
+        <v>3.16</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="40">
-        <v>0</v>
+        <v>3.16</v>
       </c>
       <c r="F20" s="36">
         <f>Racks!F20</f>
@@ -27348,10 +27366,10 @@
         <v>5</v>
       </c>
       <c r="C21" s="40">
-        <v>0</v>
+        <v>3.16</v>
       </c>
       <c r="D21" s="1">
-        <v>0</v>
+        <v>3.16</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="36">
@@ -27461,10 +27479,10 @@
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="40">
-        <v>0</v>
+        <v>5.13</v>
       </c>
       <c r="E22" s="1">
-        <v>0</v>
+        <v>5.13</v>
       </c>
       <c r="F22" s="36">
         <f>Racks!F22</f>
@@ -27565,31 +27583,31 @@
       <c r="BE22" s="14"/>
     </row>
     <row r="23" spans="1:121" ht="22">
-      <c r="A23" s="70"/>
+      <c r="A23" s="69"/>
       <c r="B23" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C23" s="32">
         <f>SUM(C17:C22)</f>
-        <v>0</v>
+        <v>13.43</v>
       </c>
       <c r="D23" s="33">
         <f>SUM(D17:D22)</f>
-        <v>0</v>
+        <v>13.43</v>
       </c>
       <c r="E23" s="34">
         <f>SUM(E17:E22)</f>
-        <v>0</v>
+        <v>16.579999999999998</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G23" s="72" t="s">
+      <c r="G23" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="H23" s="73"/>
-      <c r="I23" s="73"/>
-      <c r="J23" s="73"/>
+      <c r="H23" s="72"/>
+      <c r="I23" s="72"/>
+      <c r="J23" s="72"/>
       <c r="K23" s="17"/>
       <c r="L23" s="17"/>
       <c r="M23" s="17"/>
@@ -27602,24 +27620,24 @@
       <c r="T23" s="18"/>
     </row>
     <row r="24" spans="1:121" ht="22">
-      <c r="A24" s="71"/>
+      <c r="A24" s="70"/>
       <c r="B24" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="76">
+      <c r="C24" s="83">
         <f>SUM(C23:E23)</f>
-        <v>0</v>
-      </c>
-      <c r="D24" s="77"/>
-      <c r="E24" s="77"/>
-      <c r="F24" s="78"/>
-      <c r="G24" s="74">
+        <v>43.44</v>
+      </c>
+      <c r="D24" s="84"/>
+      <c r="E24" s="84"/>
+      <c r="F24" s="85"/>
+      <c r="G24" s="73">
         <f>ROUNDUP(SUM(C23:E23)/3,2)</f>
-        <v>0</v>
-      </c>
-      <c r="H24" s="75"/>
-      <c r="I24" s="75"/>
-      <c r="J24" s="75"/>
+        <v>14.48</v>
+      </c>
+      <c r="H24" s="74"/>
+      <c r="I24" s="74"/>
+      <c r="J24" s="74"/>
       <c r="K24" s="17"/>
       <c r="L24" s="17"/>
       <c r="M24" s="17"/>
@@ -27632,24 +27650,24 @@
       <c r="T24" s="18"/>
     </row>
     <row r="25" spans="1:121" ht="22" customHeight="1">
-      <c r="A25" s="70"/>
-      <c r="B25" s="81" t="s">
+      <c r="A25" s="69"/>
+      <c r="B25" s="75" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="55">
+      <c r="C25" s="59">
         <f>SUM(C12+C24)</f>
-        <v>0</v>
-      </c>
-      <c r="D25" s="56"/>
-      <c r="E25" s="56"/>
-      <c r="F25" s="57"/>
-      <c r="G25" s="55">
+        <v>86.88</v>
+      </c>
+      <c r="D25" s="60"/>
+      <c r="E25" s="60"/>
+      <c r="F25" s="61"/>
+      <c r="G25" s="59">
         <f>SUM(G12+G24)</f>
-        <v>0</v>
-      </c>
-      <c r="H25" s="56"/>
-      <c r="I25" s="56"/>
-      <c r="J25" s="56"/>
+        <v>28.96</v>
+      </c>
+      <c r="H25" s="60"/>
+      <c r="I25" s="60"/>
+      <c r="J25" s="60"/>
       <c r="K25" s="17"/>
       <c r="L25" s="17"/>
       <c r="M25" s="17"/>
@@ -27662,16 +27680,16 @@
       <c r="T25" s="18"/>
     </row>
     <row r="26" spans="1:121" ht="22" customHeight="1">
-      <c r="A26" s="71"/>
-      <c r="B26" s="82"/>
-      <c r="C26" s="58"/>
-      <c r="D26" s="59"/>
-      <c r="E26" s="59"/>
-      <c r="F26" s="60"/>
-      <c r="G26" s="58"/>
-      <c r="H26" s="59"/>
-      <c r="I26" s="59"/>
-      <c r="J26" s="59"/>
+      <c r="A26" s="70"/>
+      <c r="B26" s="76"/>
+      <c r="C26" s="62"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="64"/>
+      <c r="G26" s="62"/>
+      <c r="H26" s="63"/>
+      <c r="I26" s="63"/>
+      <c r="J26" s="63"/>
       <c r="K26" s="17"/>
       <c r="L26" s="17"/>
       <c r="M26" s="17"/>
@@ -27732,9 +27750,9 @@
       <c r="B28" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="66"/>
-      <c r="D28" s="67"/>
-      <c r="E28" s="67"/>
+      <c r="C28" s="67"/>
+      <c r="D28" s="68"/>
+      <c r="E28" s="68"/>
       <c r="F28" s="1" t="s">
         <v>8</v>
       </c>
@@ -27767,11 +27785,11 @@
         <v>1</v>
       </c>
       <c r="C29" s="1">
-        <v>0</v>
+        <v>3.16</v>
       </c>
       <c r="D29" s="6"/>
       <c r="E29" s="40">
-        <v>0</v>
+        <v>3.16</v>
       </c>
       <c r="F29" s="36">
         <f>Racks!F29</f>
@@ -27943,10 +27961,10 @@
         <v>2</v>
       </c>
       <c r="C30" s="40">
-        <v>0</v>
+        <v>3.16</v>
       </c>
       <c r="D30" s="1">
-        <v>0</v>
+        <v>3.16</v>
       </c>
       <c r="E30" s="6"/>
       <c r="F30" s="36">
@@ -28121,10 +28139,10 @@
       </c>
       <c r="C31" s="6"/>
       <c r="D31" s="40">
-        <v>0</v>
+        <v>3.16</v>
       </c>
       <c r="E31" s="1">
-        <v>0</v>
+        <v>3.16</v>
       </c>
       <c r="F31" s="36">
         <f>Racks!F31</f>
@@ -28294,11 +28312,11 @@
         <v>4</v>
       </c>
       <c r="C32" s="1">
-        <v>0</v>
+        <v>5.13</v>
       </c>
       <c r="D32" s="6"/>
       <c r="E32" s="40">
-        <v>0</v>
+        <v>5.13</v>
       </c>
       <c r="F32" s="36">
         <f>Racks!F32</f>
@@ -28468,10 +28486,10 @@
         <v>5</v>
       </c>
       <c r="C33" s="40">
-        <v>0</v>
+        <v>5.13</v>
       </c>
       <c r="D33" s="1">
-        <v>0</v>
+        <v>5.13</v>
       </c>
       <c r="E33" s="6"/>
       <c r="F33" s="36">
@@ -28645,10 +28663,10 @@
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="40">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="E34" s="1">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="F34" s="36">
         <f>Racks!F34</f>
@@ -28813,31 +28831,31 @@
       <c r="DQ34" s="14"/>
     </row>
     <row r="35" spans="1:121" ht="22">
-      <c r="A35" s="70"/>
+      <c r="A35" s="69"/>
       <c r="B35" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C35" s="32">
         <f>SUM(C29:C34)</f>
-        <v>0</v>
+        <v>16.579999999999998</v>
       </c>
       <c r="D35" s="33">
         <f>SUM(D29:D34)</f>
-        <v>0</v>
+        <v>13.43</v>
       </c>
       <c r="E35" s="34">
         <f>SUM(E29:E34)</f>
-        <v>0</v>
+        <v>13.43</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G35" s="72" t="s">
+      <c r="G35" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="H35" s="73"/>
-      <c r="I35" s="73"/>
-      <c r="J35" s="73"/>
+      <c r="H35" s="72"/>
+      <c r="I35" s="72"/>
+      <c r="J35" s="72"/>
       <c r="K35" s="17"/>
       <c r="L35" s="17"/>
       <c r="M35" s="17"/>
@@ -28850,24 +28868,24 @@
       <c r="T35" s="18"/>
     </row>
     <row r="36" spans="1:121" ht="24">
-      <c r="A36" s="71"/>
+      <c r="A36" s="70"/>
       <c r="B36" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="61">
+      <c r="C36" s="86">
         <f>SUM(C35:E35)</f>
-        <v>0</v>
-      </c>
-      <c r="D36" s="62"/>
-      <c r="E36" s="62"/>
-      <c r="F36" s="63"/>
-      <c r="G36" s="79">
+        <v>43.44</v>
+      </c>
+      <c r="D36" s="87"/>
+      <c r="E36" s="87"/>
+      <c r="F36" s="88"/>
+      <c r="G36" s="81">
         <f>ROUNDUP(SUM(C35:E35)/3,2)</f>
-        <v>0</v>
-      </c>
-      <c r="H36" s="80"/>
-      <c r="I36" s="80"/>
-      <c r="J36" s="80"/>
+        <v>14.48</v>
+      </c>
+      <c r="H36" s="82"/>
+      <c r="I36" s="82"/>
+      <c r="J36" s="82"/>
       <c r="K36" s="17"/>
       <c r="L36" s="17"/>
       <c r="M36" s="17"/>
@@ -28880,24 +28898,24 @@
       <c r="T36" s="18"/>
     </row>
     <row r="37" spans="1:121" ht="22" customHeight="1">
-      <c r="A37" s="81"/>
+      <c r="A37" s="75"/>
       <c r="B37" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="C37" s="55">
+      <c r="C37" s="59">
         <f>C36</f>
-        <v>0</v>
-      </c>
-      <c r="D37" s="56"/>
-      <c r="E37" s="56"/>
-      <c r="F37" s="57"/>
-      <c r="G37" s="83">
+        <v>43.44</v>
+      </c>
+      <c r="D37" s="60"/>
+      <c r="E37" s="60"/>
+      <c r="F37" s="61"/>
+      <c r="G37" s="77">
         <f>G36</f>
-        <v>0</v>
-      </c>
-      <c r="H37" s="84"/>
-      <c r="I37" s="84"/>
-      <c r="J37" s="84"/>
+        <v>14.48</v>
+      </c>
+      <c r="H37" s="78"/>
+      <c r="I37" s="78"/>
+      <c r="J37" s="78"/>
       <c r="K37" s="17"/>
       <c r="L37" s="17"/>
       <c r="M37" s="17"/>
@@ -28910,18 +28928,18 @@
       <c r="T37" s="18"/>
     </row>
     <row r="38" spans="1:121" ht="22" customHeight="1">
-      <c r="A38" s="82"/>
+      <c r="A38" s="76"/>
       <c r="B38" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="C38" s="58"/>
-      <c r="D38" s="59"/>
-      <c r="E38" s="59"/>
-      <c r="F38" s="60"/>
-      <c r="G38" s="85"/>
-      <c r="H38" s="86"/>
-      <c r="I38" s="86"/>
-      <c r="J38" s="86"/>
+      <c r="C38" s="62"/>
+      <c r="D38" s="63"/>
+      <c r="E38" s="63"/>
+      <c r="F38" s="64"/>
+      <c r="G38" s="79"/>
+      <c r="H38" s="80"/>
+      <c r="I38" s="80"/>
+      <c r="J38" s="80"/>
       <c r="K38" s="17"/>
       <c r="L38" s="17"/>
       <c r="M38" s="17"/>
@@ -28934,16 +28952,16 @@
       <c r="T38" s="18"/>
     </row>
     <row r="39" spans="1:121" s="23" customFormat="1" ht="11">
-      <c r="A39" s="68"/>
-      <c r="B39" s="69"/>
-      <c r="C39" s="69"/>
-      <c r="D39" s="69"/>
-      <c r="E39" s="69"/>
-      <c r="F39" s="69"/>
-      <c r="G39" s="69"/>
-      <c r="H39" s="69"/>
-      <c r="I39" s="69"/>
-      <c r="J39" s="69"/>
+      <c r="A39" s="65"/>
+      <c r="B39" s="66"/>
+      <c r="C39" s="66"/>
+      <c r="D39" s="66"/>
+      <c r="E39" s="66"/>
+      <c r="F39" s="66"/>
+      <c r="G39" s="66"/>
+      <c r="H39" s="66"/>
+      <c r="I39" s="66"/>
+      <c r="J39" s="66"/>
       <c r="K39" s="21"/>
       <c r="L39" s="21"/>
       <c r="M39" s="21"/>
@@ -29004,9 +29022,9 @@
       <c r="B41" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C41" s="66"/>
-      <c r="D41" s="67"/>
-      <c r="E41" s="67"/>
+      <c r="C41" s="67"/>
+      <c r="D41" s="68"/>
+      <c r="E41" s="68"/>
       <c r="F41" s="1" t="s">
         <v>8</v>
       </c>
@@ -29039,11 +29057,11 @@
         <v>1</v>
       </c>
       <c r="C42" s="1">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="D42" s="6"/>
       <c r="E42" s="40">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="F42" s="36">
         <f>Racks!F42</f>
@@ -29143,10 +29161,10 @@
         <v>2</v>
       </c>
       <c r="C43" s="40">
-        <v>0</v>
+        <v>5.13</v>
       </c>
       <c r="D43" s="1">
-        <v>0</v>
+        <v>5.13</v>
       </c>
       <c r="E43" s="6"/>
       <c r="F43" s="36">
@@ -29249,10 +29267,10 @@
       </c>
       <c r="C44" s="6"/>
       <c r="D44" s="40">
-        <v>0</v>
+        <v>5.13</v>
       </c>
       <c r="E44" s="1">
-        <v>0</v>
+        <v>5.13</v>
       </c>
       <c r="F44" s="36">
         <f>Racks!F44</f>
@@ -29350,11 +29368,11 @@
         <v>4</v>
       </c>
       <c r="C45" s="1">
-        <v>0</v>
+        <v>3.16</v>
       </c>
       <c r="D45" s="6"/>
       <c r="E45" s="40">
-        <v>0</v>
+        <v>3.16</v>
       </c>
       <c r="F45" s="36">
         <f>Racks!F45</f>
@@ -29452,10 +29470,10 @@
         <v>5</v>
       </c>
       <c r="C46" s="40">
-        <v>0</v>
+        <v>3.16</v>
       </c>
       <c r="D46" s="1">
-        <v>0</v>
+        <v>3.16</v>
       </c>
       <c r="E46" s="6"/>
       <c r="F46" s="36">
@@ -29557,10 +29575,10 @@
       </c>
       <c r="C47" s="6"/>
       <c r="D47" s="40">
-        <v>0</v>
+        <v>3.16</v>
       </c>
       <c r="E47" s="1">
-        <v>0</v>
+        <v>3.16</v>
       </c>
       <c r="F47" s="36">
         <f>Racks!F47</f>
@@ -29653,31 +29671,31 @@
       <c r="AW47" s="14"/>
     </row>
     <row r="48" spans="1:121" ht="22">
-      <c r="A48" s="70"/>
+      <c r="A48" s="69"/>
       <c r="B48" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C48" s="32">
         <f>SUM(C42:C47)</f>
-        <v>0</v>
+        <v>13.43</v>
       </c>
       <c r="D48" s="33">
         <f>SUM(D42:D47)</f>
-        <v>0</v>
+        <v>16.579999999999998</v>
       </c>
       <c r="E48" s="34">
         <f>SUM(E42:E47)</f>
-        <v>0</v>
+        <v>13.43</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G48" s="72" t="s">
+      <c r="G48" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="H48" s="73"/>
-      <c r="I48" s="73"/>
-      <c r="J48" s="73"/>
+      <c r="H48" s="72"/>
+      <c r="I48" s="72"/>
+      <c r="J48" s="72"/>
       <c r="K48" s="17"/>
       <c r="L48" s="17"/>
       <c r="M48" s="17"/>
@@ -29690,24 +29708,24 @@
       <c r="T48" s="18"/>
     </row>
     <row r="49" spans="1:47" ht="22">
-      <c r="A49" s="71"/>
+      <c r="A49" s="70"/>
       <c r="B49" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C49" s="76">
+      <c r="C49" s="83">
         <f>SUM(C48:E48)</f>
-        <v>0</v>
-      </c>
-      <c r="D49" s="77"/>
-      <c r="E49" s="77"/>
-      <c r="F49" s="78"/>
-      <c r="G49" s="74">
+        <v>43.44</v>
+      </c>
+      <c r="D49" s="84"/>
+      <c r="E49" s="84"/>
+      <c r="F49" s="85"/>
+      <c r="G49" s="73">
         <f>ROUNDUP(SUM(C48:E48)/3,2)</f>
-        <v>0</v>
-      </c>
-      <c r="H49" s="75"/>
-      <c r="I49" s="75"/>
-      <c r="J49" s="75"/>
+        <v>14.48</v>
+      </c>
+      <c r="H49" s="74"/>
+      <c r="I49" s="74"/>
+      <c r="J49" s="74"/>
       <c r="K49" s="17"/>
       <c r="L49" s="17"/>
       <c r="M49" s="17"/>
@@ -29720,24 +29738,24 @@
       <c r="T49" s="18"/>
     </row>
     <row r="50" spans="1:47" ht="22" customHeight="1">
-      <c r="A50" s="70"/>
-      <c r="B50" s="81" t="s">
+      <c r="A50" s="69"/>
+      <c r="B50" s="75" t="s">
         <v>43</v>
       </c>
-      <c r="C50" s="55">
+      <c r="C50" s="59">
         <f>SUM(C37+C49)</f>
-        <v>0</v>
-      </c>
-      <c r="D50" s="56"/>
-      <c r="E50" s="56"/>
-      <c r="F50" s="57"/>
-      <c r="G50" s="55">
+        <v>86.88</v>
+      </c>
+      <c r="D50" s="60"/>
+      <c r="E50" s="60"/>
+      <c r="F50" s="61"/>
+      <c r="G50" s="59">
         <f>SUM(G37+G49)</f>
-        <v>0</v>
-      </c>
-      <c r="H50" s="56"/>
-      <c r="I50" s="56"/>
-      <c r="J50" s="56"/>
+        <v>28.96</v>
+      </c>
+      <c r="H50" s="60"/>
+      <c r="I50" s="60"/>
+      <c r="J50" s="60"/>
       <c r="K50" s="17"/>
       <c r="L50" s="17"/>
       <c r="M50" s="17"/>
@@ -29750,16 +29768,16 @@
       <c r="T50" s="18"/>
     </row>
     <row r="51" spans="1:47" ht="22" customHeight="1">
-      <c r="A51" s="71"/>
-      <c r="B51" s="82"/>
-      <c r="C51" s="58"/>
-      <c r="D51" s="59"/>
-      <c r="E51" s="59"/>
-      <c r="F51" s="60"/>
-      <c r="G51" s="58"/>
-      <c r="H51" s="59"/>
-      <c r="I51" s="59"/>
-      <c r="J51" s="59"/>
+      <c r="A51" s="70"/>
+      <c r="B51" s="76"/>
+      <c r="C51" s="62"/>
+      <c r="D51" s="63"/>
+      <c r="E51" s="63"/>
+      <c r="F51" s="64"/>
+      <c r="G51" s="62"/>
+      <c r="H51" s="63"/>
+      <c r="I51" s="63"/>
+      <c r="J51" s="63"/>
       <c r="K51" s="17"/>
       <c r="L51" s="17"/>
       <c r="M51" s="17"/>
@@ -29820,9 +29838,9 @@
       <c r="B53" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C53" s="66"/>
-      <c r="D53" s="67"/>
-      <c r="E53" s="67"/>
+      <c r="C53" s="67"/>
+      <c r="D53" s="68"/>
+      <c r="E53" s="68"/>
       <c r="F53" s="1" t="s">
         <v>8</v>
       </c>
@@ -29855,11 +29873,11 @@
         <v>1</v>
       </c>
       <c r="C54" s="1">
-        <v>0</v>
+        <v>4.6500000000000004</v>
       </c>
       <c r="D54" s="6"/>
       <c r="E54" s="40">
-        <v>0</v>
+        <v>4.6500000000000004</v>
       </c>
       <c r="F54" s="44">
         <f>Racks!F54</f>
@@ -29957,10 +29975,10 @@
         <v>2</v>
       </c>
       <c r="C55" s="40">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="D55" s="1">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="E55" s="6"/>
       <c r="F55" s="44">
@@ -30061,10 +30079,10 @@
       </c>
       <c r="C56" s="6"/>
       <c r="D56" s="40">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="E56" s="1">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="F56" s="44">
         <f>Racks!F56</f>
@@ -30160,11 +30178,11 @@
         <v>4</v>
       </c>
       <c r="C57" s="1">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="D57" s="6"/>
       <c r="E57" s="40">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="F57" s="44">
         <f>Racks!F57</f>
@@ -30260,10 +30278,10 @@
         <v>5</v>
       </c>
       <c r="C58" s="40">
-        <v>0</v>
+        <v>3.26</v>
       </c>
       <c r="D58" s="1">
-        <v>0</v>
+        <v>3.26</v>
       </c>
       <c r="E58" s="6"/>
       <c r="F58" s="44">
@@ -30363,10 +30381,10 @@
       </c>
       <c r="C59" s="6"/>
       <c r="D59" s="40">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="E59" s="1">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="F59" s="44">
         <f>Racks!F59</f>
@@ -30457,31 +30475,31 @@
       <c r="AU59" s="14"/>
     </row>
     <row r="60" spans="1:47" ht="22">
-      <c r="A60" s="70"/>
+      <c r="A60" s="69"/>
       <c r="B60" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C60" s="32">
         <f>SUM(C54:C59)</f>
-        <v>0</v>
+        <v>13.42</v>
       </c>
       <c r="D60" s="33">
         <f>SUM(D54:D59)</f>
-        <v>0</v>
+        <v>11.36</v>
       </c>
       <c r="E60" s="34">
         <f>SUM(E54:E59)</f>
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G60" s="72" t="s">
+      <c r="G60" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="H60" s="73"/>
-      <c r="I60" s="73"/>
-      <c r="J60" s="73"/>
+      <c r="H60" s="72"/>
+      <c r="I60" s="72"/>
+      <c r="J60" s="72"/>
       <c r="K60" s="17"/>
       <c r="L60" s="17"/>
       <c r="M60" s="17"/>
@@ -30494,24 +30512,24 @@
       <c r="T60" s="18"/>
     </row>
     <row r="61" spans="1:47" ht="24">
-      <c r="A61" s="71"/>
+      <c r="A61" s="70"/>
       <c r="B61" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C61" s="61">
+      <c r="C61" s="86">
         <f>SUM(C60:E60)</f>
-        <v>0</v>
-      </c>
-      <c r="D61" s="62"/>
-      <c r="E61" s="62"/>
-      <c r="F61" s="63"/>
-      <c r="G61" s="79">
+        <v>37.28</v>
+      </c>
+      <c r="D61" s="87"/>
+      <c r="E61" s="87"/>
+      <c r="F61" s="88"/>
+      <c r="G61" s="81">
         <f>ROUNDUP(SUM(C60:E60)/3,2)</f>
-        <v>0</v>
-      </c>
-      <c r="H61" s="80"/>
-      <c r="I61" s="80"/>
-      <c r="J61" s="80"/>
+        <v>12.43</v>
+      </c>
+      <c r="H61" s="82"/>
+      <c r="I61" s="82"/>
+      <c r="J61" s="82"/>
       <c r="K61" s="17"/>
       <c r="L61" s="17"/>
       <c r="M61" s="17"/>
@@ -30524,24 +30542,24 @@
       <c r="T61" s="18"/>
     </row>
     <row r="62" spans="1:47" ht="22" customHeight="1">
-      <c r="A62" s="81"/>
+      <c r="A62" s="75"/>
       <c r="B62" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="C62" s="55">
+      <c r="C62" s="59">
         <f>C61</f>
-        <v>0</v>
-      </c>
-      <c r="D62" s="56"/>
-      <c r="E62" s="56"/>
-      <c r="F62" s="57"/>
-      <c r="G62" s="83">
+        <v>37.28</v>
+      </c>
+      <c r="D62" s="60"/>
+      <c r="E62" s="60"/>
+      <c r="F62" s="61"/>
+      <c r="G62" s="77">
         <f>G61</f>
-        <v>0</v>
-      </c>
-      <c r="H62" s="84"/>
-      <c r="I62" s="84"/>
-      <c r="J62" s="84"/>
+        <v>12.43</v>
+      </c>
+      <c r="H62" s="78"/>
+      <c r="I62" s="78"/>
+      <c r="J62" s="78"/>
       <c r="K62" s="17"/>
       <c r="L62" s="17"/>
       <c r="M62" s="17"/>
@@ -30554,18 +30572,18 @@
       <c r="T62" s="18"/>
     </row>
     <row r="63" spans="1:47" ht="22" customHeight="1">
-      <c r="A63" s="82"/>
+      <c r="A63" s="76"/>
       <c r="B63" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="C63" s="58"/>
-      <c r="D63" s="59"/>
-      <c r="E63" s="59"/>
-      <c r="F63" s="60"/>
-      <c r="G63" s="85"/>
-      <c r="H63" s="86"/>
-      <c r="I63" s="86"/>
-      <c r="J63" s="86"/>
+      <c r="C63" s="62"/>
+      <c r="D63" s="63"/>
+      <c r="E63" s="63"/>
+      <c r="F63" s="64"/>
+      <c r="G63" s="79"/>
+      <c r="H63" s="80"/>
+      <c r="I63" s="80"/>
+      <c r="J63" s="80"/>
       <c r="K63" s="17"/>
       <c r="L63" s="17"/>
       <c r="M63" s="17"/>
@@ -30578,16 +30596,16 @@
       <c r="T63" s="18"/>
     </row>
     <row r="64" spans="1:47" s="23" customFormat="1" ht="11">
-      <c r="A64" s="68"/>
-      <c r="B64" s="69"/>
-      <c r="C64" s="69"/>
-      <c r="D64" s="69"/>
-      <c r="E64" s="69"/>
-      <c r="F64" s="69"/>
-      <c r="G64" s="69"/>
-      <c r="H64" s="69"/>
-      <c r="I64" s="69"/>
-      <c r="J64" s="69"/>
+      <c r="A64" s="65"/>
+      <c r="B64" s="66"/>
+      <c r="C64" s="66"/>
+      <c r="D64" s="66"/>
+      <c r="E64" s="66"/>
+      <c r="F64" s="66"/>
+      <c r="G64" s="66"/>
+      <c r="H64" s="66"/>
+      <c r="I64" s="66"/>
+      <c r="J64" s="66"/>
       <c r="K64" s="21"/>
       <c r="L64" s="21"/>
       <c r="M64" s="21"/>
@@ -30648,9 +30666,9 @@
       <c r="B66" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C66" s="66"/>
-      <c r="D66" s="67"/>
-      <c r="E66" s="67"/>
+      <c r="C66" s="67"/>
+      <c r="D66" s="68"/>
+      <c r="E66" s="68"/>
       <c r="F66" s="1" t="s">
         <v>8</v>
       </c>
@@ -30683,11 +30701,11 @@
         <v>1</v>
       </c>
       <c r="C67" s="1">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="D67" s="6"/>
       <c r="E67" s="40">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="F67" s="43">
         <f>Racks!F67</f>
@@ -30780,10 +30798,10 @@
         <v>2</v>
       </c>
       <c r="C68" s="40">
-        <v>0</v>
+        <v>3.26</v>
       </c>
       <c r="D68" s="1">
-        <v>0</v>
+        <v>3.26</v>
       </c>
       <c r="E68" s="6"/>
       <c r="F68" s="43">
@@ -30879,10 +30897,10 @@
       </c>
       <c r="C69" s="6"/>
       <c r="D69" s="40">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="E69" s="1">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="F69" s="43">
         <f>Racks!F69</f>
@@ -30973,11 +30991,11 @@
         <v>4</v>
       </c>
       <c r="C70" s="1">
-        <v>0</v>
+        <v>4.84</v>
       </c>
       <c r="D70" s="6"/>
       <c r="E70" s="40">
-        <v>0</v>
+        <v>4.84</v>
       </c>
       <c r="F70" s="43">
         <f>Racks!F70</f>
@@ -31068,10 +31086,10 @@
         <v>5</v>
       </c>
       <c r="C71" s="40">
-        <v>0</v>
+        <v>3.26</v>
       </c>
       <c r="D71" s="1">
-        <v>0</v>
+        <v>3.26</v>
       </c>
       <c r="E71" s="6"/>
       <c r="F71" s="43">
@@ -31166,10 +31184,10 @@
       </c>
       <c r="C72" s="6"/>
       <c r="D72" s="40">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="E72" s="1">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="F72" s="43">
         <f>Racks!F72</f>
@@ -31255,31 +31273,31 @@
       <c r="AP72" s="14"/>
     </row>
     <row r="73" spans="1:90" ht="22">
-      <c r="A73" s="70"/>
+      <c r="A73" s="69"/>
       <c r="B73" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C73" s="32">
         <f>SUM(C67:C72)</f>
-        <v>0</v>
+        <v>13.12</v>
       </c>
       <c r="D73" s="33">
         <f>SUM(D67:D72)</f>
-        <v>0</v>
+        <v>12.279999999999998</v>
       </c>
       <c r="E73" s="34">
         <f>SUM(E67:E72)</f>
-        <v>0</v>
+        <v>12.36</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G73" s="72" t="s">
+      <c r="G73" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="H73" s="73"/>
-      <c r="I73" s="73"/>
-      <c r="J73" s="73"/>
+      <c r="H73" s="72"/>
+      <c r="I73" s="72"/>
+      <c r="J73" s="72"/>
       <c r="K73" s="17"/>
       <c r="L73" s="17"/>
       <c r="M73" s="17"/>
@@ -31292,24 +31310,24 @@
       <c r="T73" s="18"/>
     </row>
     <row r="74" spans="1:90" ht="22">
-      <c r="A74" s="71"/>
+      <c r="A74" s="70"/>
       <c r="B74" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C74" s="76">
+      <c r="C74" s="83">
         <f>SUM(C73:E73)</f>
-        <v>0</v>
-      </c>
-      <c r="D74" s="77"/>
-      <c r="E74" s="77"/>
-      <c r="F74" s="78"/>
-      <c r="G74" s="74">
+        <v>37.76</v>
+      </c>
+      <c r="D74" s="84"/>
+      <c r="E74" s="84"/>
+      <c r="F74" s="85"/>
+      <c r="G74" s="73">
         <f>ROUNDUP(SUM(C73:E73)/3,2)</f>
-        <v>0</v>
-      </c>
-      <c r="H74" s="75"/>
-      <c r="I74" s="75"/>
-      <c r="J74" s="75"/>
+        <v>12.59</v>
+      </c>
+      <c r="H74" s="74"/>
+      <c r="I74" s="74"/>
+      <c r="J74" s="74"/>
       <c r="K74" s="17"/>
       <c r="L74" s="17"/>
       <c r="M74" s="17"/>
@@ -31322,24 +31340,24 @@
       <c r="T74" s="18"/>
     </row>
     <row r="75" spans="1:90" ht="22" customHeight="1">
-      <c r="A75" s="70"/>
-      <c r="B75" s="81" t="s">
+      <c r="A75" s="69"/>
+      <c r="B75" s="75" t="s">
         <v>45</v>
       </c>
-      <c r="C75" s="55">
+      <c r="C75" s="59">
         <f>SUM(C62+C74)</f>
-        <v>0</v>
-      </c>
-      <c r="D75" s="56"/>
-      <c r="E75" s="56"/>
-      <c r="F75" s="57"/>
-      <c r="G75" s="55">
+        <v>75.039999999999992</v>
+      </c>
+      <c r="D75" s="60"/>
+      <c r="E75" s="60"/>
+      <c r="F75" s="61"/>
+      <c r="G75" s="59">
         <f>SUM(G62+G74)</f>
-        <v>0</v>
-      </c>
-      <c r="H75" s="56"/>
-      <c r="I75" s="56"/>
-      <c r="J75" s="56"/>
+        <v>25.02</v>
+      </c>
+      <c r="H75" s="60"/>
+      <c r="I75" s="60"/>
+      <c r="J75" s="60"/>
       <c r="K75" s="17"/>
       <c r="L75" s="17"/>
       <c r="M75" s="17"/>
@@ -31352,16 +31370,16 @@
       <c r="T75" s="18"/>
     </row>
     <row r="76" spans="1:90" ht="22" customHeight="1">
-      <c r="A76" s="71"/>
-      <c r="B76" s="82"/>
-      <c r="C76" s="58"/>
-      <c r="D76" s="59"/>
-      <c r="E76" s="59"/>
-      <c r="F76" s="60"/>
-      <c r="G76" s="58"/>
-      <c r="H76" s="59"/>
-      <c r="I76" s="59"/>
-      <c r="J76" s="59"/>
+      <c r="A76" s="70"/>
+      <c r="B76" s="76"/>
+      <c r="C76" s="62"/>
+      <c r="D76" s="63"/>
+      <c r="E76" s="63"/>
+      <c r="F76" s="64"/>
+      <c r="G76" s="62"/>
+      <c r="H76" s="63"/>
+      <c r="I76" s="63"/>
+      <c r="J76" s="63"/>
       <c r="K76" s="17"/>
       <c r="L76" s="17"/>
       <c r="M76" s="17"/>
@@ -31422,9 +31440,9 @@
       <c r="B78" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C78" s="66"/>
-      <c r="D78" s="67"/>
-      <c r="E78" s="67"/>
+      <c r="C78" s="67"/>
+      <c r="D78" s="68"/>
+      <c r="E78" s="68"/>
       <c r="F78" s="1" t="s">
         <v>8</v>
       </c>
@@ -31457,11 +31475,11 @@
         <v>1</v>
       </c>
       <c r="C79" s="1">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="D79" s="6"/>
       <c r="E79" s="40">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="F79" s="44">
         <f>Racks!F79</f>
@@ -31602,10 +31620,10 @@
         <v>2</v>
       </c>
       <c r="C80" s="40">
-        <v>0</v>
+        <v>2.37</v>
       </c>
       <c r="D80" s="1">
-        <v>0</v>
+        <v>2.37</v>
       </c>
       <c r="E80" s="6"/>
       <c r="F80" s="44">
@@ -31749,10 +31767,10 @@
       </c>
       <c r="C81" s="6"/>
       <c r="D81" s="40">
-        <v>0</v>
+        <v>2.98</v>
       </c>
       <c r="E81" s="1">
-        <v>0</v>
+        <v>2.98</v>
       </c>
       <c r="F81" s="44">
         <f>Racks!F81</f>
@@ -31891,11 +31909,11 @@
         <v>4</v>
       </c>
       <c r="C82" s="1">
-        <v>0</v>
+        <v>3.58</v>
       </c>
       <c r="D82" s="6"/>
       <c r="E82" s="40">
-        <v>0</v>
+        <v>3.58</v>
       </c>
       <c r="F82" s="44">
         <f>Racks!F82</f>
@@ -32034,10 +32052,10 @@
         <v>5</v>
       </c>
       <c r="C83" s="40">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="D83" s="1">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="E83" s="6"/>
       <c r="F83" s="44">
@@ -32317,31 +32335,31 @@
       <c r="CL84" s="14"/>
     </row>
     <row r="85" spans="1:90" ht="22">
-      <c r="A85" s="70"/>
+      <c r="A85" s="69"/>
       <c r="B85" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C85" s="32">
         <f>SUM(C79:C84)</f>
-        <v>0</v>
+        <v>8.92</v>
       </c>
       <c r="D85" s="33">
         <f>SUM(D79:D84)</f>
-        <v>0</v>
+        <v>7.14</v>
       </c>
       <c r="E85" s="34">
         <f>SUM(E79:E84)</f>
-        <v>0</v>
+        <v>7.74</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G85" s="72" t="s">
+      <c r="G85" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="H85" s="73"/>
-      <c r="I85" s="73"/>
-      <c r="J85" s="73"/>
+      <c r="H85" s="72"/>
+      <c r="I85" s="72"/>
+      <c r="J85" s="72"/>
       <c r="K85" s="17"/>
       <c r="L85" s="17"/>
       <c r="M85" s="17"/>
@@ -32354,24 +32372,24 @@
       <c r="T85" s="18"/>
     </row>
     <row r="86" spans="1:90" ht="24">
-      <c r="A86" s="71"/>
+      <c r="A86" s="70"/>
       <c r="B86" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C86" s="61">
+      <c r="C86" s="86">
         <f>SUM(C85:E85)</f>
-        <v>0</v>
-      </c>
-      <c r="D86" s="62"/>
-      <c r="E86" s="62"/>
-      <c r="F86" s="63"/>
-      <c r="G86" s="79">
+        <v>23.799999999999997</v>
+      </c>
+      <c r="D86" s="87"/>
+      <c r="E86" s="87"/>
+      <c r="F86" s="88"/>
+      <c r="G86" s="81">
         <f>ROUNDUP(SUM(C85:E85)/3,2)</f>
-        <v>0</v>
-      </c>
-      <c r="H86" s="80"/>
-      <c r="I86" s="80"/>
-      <c r="J86" s="80"/>
+        <v>7.9399999999999995</v>
+      </c>
+      <c r="H86" s="82"/>
+      <c r="I86" s="82"/>
+      <c r="J86" s="82"/>
       <c r="K86" s="17"/>
       <c r="L86" s="17"/>
       <c r="M86" s="17"/>
@@ -32384,24 +32402,24 @@
       <c r="T86" s="18"/>
     </row>
     <row r="87" spans="1:90" ht="22" customHeight="1">
-      <c r="A87" s="81"/>
+      <c r="A87" s="75"/>
       <c r="B87" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="C87" s="55">
+      <c r="C87" s="59">
         <f>C86</f>
-        <v>0</v>
-      </c>
-      <c r="D87" s="56"/>
-      <c r="E87" s="56"/>
-      <c r="F87" s="57"/>
-      <c r="G87" s="83">
+        <v>23.799999999999997</v>
+      </c>
+      <c r="D87" s="60"/>
+      <c r="E87" s="60"/>
+      <c r="F87" s="61"/>
+      <c r="G87" s="77">
         <f>G86</f>
-        <v>0</v>
-      </c>
-      <c r="H87" s="84"/>
-      <c r="I87" s="84"/>
-      <c r="J87" s="84"/>
+        <v>7.9399999999999995</v>
+      </c>
+      <c r="H87" s="78"/>
+      <c r="I87" s="78"/>
+      <c r="J87" s="78"/>
       <c r="K87" s="17"/>
       <c r="L87" s="17"/>
       <c r="M87" s="17"/>
@@ -32414,18 +32432,18 @@
       <c r="T87" s="18"/>
     </row>
     <row r="88" spans="1:90" ht="22" customHeight="1">
-      <c r="A88" s="82"/>
+      <c r="A88" s="76"/>
       <c r="B88" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="C88" s="58"/>
-      <c r="D88" s="59"/>
-      <c r="E88" s="59"/>
-      <c r="F88" s="60"/>
-      <c r="G88" s="85"/>
-      <c r="H88" s="86"/>
-      <c r="I88" s="86"/>
-      <c r="J88" s="86"/>
+      <c r="C88" s="62"/>
+      <c r="D88" s="63"/>
+      <c r="E88" s="63"/>
+      <c r="F88" s="64"/>
+      <c r="G88" s="79"/>
+      <c r="H88" s="80"/>
+      <c r="I88" s="80"/>
+      <c r="J88" s="80"/>
       <c r="K88" s="17"/>
       <c r="L88" s="17"/>
       <c r="M88" s="17"/>
@@ -32438,16 +32456,16 @@
       <c r="T88" s="18"/>
     </row>
     <row r="89" spans="1:90" s="27" customFormat="1" ht="7">
-      <c r="A89" s="89"/>
-      <c r="B89" s="90"/>
-      <c r="C89" s="90"/>
-      <c r="D89" s="90"/>
-      <c r="E89" s="90"/>
-      <c r="F89" s="90"/>
-      <c r="G89" s="90"/>
-      <c r="H89" s="90"/>
-      <c r="I89" s="90"/>
-      <c r="J89" s="90"/>
+      <c r="A89" s="91"/>
+      <c r="B89" s="92"/>
+      <c r="C89" s="92"/>
+      <c r="D89" s="92"/>
+      <c r="E89" s="92"/>
+      <c r="F89" s="92"/>
+      <c r="G89" s="92"/>
+      <c r="H89" s="92"/>
+      <c r="I89" s="92"/>
+      <c r="J89" s="92"/>
       <c r="K89" s="25"/>
       <c r="L89" s="25"/>
       <c r="M89" s="25"/>
@@ -32508,9 +32526,9 @@
       <c r="B91" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C91" s="66"/>
-      <c r="D91" s="67"/>
-      <c r="E91" s="67"/>
+      <c r="C91" s="67"/>
+      <c r="D91" s="68"/>
+      <c r="E91" s="68"/>
       <c r="F91" s="1" t="s">
         <v>8</v>
       </c>
@@ -32543,11 +32561,11 @@
         <v>1</v>
       </c>
       <c r="C92" s="1">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="D92" s="6"/>
       <c r="E92" s="40">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="F92" s="36">
         <f>Racks!F92</f>
@@ -32669,10 +32687,10 @@
         <v>2</v>
       </c>
       <c r="C93" s="40">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="D93" s="1">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="E93" s="6"/>
       <c r="F93" s="36">
@@ -32797,10 +32815,10 @@
       </c>
       <c r="C94" s="6"/>
       <c r="D94" s="40">
-        <v>0</v>
+        <v>2.98</v>
       </c>
       <c r="E94" s="1">
-        <v>0</v>
+        <v>2.98</v>
       </c>
       <c r="F94" s="36">
         <f>Racks!F94</f>
@@ -32920,11 +32938,11 @@
         <v>4</v>
       </c>
       <c r="C95" s="1">
-        <v>0</v>
+        <v>2.98</v>
       </c>
       <c r="D95" s="6"/>
       <c r="E95" s="40">
-        <v>0</v>
+        <v>2.98</v>
       </c>
       <c r="F95" s="36">
         <f>Racks!F95</f>
@@ -33044,10 +33062,10 @@
         <v>5</v>
       </c>
       <c r="C96" s="40">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="D96" s="1">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="E96" s="6"/>
       <c r="F96" s="36">
@@ -33171,10 +33189,10 @@
       </c>
       <c r="C97" s="6"/>
       <c r="D97" s="40">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="E97" s="1">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="F97" s="36">
         <f>Racks!F97</f>
@@ -33289,29 +33307,29 @@
       <c r="BS97" s="14"/>
     </row>
     <row r="98" spans="1:71" ht="22">
-      <c r="A98" s="70"/>
+      <c r="A98" s="69"/>
       <c r="B98" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C98" s="32">
         <f>SUM(C92:C97)</f>
-        <v>0</v>
+        <v>7.13</v>
       </c>
       <c r="D98" s="33">
         <f>SUM(D92:D97)</f>
-        <v>0</v>
+        <v>7.74</v>
       </c>
       <c r="E98" s="34">
         <f>SUM(E92:E97)</f>
-        <v>0</v>
+        <v>8.93</v>
       </c>
       <c r="F98" s="1"/>
-      <c r="G98" s="72" t="s">
+      <c r="G98" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="H98" s="73"/>
-      <c r="I98" s="73"/>
-      <c r="J98" s="73"/>
+      <c r="H98" s="72"/>
+      <c r="I98" s="72"/>
+      <c r="J98" s="72"/>
       <c r="K98" s="17"/>
       <c r="L98" s="17"/>
       <c r="M98" s="17"/>
@@ -33319,24 +33337,24 @@
       <c r="O98" s="17"/>
     </row>
     <row r="99" spans="1:71" ht="22">
-      <c r="A99" s="71"/>
+      <c r="A99" s="70"/>
       <c r="B99" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C99" s="76">
+      <c r="C99" s="83">
         <f>SUM(C98:E98)</f>
-        <v>0</v>
-      </c>
-      <c r="D99" s="77"/>
-      <c r="E99" s="77"/>
-      <c r="F99" s="78"/>
-      <c r="G99" s="74">
+        <v>23.8</v>
+      </c>
+      <c r="D99" s="84"/>
+      <c r="E99" s="84"/>
+      <c r="F99" s="85"/>
+      <c r="G99" s="73">
         <f>ROUNDUP(SUM(C98:E98)/3,2)</f>
-        <v>0</v>
-      </c>
-      <c r="H99" s="75"/>
-      <c r="I99" s="75"/>
-      <c r="J99" s="75"/>
+        <v>7.9399999999999995</v>
+      </c>
+      <c r="H99" s="74"/>
+      <c r="I99" s="74"/>
+      <c r="J99" s="74"/>
       <c r="K99" s="17"/>
       <c r="L99" s="17"/>
       <c r="M99" s="17"/>
@@ -33344,24 +33362,24 @@
       <c r="O99" s="17"/>
     </row>
     <row r="100" spans="1:71" ht="22" customHeight="1">
-      <c r="A100" s="70"/>
-      <c r="B100" s="81" t="s">
+      <c r="A100" s="69"/>
+      <c r="B100" s="75" t="s">
         <v>46</v>
       </c>
-      <c r="C100" s="55">
+      <c r="C100" s="59">
         <f>SUM(C87+C99)</f>
-        <v>0</v>
-      </c>
-      <c r="D100" s="56"/>
-      <c r="E100" s="56"/>
-      <c r="F100" s="57"/>
-      <c r="G100" s="55">
+        <v>47.599999999999994</v>
+      </c>
+      <c r="D100" s="60"/>
+      <c r="E100" s="60"/>
+      <c r="F100" s="61"/>
+      <c r="G100" s="59">
         <f>SUM(G87+G99)</f>
-        <v>0</v>
-      </c>
-      <c r="H100" s="56"/>
-      <c r="I100" s="56"/>
-      <c r="J100" s="56"/>
+        <v>15.879999999999999</v>
+      </c>
+      <c r="H100" s="60"/>
+      <c r="I100" s="60"/>
+      <c r="J100" s="60"/>
       <c r="K100" s="17"/>
       <c r="L100" s="17"/>
       <c r="M100" s="17"/>
@@ -33369,16 +33387,16 @@
       <c r="O100" s="17"/>
     </row>
     <row r="101" spans="1:71" ht="22" customHeight="1">
-      <c r="A101" s="71"/>
-      <c r="B101" s="82"/>
-      <c r="C101" s="58"/>
-      <c r="D101" s="59"/>
-      <c r="E101" s="59"/>
-      <c r="F101" s="60"/>
-      <c r="G101" s="58"/>
-      <c r="H101" s="59"/>
-      <c r="I101" s="59"/>
-      <c r="J101" s="59"/>
+      <c r="A101" s="70"/>
+      <c r="B101" s="76"/>
+      <c r="C101" s="62"/>
+      <c r="D101" s="63"/>
+      <c r="E101" s="63"/>
+      <c r="F101" s="64"/>
+      <c r="G101" s="62"/>
+      <c r="H101" s="63"/>
+      <c r="I101" s="63"/>
+      <c r="J101" s="63"/>
       <c r="K101" s="17"/>
       <c r="L101" s="17"/>
       <c r="M101" s="17"/>
@@ -33391,16 +33409,16 @@
       <c r="C102" s="41"/>
       <c r="D102" s="41"/>
       <c r="E102" s="41"/>
-      <c r="F102" s="91" t="s">
+      <c r="F102" s="93" t="s">
         <v>193</v>
       </c>
-      <c r="G102" s="92"/>
-      <c r="H102" s="93"/>
-      <c r="I102" s="94">
+      <c r="G102" s="94"/>
+      <c r="H102" s="95"/>
+      <c r="I102" s="96">
         <f>ROUND(SUM(C103:E103),2)</f>
-        <v>0</v>
-      </c>
-      <c r="J102" s="95"/>
+        <v>296.39999999999998</v>
+      </c>
+      <c r="J102" s="97"/>
       <c r="K102" s="29"/>
       <c r="L102" s="29"/>
       <c r="M102" s="29"/>
@@ -33408,31 +33426,31 @@
       <c r="O102" s="29"/>
     </row>
     <row r="103" spans="1:71" s="30" customFormat="1" ht="32">
-      <c r="A103" s="87" t="s">
+      <c r="A103" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="B103" s="88"/>
+      <c r="B103" s="90"/>
       <c r="C103" s="37">
         <f>ROUND(SUM(C10+C23+C35+C48+C60+C73+C85+C98), 2)</f>
-        <v>0</v>
+        <v>99.46</v>
       </c>
       <c r="D103" s="38">
         <f>ROUND(SUM(D10+D23+D35+D48+D60+D73+D85+D98), 2)</f>
-        <v>0</v>
+        <v>95.39</v>
       </c>
       <c r="E103" s="39">
         <f>ROUND(SUM(E10+E23+E35+E48+E60+E73+E85+E98), 2)</f>
-        <v>0</v>
-      </c>
-      <c r="F103" s="64" t="s">
+        <v>101.55</v>
+      </c>
+      <c r="F103" s="98" t="s">
         <v>32</v>
       </c>
-      <c r="G103" s="64"/>
-      <c r="H103" s="64"/>
-      <c r="I103" s="65">
-        <v>0</v>
-      </c>
-      <c r="J103" s="65"/>
+      <c r="G103" s="98"/>
+      <c r="H103" s="98"/>
+      <c r="I103" s="99">
+        <v>56305</v>
+      </c>
+      <c r="J103" s="99"/>
       <c r="K103" s="29"/>
       <c r="L103" s="29"/>
       <c r="M103" s="29"/>
@@ -33442,21 +33460,53 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="JI9P61h+BAvNMuav40g8b0Xhcz69ODfWuhoffO3+FdrUx9jpGLbJGgCPcH6A4syntsyiaozoHhJvSPKvGwPV/A==" saltValue="HGZxgLLh2r0IUqML0KMAEg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="78">
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="F103:H103"/>
-    <mergeCell ref="I103:J103"/>
-    <mergeCell ref="C91:E91"/>
-    <mergeCell ref="A100:A101"/>
-    <mergeCell ref="B100:B101"/>
-    <mergeCell ref="C100:F101"/>
-    <mergeCell ref="G100:J101"/>
-    <mergeCell ref="F102:H102"/>
-    <mergeCell ref="I102:J102"/>
-    <mergeCell ref="G86:J86"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="C87:F88"/>
-    <mergeCell ref="G87:J88"/>
-    <mergeCell ref="A89:J89"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="G24:J24"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C12:F13"/>
+    <mergeCell ref="G12:J13"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="G48:J48"/>
+    <mergeCell ref="C49:F49"/>
+    <mergeCell ref="G49:J49"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:F26"/>
+    <mergeCell ref="G25:J26"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="G35:J35"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="G36:J36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="C37:F38"/>
+    <mergeCell ref="G37:J38"/>
+    <mergeCell ref="A39:J39"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="G73:J73"/>
+    <mergeCell ref="C74:F74"/>
+    <mergeCell ref="G74:J74"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="C50:F51"/>
+    <mergeCell ref="G50:J51"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="G60:J60"/>
+    <mergeCell ref="C61:F61"/>
+    <mergeCell ref="G61:J61"/>
+    <mergeCell ref="A62:A63"/>
     <mergeCell ref="C62:F63"/>
     <mergeCell ref="G62:J63"/>
     <mergeCell ref="A64:J64"/>
@@ -33473,53 +33523,21 @@
     <mergeCell ref="A85:A86"/>
     <mergeCell ref="G85:J85"/>
     <mergeCell ref="C86:F86"/>
-    <mergeCell ref="A39:J39"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="G73:J73"/>
-    <mergeCell ref="C74:F74"/>
-    <mergeCell ref="G74:J74"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="C50:F51"/>
-    <mergeCell ref="G50:J51"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="G60:J60"/>
-    <mergeCell ref="C61:F61"/>
-    <mergeCell ref="G61:J61"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="G48:J48"/>
-    <mergeCell ref="C49:F49"/>
-    <mergeCell ref="G49:J49"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:F26"/>
-    <mergeCell ref="G25:J26"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="G35:J35"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="G36:J36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="C37:F38"/>
-    <mergeCell ref="G37:J38"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="G24:J24"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="G10:J10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C12:F13"/>
-    <mergeCell ref="G12:J13"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G86:J86"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="C87:F88"/>
+    <mergeCell ref="G87:J88"/>
+    <mergeCell ref="A89:J89"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="F103:H103"/>
+    <mergeCell ref="I103:J103"/>
+    <mergeCell ref="C91:E91"/>
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="B100:B101"/>
+    <mergeCell ref="C100:F101"/>
+    <mergeCell ref="G100:J101"/>
+    <mergeCell ref="F102:H102"/>
+    <mergeCell ref="I102:J102"/>
   </mergeCells>
   <printOptions headings="1"/>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
